--- a/Lego.xlsx
+++ b/Lego.xlsx
@@ -75,7 +75,7 @@
     <t>&lt;p&gt;Christmas Cat Ornament&lt;/p&gt;</t>
   </si>
   <si>
-    <t>850950</t>
+    <t>s_850950-1</t>
   </si>
   <si>
     <t>Price $7.99</t>
@@ -105,7 +105,7 @@
     <t>&lt;p&gt; LEGO® City Advent Calendar&lt;/p&gt;</t>
   </si>
   <si>
-    <t>60063</t>
+    <t>s_60063-1</t>
   </si>
   <si>
     <t>Price $29.99</t>
@@ -156,7 +156,7 @@
     <t>&lt;p&gt;LEGO® Minifigures, Series 12&lt;/p&gt;</t>
   </si>
   <si>
-    <t>71007</t>
+    <t>s_71007-0</t>
   </si>
   <si>
     <t>Price $3.99</t>
@@ -171,7 +171,7 @@
     <t>&lt;p&gt;LEGO® &lt;i&gt;Star Wars&lt;/i&gt;™ Advent Calendar&lt;/p&gt;</t>
   </si>
   <si>
-    <t>75056</t>
+    <t>s_75056-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Attack-on-Lake-town-79016</t>
@@ -180,7 +180,7 @@
     <t>&lt;p&gt;Attack on Lake-town&lt;/p&gt;</t>
   </si>
   <si>
-    <t>79016</t>
+    <t>s_79016-1</t>
   </si>
   <si>
     <t>85</t>
@@ -192,7 +192,7 @@
     <t>Fire and Ice Minifigure Accessory Set</t>
   </si>
   <si>
-    <t>850913</t>
+    <t>s_850913-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/FOOTI-41521</t>
@@ -201,7 +201,7 @@
     <t>FOOTI</t>
   </si>
   <si>
-    <t>41521</t>
+    <t>s_41521-1</t>
   </si>
   <si>
     <t>Price $4.99</t>
@@ -213,7 +213,7 @@
     <t>GLOMP</t>
   </si>
   <si>
-    <t>41518</t>
+    <t>s_41518-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/GLURT-41519</t>
@@ -222,7 +222,7 @@
     <t>GLURT</t>
   </si>
   <si>
-    <t>41519</t>
+    <t>s_41519-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/HOOGI-41523</t>
@@ -231,7 +231,7 @@
     <t>HOOGI</t>
   </si>
   <si>
-    <t>41523</t>
+    <t>s_41523-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Creative-Suitcase-10682</t>
@@ -240,7 +240,7 @@
     <t>&lt;p&gt;LEGO® Creative Suitcase&lt;/p&gt;</t>
   </si>
   <si>
-    <t>10682</t>
+    <t>s_10682-1</t>
   </si>
   <si>
     <t>Price $59.99</t>
@@ -255,7 +255,7 @@
     <t>MAGNIFO</t>
   </si>
   <si>
-    <t>41525</t>
+    <t>s_41525-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/MESMO-41524</t>
@@ -264,7 +264,7 @@
     <t>MESMO</t>
   </si>
   <si>
-    <t>41524</t>
+    <t>s_41524-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mos-Eisley-Cantina-75052</t>
@@ -273,7 +273,7 @@
     <t>Mos Eisley Cantina™</t>
   </si>
   <si>
-    <t>75052</t>
+    <t>s_75052-1</t>
   </si>
   <si>
     <t>Price $69.99</t>
@@ -285,7 +285,7 @@
     <t>SCORPI</t>
   </si>
   <si>
-    <t>41522</t>
+    <t>s_41522-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Battle-of-Five-Armies-79017</t>
@@ -294,7 +294,7 @@
     <t>&lt;p&gt;The Battle of Five Armies™&lt;/p&gt;</t>
   </si>
   <si>
-    <t>79017</t>
+    <t>s_79017-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Lonely-Mountain-79018</t>
@@ -303,7 +303,7 @@
     <t>The Lonely Mountain</t>
   </si>
   <si>
-    <t>79018</t>
+    <t>s_79018-1</t>
   </si>
   <si>
     <t>Price $129.99</t>
@@ -318,7 +318,7 @@
     <t>TORTS</t>
   </si>
   <si>
-    <t>41520</t>
+    <t>s_41520-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Witch-king-Battle-79015</t>
@@ -327,7 +327,7 @@
     <t>&lt;p&gt;Witch-king Battle&lt;/p&gt;</t>
   </si>
   <si>
-    <t>79015</t>
+    <t>s_79015-1</t>
   </si>
   <si>
     <t>97</t>
@@ -339,7 +339,7 @@
     <t>WIZWUZ</t>
   </si>
   <si>
-    <t>41526</t>
+    <t>s_41526-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Crafting-Box-21116</t>
@@ -348,7 +348,7 @@
     <t>&lt;p&gt;Crafting Box&lt;/p&gt;</t>
   </si>
   <si>
-    <t>21116</t>
+    <t>s_21116-1</t>
   </si>
   <si>
     <t>Price $49.99</t>
@@ -363,7 +363,7 @@
     <t>&lt;p&gt;The Cave&lt;/p&gt;</t>
   </si>
   <si>
-    <t>21113</t>
+    <t>s_21113-1</t>
   </si>
   <si>
     <t>Price $19.99</t>
@@ -375,7 +375,7 @@
     <t>&lt;p&gt;The Ender Dragon&lt;/p&gt;</t>
   </si>
   <si>
-    <t>21117</t>
+    <t>s_21117-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Farm-21114</t>
@@ -384,7 +384,7 @@
     <t>&lt;p&gt;The Farm&lt;/p&gt;</t>
   </si>
   <si>
-    <t>21114</t>
+    <t>s_21114-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-First-Night-21115</t>
@@ -393,7 +393,7 @@
     <t>&lt;p&gt;The First Night&lt;/p&gt;</t>
   </si>
   <si>
-    <t>21115</t>
+    <t>s_21115-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Mine-21118</t>
@@ -402,7 +402,7 @@
     <t>&lt;p&gt;The Mine&lt;/p&gt;</t>
   </si>
   <si>
-    <t>21118</t>
+    <t>s_21118-1</t>
   </si>
   <si>
     <t>Price $109.99</t>
@@ -414,7 +414,7 @@
     <t>&lt;p&gt;Christmas Snow Hut Ornament&lt;/p&gt;</t>
   </si>
   <si>
-    <t>850949</t>
+    <t>s_850949-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-1-stud-Blue-Storage-Brick-5004268</t>
@@ -459,7 +459,7 @@
     <t>&lt;p&gt; Reindeer&lt;/p&gt;</t>
   </si>
   <si>
-    <t>40092</t>
+    <t>s_40092-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Santa-Set-850939</t>
@@ -468,7 +468,7 @@
     <t>&lt;p&gt;Santa Set&lt;/p&gt;</t>
   </si>
   <si>
-    <t>850939</t>
+    <t>s_850939-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Snowman-40093</t>
@@ -477,7 +477,7 @@
     <t>&lt;p&gt; Snowman&lt;/p&gt;</t>
   </si>
   <si>
-    <t>40093</t>
+    <t>s_40093-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Thanksgiving-Turkey-40091</t>
@@ -486,7 +486,7 @@
     <t>&lt;p&gt;Thanksgiving Turkey&lt;/p&gt;</t>
   </si>
   <si>
-    <t>40091</t>
+    <t>s_40091-1</t>
   </si>
   <si>
     <t>New|Exclusive</t>
@@ -513,7 +513,7 @@
     <t>&lt;p&gt;LEGO® DUPLO® Creative Suitcase&lt;/p&gt;</t>
   </si>
   <si>
-    <t>10565</t>
+    <t>s_10565-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/santa-s-workshop-10245</t>
@@ -522,7 +522,7 @@
     <t>Santa's Workshop</t>
   </si>
   <si>
-    <t>10245</t>
+    <t>s_10245-1</t>
   </si>
   <si>
     <t>68</t>
@@ -657,7 +657,7 @@
     <t>4X4 Crawler</t>
   </si>
   <si>
-    <t>9398</t>
+    <t>s_9398-1</t>
   </si>
   <si>
     <t>95</t>
@@ -669,7 +669,7 @@
     <t>Airport Fire Truck</t>
   </si>
   <si>
-    <t>60061</t>
+    <t>s_60061-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Baby-Zoo-4962</t>
@@ -678,7 +678,7 @@
     <t>Baby Zoo</t>
   </si>
   <si>
-    <t>4962</t>
+    <t>s_4962-1</t>
   </si>
   <si>
     <t>98</t>
@@ -690,7 +690,7 @@
     <t>BARC Speeder™ with Sidecar</t>
   </si>
   <si>
-    <t>75012</t>
+    <t>s_75012-1</t>
   </si>
   <si>
     <t>Price $24.99</t>
@@ -705,7 +705,7 @@
     <t>Batman™: Arkham Asylum Breakout</t>
   </si>
   <si>
-    <t>10937</t>
+    <t>s_10937-1</t>
   </si>
   <si>
     <t>Price $159.99</t>
@@ -720,7 +720,7 @@
     <t>Big Royal Castle</t>
   </si>
   <si>
-    <t>10577</t>
+    <t>s_10577-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Bulldozer-42028</t>
@@ -729,7 +729,7 @@
     <t>Bulldozer</t>
   </si>
   <si>
-    <t>42028</t>
+    <t>s_42028-1</t>
   </si>
   <si>
     <t>86</t>
@@ -741,7 +741,7 @@
     <t>Cargo Heliplane</t>
   </si>
   <si>
-    <t>60021</t>
+    <t>s_60021-1</t>
   </si>
   <si>
     <t>Price $44.99</t>
@@ -756,7 +756,7 @@
     <t>Cargo Plane</t>
   </si>
   <si>
-    <t>42025</t>
+    <t>s_42025-1</t>
   </si>
   <si>
     <t>Price $139.99</t>
@@ -768,7 +768,7 @@
     <t>Cargo Terminal</t>
   </si>
   <si>
-    <t>60022</t>
+    <t>s_60022-1</t>
   </si>
   <si>
     <t>Price $99.99</t>
@@ -783,7 +783,7 @@
     <t>Cargo Truck</t>
   </si>
   <si>
-    <t>60020</t>
+    <t>s_60020-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Coast-Guard-Plane-60015</t>
@@ -792,7 +792,7 @@
     <t>Coast Guard Plane</t>
   </si>
   <si>
-    <t>60015</t>
+    <t>s_60015-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Construction-Crew-42023</t>
@@ -801,7 +801,7 @@
     <t>Construction Crew</t>
   </si>
   <si>
-    <t>42023</t>
+    <t>s_42023-1</t>
   </si>
   <si>
     <t>60</t>
@@ -813,7 +813,7 @@
     <t>Container Truck</t>
   </si>
   <si>
-    <t>42024</t>
+    <t>s_42024-1</t>
   </si>
   <si>
     <t>Price $79.99</t>
@@ -825,7 +825,7 @@
     <t>Customized Pick up Truck</t>
   </si>
   <si>
-    <t>42029</t>
+    <t>s_42029-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Death-Star-10188</t>
@@ -834,7 +834,7 @@
     <t>Death Star™</t>
   </si>
   <si>
-    <t>10188</t>
+    <t>s_10188-1</t>
   </si>
   <si>
     <t>Price $399.99</t>
@@ -846,7 +846,7 @@
     <t>Ewok™ Village</t>
   </si>
   <si>
-    <t>10236</t>
+    <t>s_10236-1</t>
   </si>
   <si>
     <t>Price $249.99</t>
@@ -858,7 +858,7 @@
     <t>Excavator</t>
   </si>
   <si>
-    <t>42006</t>
+    <t>s_42006-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Excavator-Transport-4203</t>
@@ -867,7 +867,7 @@
     <t>Excavator Transport</t>
   </si>
   <si>
-    <t>4203</t>
+    <t>s_4203-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/HH-87-Starhopper-75024</t>
@@ -876,7 +876,7 @@
     <t>HH-87 Starhopper™</t>
   </si>
   <si>
-    <t>75024</t>
+    <t>s_75024-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Horizon-Express-10233</t>
@@ -885,7 +885,7 @@
     <t>Horizon Express</t>
   </si>
   <si>
-    <t>10233</t>
+    <t>s_10233-1</t>
   </si>
   <si>
     <t>93</t>
@@ -897,7 +897,7 @@
     <t>Horse Stable</t>
   </si>
   <si>
-    <t>10500</t>
+    <t>s_10500-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Hot-Rod-42022</t>
@@ -906,7 +906,7 @@
     <t>Hot Rod</t>
   </si>
   <si>
-    <t>42022</t>
+    <t>s_42022-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jedi-Defender-class-Cruiser-75025</t>
@@ -915,7 +915,7 @@
     <t>Jedi™ Defender-class Cruiser</t>
   </si>
   <si>
-    <t>75025</t>
+    <t>s_75025-1</t>
   </si>
   <si>
     <t>Price $89.99</t>
@@ -927,7 +927,7 @@
     <t>Kingdoms Joust</t>
   </si>
   <si>
-    <t>10223</t>
+    <t>s_10223-1</t>
   </si>
   <si>
     <t>Price $119.99</t>
@@ -939,7 +939,7 @@
     <t>Knight Tournament</t>
   </si>
   <si>
-    <t>10568</t>
+    <t>s_10568-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Castle-Dragons-Accessory-Set-850889</t>
@@ -948,7 +948,7 @@
     <t>LEGO® Castle Dragons Accessory Set</t>
   </si>
   <si>
-    <t>850889</t>
+    <t>s_850889-1</t>
   </si>
   <si>
     <t>73</t>
@@ -984,7 +984,7 @@
     <t>LEGO® Legends of Chima™ Minifigure Accessory Set</t>
   </si>
   <si>
-    <t>850910</t>
+    <t>s_850910-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Maersk-Line-Triple-E-10241</t>
@@ -993,7 +993,7 @@
     <t>Maersk Line Triple-E</t>
   </si>
   <si>
-    <t>10241</t>
+    <t>s_10241-1</t>
   </si>
   <si>
     <t>Price $149.99</t>
@@ -1005,7 +1005,7 @@
     <t>Merida's Highland Games</t>
   </si>
   <si>
-    <t>41051</t>
+    <t>s_41051-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/MetalBeard-s-Sea-Cow-70810</t>
@@ -1014,7 +1014,7 @@
     <t>MetalBeard's Sea Cow</t>
   </si>
   <si>
-    <t>70810</t>
+    <t>s_70810-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/MINI-Cooper-10242</t>
@@ -1023,7 +1023,7 @@
     <t>MINI Cooper</t>
   </si>
   <si>
-    <t>10242</t>
+    <t>s_10242-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Monster-Truck-42005</t>
@@ -1032,7 +1032,7 @@
     <t>Monster Truck</t>
   </si>
   <si>
-    <t>42005</t>
+    <t>s_42005-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Moto-Cross-Bike-42007</t>
@@ -1041,7 +1041,7 @@
     <t>Moto Cross Bike</t>
   </si>
   <si>
-    <t>42007</t>
+    <t>s_42007-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Palace-Cinema-10232</t>
@@ -1050,7 +1050,7 @@
     <t>Palace Cinema</t>
   </si>
   <si>
-    <t>10232</t>
+    <t>s_10232-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Parisian-Restaurant-10243</t>
@@ -1059,7 +1059,7 @@
     <t>Parisian Restaurant</t>
   </si>
   <si>
-    <t>10243</t>
+    <t>s_10243-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Pet-Shop-10218</t>
@@ -1068,7 +1068,7 @@
     <t>Pet Shop</t>
   </si>
   <si>
-    <t>10218</t>
+    <t>s_10218-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Photo-Safari-6156</t>
@@ -1077,7 +1077,7 @@
     <t>Photo Safari</t>
   </si>
   <si>
-    <t>6156</t>
+    <t>s_6156-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Play-House-10505</t>
@@ -1086,7 +1086,7 @@
     <t>Play House</t>
   </si>
   <si>
-    <t>10505</t>
+    <t>s_10505-1</t>
   </si>
   <si>
     <t>65</t>
@@ -1098,7 +1098,7 @@
     <t>Red Five X-wing Starfighter™</t>
   </si>
   <si>
-    <t>10240</t>
+    <t>s_10240-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Remote-Controlled-VOLVO-L350F-Wheel-Loader-42030</t>
@@ -1107,7 +1107,7 @@
     <t>Remote-Controlled VOLVO L350F Wheel Loader</t>
   </si>
   <si>
-    <t>42030</t>
+    <t>s_42030-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Service-Truck-42008</t>
@@ -1116,7 +1116,7 @@
     <t>Service Truck</t>
   </si>
   <si>
-    <t>42008</t>
+    <t>s_42008-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Stunt-Plane-60019</t>
@@ -1125,7 +1125,7 @@
     <t>Stunt Plane</t>
   </si>
   <si>
-    <t>60019</t>
+    <t>s_60019-1</t>
   </si>
   <si>
     <t>74</t>
@@ -1137,7 +1137,7 @@
     <t>Sydney Opera House™</t>
   </si>
   <si>
-    <t>10234</t>
+    <t>s_10234-1</t>
   </si>
   <si>
     <t>Price $319.99</t>
@@ -1149,7 +1149,7 @@
     <t>The Mine</t>
   </si>
   <si>
-    <t>4204</t>
+    <t>s_4204-1</t>
   </si>
   <si>
     <t>92</t>
@@ -1161,7 +1161,7 @@
     <t>The Simpsons™ House</t>
   </si>
   <si>
-    <t>71006</t>
+    <t>s_71006-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Tower-of-Orthanc-10237</t>
@@ -1170,7 +1170,7 @@
     <t>The Tower of Orthanc™</t>
   </si>
   <si>
-    <t>10237</t>
+    <t>s_10237-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Tower-Bridge-10214</t>
@@ -1179,7 +1179,7 @@
     <t>Tower Bridge</t>
   </si>
   <si>
-    <t>10214</t>
+    <t>s_10214-1</t>
   </si>
   <si>
     <t>Price $239.99</t>
@@ -1191,7 +1191,7 @@
     <t>Town Square</t>
   </si>
   <si>
-    <t>60026</t>
+    <t>s_60026-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Train-Accessory-Set-10506</t>
@@ -1200,7 +1200,7 @@
     <t>Train Accessory Set</t>
   </si>
   <si>
-    <t>10506</t>
+    <t>s_10506-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Volkswagen-T1-Camper-Van-10220</t>
@@ -1209,7 +1209,7 @@
     <t>Volkswagen T1 Camper Van</t>
   </si>
   <si>
-    <t>10220</t>
+    <t>s_10220-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Winter-Village-Market-10235</t>
@@ -1218,7 +1218,7 @@
     <t>Winter Village Market</t>
   </si>
   <si>
-    <t>10235</t>
+    <t>s_10235-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Arctic-Supply-Plane-60064</t>
@@ -1227,7 +1227,7 @@
     <t>Arctic Supply Plane</t>
   </si>
   <si>
-    <t>60064</t>
+    <t>s_60064-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Coruscant-Police-Gunship-75046</t>
@@ -1236,7 +1236,7 @@
     <t>Coruscant™ Police Gunship</t>
   </si>
   <si>
-    <t>75046</t>
+    <t>s_75046-1</t>
   </si>
   <si>
     <t>87</t>
@@ -1248,7 +1248,7 @@
     <t>Cragger’s Fire Striker</t>
   </si>
   <si>
-    <t>70135</t>
+    <t>s_70135-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Droid-Tri-fighter-75044</t>
@@ -1257,7 +1257,7 @@
     <t>Droid Tri-fighter™</t>
   </si>
   <si>
-    <t>75044</t>
+    <t>s_75044-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Minifigure-Collectors-Box-852820</t>
@@ -1275,7 +1275,7 @@
     <t>LEGO® Minifigures - The Simpsons™ Series</t>
   </si>
   <si>
-    <t>71005</t>
+    <t>s_71005-0</t>
   </si>
   <si>
     <t>77</t>
@@ -1287,7 +1287,7 @@
     <t>Starter Kit</t>
   </si>
   <si>
-    <t>2000414</t>
+    <t>s_2000414-1</t>
   </si>
   <si>
     <t>Price $36.99</t>
@@ -1302,7 +1302,7 @@
     <t>MTT™</t>
   </si>
   <si>
-    <t>75058</t>
+    <t>s_75058-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Republic-AV-7-Anti-Vehicle-Cannon-75045</t>
@@ -1311,7 +1311,7 @@
     <t>Republic AV-7 Anti-Vehicle Cannon</t>
   </si>
   <si>
-    <t>75045</t>
+    <t>s_75045-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sir-Fangar-s-Ice-Fortress-70147</t>
@@ -1320,7 +1320,7 @@
     <t>Sir Fangar’s Ice Fortress</t>
   </si>
   <si>
-    <t>70147</t>
+    <t>s_70147-1</t>
   </si>
   <si>
     <t>Retiring Soon</t>
@@ -1332,7 +1332,7 @@
     <t>&lt;i&gt;A-wing Starfighter&lt;/i&gt;™</t>
   </si>
   <si>
-    <t>75003</t>
+    <t>s_75003-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ariel-s-Amazing-Treasures-41050</t>
@@ -1341,7 +1341,7 @@
     <t>Ariel's Amazing Treasures</t>
   </si>
   <si>
-    <t>41050</t>
+    <t>s_41050-1</t>
   </si>
   <si>
     <t>Price $12.99</t>
@@ -1353,7 +1353,7 @@
     <t>AT-TE™</t>
   </si>
   <si>
-    <t>75019</t>
+    <t>s_75019-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Heartlake-City-Pool-41008</t>
@@ -1362,7 +1362,7 @@
     <t>Heartlake City Pool</t>
   </si>
   <si>
-    <t>41008</t>
+    <t>s_41008-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Heartlake-Pet-Salon-41007</t>
@@ -1371,7 +1371,7 @@
     <t>Heartlake Pet Salon</t>
   </si>
   <si>
-    <t>41007</t>
+    <t>s_41007-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jek-14-s-Stealth-Starfighter-75018</t>
@@ -1380,7 +1380,7 @@
     <t>Jek-14’s ™ Stealth Starfighter</t>
   </si>
   <si>
-    <t>75018</t>
+    <t>s_75018-1</t>
   </si>
   <si>
     <t>89</t>
@@ -1392,7 +1392,7 @@
     <t>LEGO® Master Builder Academy Space Designer</t>
   </si>
   <si>
-    <t>20200</t>
+    <t>s_20200-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mandalorian-Speeder-75022</t>
@@ -1401,7 +1401,7 @@
     <t>Mandalorian Speeder™</t>
   </si>
   <si>
-    <t>75022</t>
+    <t>s_75022-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/SUV-with-Watercraft-60058</t>
@@ -1410,7 +1410,7 @@
     <t>SUV with Watercraft</t>
   </si>
   <si>
-    <t>60058</t>
+    <t>s_60058-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Thunder-Wings-31008</t>
@@ -1419,7 +1419,7 @@
     <t>Thunder Wings</t>
   </si>
   <si>
-    <t>31008</t>
+    <t>s_31008-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Water-Scooter-Fun-41000</t>
@@ -1428,7 +1428,7 @@
     <t>Water Scooter Fun</t>
   </si>
   <si>
-    <t>41000</t>
+    <t>s_41000-1</t>
   </si>
   <si>
     <t>Price $6.99</t>
@@ -1440,7 +1440,7 @@
     <t>X-Wing Starfighter™</t>
   </si>
   <si>
-    <t>9493</t>
+    <t>s_9493-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/BULK-Drill-Machine-44025</t>
@@ -1449,7 +1449,7 @@
     <t>BULK Drill Machine</t>
   </si>
   <si>
-    <t>44025</t>
+    <t>s_44025-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Compass-Sensor-for-MINDSTORMS-NXT-10285</t>
@@ -1458,7 +1458,7 @@
     <t>Compass Sensor</t>
   </si>
   <si>
-    <t>10285</t>
+    <t>s_10285-1</t>
   </si>
   <si>
     <t>Price $54.99</t>
@@ -1470,7 +1470,7 @@
     <t>CRYSTAL Beast vs. BULK</t>
   </si>
   <si>
-    <t>44026</t>
+    <t>s_44026-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fierce-Flyer-31004</t>
@@ -1479,7 +1479,7 @@
     <t>Fierce Flyer</t>
   </si>
   <si>
-    <t>31004</t>
+    <t>s_31004-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Gorilla-Legend-Beast-70125</t>
@@ -1488,7 +1488,7 @@
     <t>Gorilla Legend Beast</t>
   </si>
   <si>
-    <t>70125</t>
+    <t>s_70125-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Master-Builder-Academy-Action-Designer-20217</t>
@@ -1497,7 +1497,7 @@
     <t>LEGO® Master Builder Academy Action Designer</t>
   </si>
   <si>
-    <t>20217</t>
+    <t>s_20217-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Superman-vs-Power-Armor-Lex-6862</t>
@@ -1506,7 +1506,7 @@
     <t>&lt;i&gt;Superman&lt;/i&gt;™ vs. &lt;i&gt;Power Armor Lex&lt;/i&gt;</t>
   </si>
   <si>
-    <t>6862</t>
+    <t>s_6862-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/SURGE-ROCKA-Combat-Machine-44028</t>
@@ -1515,7 +1515,7 @@
     <t>SURGE &amp; ROCKA Combat Machine</t>
   </si>
   <si>
-    <t>44028</t>
+    <t>s_44028-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/TUNNELER-Beast-vs-SURGE-44024</t>
@@ -1524,7 +1524,7 @@
     <t>TUNNELER Beast vs. SURGE</t>
   </si>
   <si>
-    <t>44024</t>
+    <t>s_44024-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/V-wing-Starfighter-75039</t>
@@ -1533,7 +1533,7 @@
     <t>V-wing Starfighter™</t>
   </si>
   <si>
-    <t>75039</t>
+    <t>s_75039-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Vulture-Droid-75041</t>
@@ -1542,7 +1542,7 @@
     <t>Vulture Droid™</t>
   </si>
   <si>
-    <t>75041</t>
+    <t>s_75041-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Wolf-Legend-Beast-70127</t>
@@ -1551,7 +1551,7 @@
     <t>Wolf Legend Beast</t>
   </si>
   <si>
-    <t>70127</t>
+    <t>s_70127-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-NINJAGO-Kai-Minifigure-Clock-5004118</t>
@@ -1578,7 +1578,7 @@
     <t>4x4 &amp; Diving Boat</t>
   </si>
   <si>
-    <t>60012</t>
+    <t>s_60012-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ambulance-10527</t>
@@ -1587,7 +1587,7 @@
     <t>Ambulance</t>
   </si>
   <si>
-    <t>10527</t>
+    <t>s_10527-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Andrea-s-Mountain-Hut-41031</t>
@@ -1596,7 +1596,7 @@
     <t>Andrea’s Mountain Hut</t>
   </si>
   <si>
-    <t>41031</t>
+    <t>s_41031-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Arctic-Batman-vs-Mr-Freeze-Aquaman-on-Ice-76000</t>
@@ -1605,7 +1605,7 @@
     <t>Arctic Batman™ vs. Mr. Freeze™: Aquaman™ on Ice</t>
   </si>
   <si>
-    <t>76000</t>
+    <t>s_76000-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Arctic-Helicrane-60034</t>
@@ -1614,7 +1614,7 @@
     <t>Arctic Helicrane</t>
   </si>
   <si>
-    <t>60034</t>
+    <t>s_60034-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Arctic-Ice-Crawler-60033</t>
@@ -1623,7 +1623,7 @@
     <t>Arctic Ice Crawler</t>
   </si>
   <si>
-    <t>60033</t>
+    <t>s_60033-1</t>
   </si>
   <si>
     <t>91</t>
@@ -1635,7 +1635,7 @@
     <t>Arctic Snowmobile</t>
   </si>
   <si>
-    <t>60032</t>
+    <t>s_60032-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ariel-s-Magical-Kiss-41052</t>
@@ -1644,7 +1644,7 @@
     <t>Ariel's Magical Kiss</t>
   </si>
   <si>
-    <t>41052</t>
+    <t>s_41052-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ariel-s-Undersea-Castle-10515</t>
@@ -1653,7 +1653,7 @@
     <t>Ariel's Undersea Castle</t>
   </si>
   <si>
-    <t>10515</t>
+    <t>s_10515-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/AT-RT-75002</t>
@@ -1662,7 +1662,7 @@
     <t>&lt;i&gt;AT-RT™&lt;/i&gt;</t>
   </si>
   <si>
-    <t>75002</t>
+    <t>s_75002-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Aviation-Adventures-31011</t>
@@ -1671,7 +1671,7 @@
     <t>Aviation Adventures</t>
   </si>
   <si>
-    <t>31011</t>
+    <t>s_31011-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Auto-Transporter-60060</t>
@@ -1680,7 +1680,7 @@
     <t>Auto Transporter</t>
   </si>
   <si>
-    <t>60060</t>
+    <t>s_60060-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Baby-Calf-10521</t>
@@ -1689,7 +1689,7 @@
     <t>Baby Calf</t>
   </si>
   <si>
-    <t>10521</t>
+    <t>s_10521-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Batcave-Adventure-10545</t>
@@ -1698,7 +1698,7 @@
     <t>Batcave Adventure</t>
   </si>
   <si>
-    <t>10545</t>
+    <t>s_10545-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Battle-at-the-Black-Gate-79007</t>
@@ -1707,7 +1707,7 @@
     <t>Battle at the Black Gate</t>
   </si>
   <si>
-    <t>79007</t>
+    <t>s_79007-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Beach-Racing-10539</t>
@@ -1716,7 +1716,7 @@
     <t>Beach Racing</t>
   </si>
   <si>
-    <t>10539</t>
+    <t>s_10539-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Big-Ben-21013</t>
@@ -1725,7 +1725,7 @@
     <t>Big Ben</t>
   </si>
   <si>
-    <t>21013</t>
+    <t>s_21013-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Big-Farm-10525</t>
@@ -1734,7 +1734,7 @@
     <t>Big Farm</t>
   </si>
   <si>
-    <t>10525</t>
+    <t>s_10525-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Big-Front-Loader-10520</t>
@@ -1743,7 +1743,7 @@
     <t>Big Front Loader</t>
   </si>
   <si>
-    <t>10520</t>
+    <t>s_10520-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Bike-Shop-Caf%C3%A9-31026</t>
@@ -1752,7 +1752,7 @@
     <t>Bike Shop &amp; Café</t>
   </si>
   <si>
-    <t>31026</t>
+    <t>s_31026-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Black-Champion-Racer-42026</t>
@@ -1761,7 +1761,7 @@
     <t>Black Champion Racer</t>
   </si>
   <si>
-    <t>42026</t>
+    <t>s_42026-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Brandenburg-Gate-21011</t>
@@ -1770,7 +1770,7 @@
     <t>Brandenburg Gate</t>
   </si>
   <si>
-    <t>21011</t>
+    <t>s_21011-1</t>
   </si>
   <si>
     <t>Price $34.99</t>
@@ -1782,7 +1782,7 @@
     <t>Brick Separator</t>
   </si>
   <si>
-    <t>630</t>
+    <t>s_630-1</t>
   </si>
   <si>
     <t>Price $2.49</t>
@@ -1794,7 +1794,7 @@
     <t>Bug Obliterator</t>
   </si>
   <si>
-    <t>70705</t>
+    <t>s_70705-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Camper-Van-60057</t>
@@ -1803,7 +1803,7 @@
     <t>Camper Van</t>
   </si>
   <si>
-    <t>60057</t>
+    <t>s_60057-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Cargo-Train-60052</t>
@@ -1812,7 +1812,7 @@
     <t>Cargo Train</t>
   </si>
   <si>
-    <t>60052</t>
+    <t>s_60052-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Cinderella-s-Dream-Carriage-41053</t>
@@ -1821,7 +1821,7 @@
     <t>Cinderella's Dream Carriage</t>
   </si>
   <si>
-    <t>41053</t>
+    <t>s_41053-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Cinderella-s-Carriage-6153</t>
@@ -1830,7 +1830,7 @@
     <t>Cinderella’s Carriage</t>
   </si>
   <si>
-    <t>6153</t>
+    <t>s_6153-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Cinderella-s-Castle-6154</t>
@@ -1839,7 +1839,7 @@
     <t>Cinderella’s Castle</t>
   </si>
   <si>
-    <t>6154</t>
+    <t>s_6154-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Cinderella-s-Romantic-Castle-41055</t>
@@ -1848,7 +1848,7 @@
     <t>Cinderella's Romantic Castle</t>
   </si>
   <si>
-    <t>41055</t>
+    <t>s_41055-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Circus-Transport-10550</t>
@@ -1857,7 +1857,7 @@
     <t>Circus Transport</t>
   </si>
   <si>
-    <t>10550</t>
+    <t>s_10550-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Clone-Troopers-vs-Droidekas-75000</t>
@@ -1866,7 +1866,7 @@
     <t>Clone Troopers™ vs. Droidekas™</t>
   </si>
   <si>
-    <t>75000</t>
+    <t>s_75000-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/CLS-89-Eradicator-Mech-70707</t>
@@ -1875,7 +1875,7 @@
     <t>CLS-89 Eradicator Mech</t>
   </si>
   <si>
-    <t>70707</t>
+    <t>s_70707-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Clubhouse-Caf%C3%A9-10579</t>
@@ -1884,7 +1884,7 @@
     <t>Clubhouse Café</t>
   </si>
   <si>
-    <t>10579</t>
+    <t>s_10579-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Coast-Guard-Helicopter-60013</t>
@@ -1893,7 +1893,7 @@
     <t>Coast Guard Helicopter</t>
   </si>
   <si>
-    <t>60013</t>
+    <t>s_60013-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Coast-Guard-Patrol-60014</t>
@@ -1902,7 +1902,7 @@
     <t>Coast Guard Patrol</t>
   </si>
   <si>
-    <t>60014</t>
+    <t>s_60014-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Cole-s-Earth-Driller-70502</t>
@@ -1911,7 +1911,7 @@
     <t>Cole's Earth Driller</t>
   </si>
   <si>
-    <t>70502</t>
+    <t>s_70502-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Construction-Hauler-31005</t>
@@ -1920,7 +1920,7 @@
     <t>Construction Hauler</t>
   </si>
   <si>
-    <t>31005</t>
+    <t>s_31005-1</t>
   </si>
   <si>
     <t>Price $17.99</t>
@@ -1932,7 +1932,7 @@
     <t>Corporate Alliance Tank Droid™</t>
   </si>
   <si>
-    <t>75015</t>
+    <t>s_75015-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Creative-Animals-10573</t>
@@ -1941,7 +1941,7 @@
     <t>Creative Animals</t>
   </si>
   <si>
-    <t>10573</t>
+    <t>s_10573-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Creative-Cakes-6785</t>
@@ -1950,7 +1950,7 @@
     <t>Creative Cakes</t>
   </si>
   <si>
-    <t>6785</t>
+    <t>s_6785-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Creative-Cars-10552</t>
@@ -1959,7 +1959,7 @@
     <t>Creative Cars</t>
   </si>
   <si>
-    <t>10552</t>
+    <t>s_10552-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Creative-Picnic-10566</t>
@@ -1968,7 +1968,7 @@
     <t>Creative Picnic</t>
   </si>
   <si>
-    <t>10566</t>
+    <t>s_10566-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Creative-Ice-Cream-10574</t>
@@ -1977,7 +1977,7 @@
     <t>Creative Ice Cream</t>
   </si>
   <si>
-    <t>10574</t>
+    <t>s_10574-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Crook-Pursuit-60041</t>
@@ -1986,7 +1986,7 @@
     <t>Crook Pursuit</t>
   </si>
   <si>
-    <t>60041</t>
+    <t>s_60041-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Deluxe-Train-Set-10508</t>
@@ -1995,7 +1995,7 @@
     <t>Deluxe Train Set</t>
   </si>
   <si>
-    <t>10508</t>
+    <t>s_10508-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Desert-Racer-42027</t>
@@ -2004,7 +2004,7 @@
     <t>Desert Racer</t>
   </si>
   <si>
-    <t>42027</t>
+    <t>s_42027-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Dolphin-Cruiser-41015</t>
@@ -2013,7 +2013,7 @@
     <t>Dolphin Cruiser</t>
   </si>
   <si>
-    <t>41015</t>
+    <t>s_41015-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Duel-on-Geonosis-75017</t>
@@ -2022,7 +2022,7 @@
     <t>Duel on Geonosis™</t>
   </si>
   <si>
-    <t>75017</t>
+    <t>s_75017-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Dusty-and-Chug-10509</t>
@@ -2031,7 +2031,7 @@
     <t>Dusty and Chug</t>
   </si>
   <si>
-    <t>10509</t>
+    <t>s_10509-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Emerald-Express-31015</t>
@@ -2040,7 +2040,7 @@
     <t>Emerald Express</t>
   </si>
   <si>
-    <t>31015</t>
+    <t>s_31015-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Emma-s-Lifeguard-Post-41028</t>
@@ -2049,7 +2049,7 @@
     <t>Emma's Lifeguard Post</t>
   </si>
   <si>
-    <t>41028</t>
+    <t>s_41028-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Emma-s-Sports-Car-41013</t>
@@ -2058,7 +2058,7 @@
     <t>Emma’s Sports Car</t>
   </si>
   <si>
-    <t>41013</t>
+    <t>s_41013-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/EV3-Color-Sensor-45506</t>
@@ -2067,7 +2067,7 @@
     <t>&lt;p&gt;EV3 Color Sensor&lt;/p&gt;</t>
   </si>
   <si>
-    <t>45506</t>
+    <t>s_45506-1</t>
   </si>
   <si>
     <t>Price $35.99</t>
@@ -2079,7 +2079,7 @@
     <t>&lt;p&gt;EV3 Infrared Beacon&lt;/p&gt;</t>
   </si>
   <si>
-    <t>45508</t>
+    <t>s_45508-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/EV3-Infrared-Sensor-45509</t>
@@ -2088,7 +2088,7 @@
     <t>&lt;p&gt;EV3 Infrared Sensor&lt;/p&gt;</t>
   </si>
   <si>
-    <t>45509</t>
+    <t>s_45509-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/EV3-Rechargeable-DC-Battery-45501</t>
@@ -2097,7 +2097,7 @@
     <t>&lt;p&gt;EV3 Rechargeable DC Battery&lt;/p&gt;</t>
   </si>
   <si>
-    <t>45501</t>
+    <t>s_45501-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/EV3-Touch-Sensor-45507</t>
@@ -2106,7 +2106,7 @@
     <t>&lt;p&gt;EV3 Touch Sensor&lt;/p&gt;</t>
   </si>
   <si>
-    <t>45507</t>
+    <t>s_45507-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/EV3-Ultrasonic-Sensor-45504</t>
@@ -2115,7 +2115,7 @@
     <t>&lt;p&gt;EV3 Ultrasonic Sensor&lt;/p&gt;</t>
   </si>
   <si>
-    <t>45504</t>
+    <t>s_45504-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fallingwater-21005</t>
@@ -2124,7 +2124,7 @@
     <t>Fallingwater®</t>
   </si>
   <si>
-    <t>21005</t>
+    <t>s_21005-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Farm-Tractor-10524</t>
@@ -2133,7 +2133,7 @@
     <t>Farm Tractor</t>
   </si>
   <si>
-    <t>10524</t>
+    <t>s_10524-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Farm-Animals-10522</t>
@@ -2142,7 +2142,7 @@
     <t>Farm Animals</t>
   </si>
   <si>
-    <t>10522</t>
+    <t>s_10522-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-and-Rescue-Team-10538</t>
@@ -2151,7 +2151,7 @@
     <t>Fire and Rescue Team</t>
   </si>
   <si>
-    <t>10538</t>
+    <t>s_10538-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-Chief-6169</t>
@@ -2160,7 +2160,7 @@
     <t>Fire Chief</t>
   </si>
   <si>
-    <t>6169</t>
+    <t>s_6169-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-Chief-Car-60001</t>
@@ -2169,7 +2169,7 @@
     <t>Fire Chief Car</t>
   </si>
   <si>
-    <t>60001</t>
+    <t>s_60001-1</t>
   </si>
   <si>
     <t>Price $11.99</t>
@@ -2181,7 +2181,7 @@
     <t>Fire Emergency</t>
   </si>
   <si>
-    <t>60003</t>
+    <t>s_60003-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-Motorcycle-60000</t>
@@ -2190,7 +2190,7 @@
     <t>Fire Motorcycle</t>
   </si>
   <si>
-    <t>60000</t>
+    <t>s_60000-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-Station-60004</t>
@@ -2199,7 +2199,7 @@
     <t>Fire Station</t>
   </si>
   <si>
-    <t>60004</t>
+    <t>s_60004-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-Truck-60002</t>
@@ -2208,7 +2208,7 @@
     <t>Fire Truck</t>
   </si>
   <si>
-    <t>60002</t>
+    <t>s_60002-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/First-Aid-Jungle-Bike-41032</t>
@@ -2217,7 +2217,7 @@
     <t>First Aid Jungle Bike</t>
   </si>
   <si>
-    <t>41032</t>
+    <t>s_41032-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Flatbed-Truck-60017</t>
@@ -2226,7 +2226,7 @@
     <t>Flatbed Truck</t>
   </si>
   <si>
-    <t>60017</t>
+    <t>s_60017-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Flexible-and-Straight-Tracks-7499</t>
@@ -2235,7 +2235,7 @@
     <t>Flexible and Straight Tracks</t>
   </si>
   <si>
-    <t>7499</t>
+    <t>s_7499-1</t>
   </si>
   <si>
     <t>49</t>
@@ -2247,7 +2247,7 @@
     <t>Forest Ambush</t>
   </si>
   <si>
-    <t>70400</t>
+    <t>s_70400-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Friends-Are-Forever-5004338</t>
@@ -2265,7 +2265,7 @@
     <t>Galactic Titan</t>
   </si>
   <si>
-    <t>70709</t>
+    <t>s_70709-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Garbage-Truck-10519</t>
@@ -2274,7 +2274,7 @@
     <t>Garbage Truck</t>
   </si>
   <si>
-    <t>10519</t>
+    <t>s_10519-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Gold-Getaway-70401</t>
@@ -2283,7 +2283,7 @@
     <t>Gold Getaway</t>
   </si>
   <si>
-    <t>70401</t>
+    <t>s_70401-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Grand-Prix-Truck-60025</t>
@@ -2292,7 +2292,7 @@
     <t>Grand Prix Truck</t>
   </si>
   <si>
-    <t>60025</t>
+    <t>s_60025-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Green-LEGO-DUPLO-Baseplate-2304</t>
@@ -2301,7 +2301,7 @@
     <t>Green LEGO® DUPLO® Baseplate</t>
   </si>
   <si>
-    <t>2304</t>
+    <t>s_2304-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Heartlake-High-41005</t>
@@ -2310,7 +2310,7 @@
     <t>Heartlake High</t>
   </si>
   <si>
-    <t>41005</t>
+    <t>s_41005-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Heartlake-Horse-Show-41057</t>
@@ -2319,7 +2319,7 @@
     <t>Heartlake Horse Show</t>
   </si>
   <si>
-    <t>41057</t>
+    <t>s_41057-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Heartlake-News-Van-41056</t>
@@ -2328,7 +2328,7 @@
     <t>Heartlake News Van</t>
   </si>
   <si>
-    <t>41056</t>
+    <t>s_41056-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Heartlake-Juice-Bar-41035</t>
@@ -2337,7 +2337,7 @@
     <t>Heartlake Juice Bar</t>
   </si>
   <si>
-    <t>41035</t>
+    <t>s_41035-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Heartlake-Shopping-Mall-41058</t>
@@ -2346,7 +2346,7 @@
     <t>Heartlake Shopping Mall</t>
   </si>
   <si>
-    <t>41058</t>
+    <t>s_41058-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Helicopter-Arrest-60009</t>
@@ -2355,7 +2355,7 @@
     <t>Helicopter Arrest</t>
   </si>
   <si>
-    <t>60009</t>
+    <t>s_60009-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Helicopter-Surveillance-60046</t>
@@ -2364,7 +2364,7 @@
     <t>Helicopter Surveillance</t>
   </si>
   <si>
-    <t>60046</t>
+    <t>s_60046-1</t>
   </si>
   <si>
     <t>Price $74.99</t>
@@ -2376,7 +2376,7 @@
     <t>High Speed Chase</t>
   </si>
   <si>
-    <t>60007</t>
+    <t>s_60007-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/High-speed-Passenger-Train-60051</t>
@@ -2385,7 +2385,7 @@
     <t>High-speed Passenger Train</t>
   </si>
   <si>
-    <t>60051</t>
+    <t>s_60051-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/High-Speed-Police-Chase-60042</t>
@@ -2394,7 +2394,7 @@
     <t>High Speed Police Chase</t>
   </si>
   <si>
-    <t>60042</t>
+    <t>s_60042-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Highway-Speedster-31006</t>
@@ -2403,7 +2403,7 @@
     <t>Highway Speedster</t>
   </si>
   <si>
-    <t>31006</t>
+    <t>s_31006-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Highway-Cruiser-31018</t>
@@ -2412,7 +2412,7 @@
     <t>Highway Cruiser</t>
   </si>
   <si>
-    <t>31018</t>
+    <t>s_31018-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Hive-Crawler-70708</t>
@@ -2421,7 +2421,7 @@
     <t>Hive Crawler</t>
   </si>
   <si>
-    <t>70708</t>
+    <t>s_70708-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Homing-Spider-Droid-75016</t>
@@ -2430,7 +2430,7 @@
     <t>Homing Spider Droid™</t>
   </si>
   <si>
-    <t>75016</t>
+    <t>s_75016-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Hovercraft-42002</t>
@@ -2439,7 +2439,7 @@
     <t>Hovercraft</t>
   </si>
   <si>
-    <t>42002</t>
+    <t>s_42002-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Imperial-Hotel-21017</t>
@@ -2448,7 +2448,7 @@
     <t>Imperial Hotel</t>
   </si>
   <si>
-    <t>21017</t>
+    <t>s_21017-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Infrared-Link-Sensor-2853216</t>
@@ -2457,7 +2457,7 @@
     <t>Infrared Link Sensor</t>
   </si>
   <si>
-    <t>2853216</t>
+    <t>s_2853216-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Infrared-Seeker-for-LEGO-MINDSTORMS-NXT-2852725</t>
@@ -2466,7 +2466,7 @@
     <t>Infrared Seeker</t>
   </si>
   <si>
-    <t>2852725</t>
+    <t>s_2852725-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Interactive-Servo-Motor-9842</t>
@@ -2475,7 +2475,7 @@
     <t>Interactive Servo Motor</t>
   </si>
   <si>
-    <t>9842</t>
+    <t>s_9842-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Iron-Man-Extremis-Sea-Port-Battle-76006</t>
@@ -2484,7 +2484,7 @@
     <t>Iron Man™: Extremis™ Sea Port Battle</t>
   </si>
   <si>
-    <t>76006</t>
+    <t>s_76006-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Iron-Man-vs-The-Mandarin-Ultimate-Showdown-76008</t>
@@ -2493,7 +2493,7 @@
     <t>Iron Man™ vs. The Mandarin™: Ultimate Showdown</t>
   </si>
   <si>
-    <t>76008</t>
+    <t>s_76008-1</t>
   </si>
   <si>
     <t>76</t>
@@ -2505,7 +2505,7 @@
     <t>Jabba’s Sail Barge™</t>
   </si>
   <si>
-    <t>75020</t>
+    <t>s_75020-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jake-s-Pirate-Ship-Bucky-10514</t>
@@ -2514,7 +2514,7 @@
     <t>Jake's Pirate Ship Bucky</t>
   </si>
   <si>
-    <t>10514</t>
+    <t>s_10514-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jake-s-Treasure-Hunt-10512</t>
@@ -2523,7 +2523,7 @@
     <t>Jake's Treasure Hunt</t>
   </si>
   <si>
-    <t>10512</t>
+    <t>s_10512-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jungle-Bridge-Rescue-41036</t>
@@ -2532,7 +2532,7 @@
     <t>Jungle Bridge Rescue</t>
   </si>
   <si>
-    <t>41036</t>
+    <t>s_41036-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jungle-Accessory-Set-850967</t>
@@ -2541,7 +2541,7 @@
     <t>Jungle Accessory Set</t>
   </si>
   <si>
-    <t>850967</t>
+    <t>s_850967-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jungle-Rescue-Base-41038</t>
@@ -2550,7 +2550,7 @@
     <t>Jungle Rescue Base</t>
   </si>
   <si>
-    <t>41038</t>
+    <t>s_41038-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jungle-Falls-Rescue-41033</t>
@@ -2559,7 +2559,7 @@
     <t>Jungle Falls Rescue</t>
   </si>
   <si>
-    <t>41033</t>
+    <t>s_41033-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jungle-Tree-Sanctuary-41059</t>
@@ -2568,7 +2568,7 @@
     <t>Jungle Tree Sanctuary</t>
   </si>
   <si>
-    <t>41059</t>
+    <t>s_41059-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Kai-s-Fire-Mech-70500</t>
@@ -2577,7 +2577,7 @@
     <t>Kai's Fire Mech</t>
   </si>
   <si>
-    <t>70500</t>
+    <t>s_70500-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/King-s-Castle-70404</t>
@@ -2586,7 +2586,7 @@
     <t>King's Castle</t>
   </si>
   <si>
-    <t>70404</t>
+    <t>s_70404-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Large-Green-Baseplate-626</t>
@@ -2595,7 +2595,7 @@
     <t>Large Green Baseplate</t>
   </si>
   <si>
-    <t>626</t>
+    <t>s_626-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Basic-Bricks-Deluxe-6177</t>
@@ -2604,7 +2604,7 @@
     <t>Basic Bricks Deluxe</t>
   </si>
   <si>
-    <t>6177</t>
+    <t>s_6177-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Blue-Building-Plate-620</t>
@@ -2613,7 +2613,7 @@
     <t>Blue Baseplate</t>
   </si>
   <si>
-    <t>620</t>
+    <t>s_620-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-City-Fire-Accessory-Set-850618</t>
@@ -2622,7 +2622,7 @@
     <t>LEGO® City Fire Accessory Set</t>
   </si>
   <si>
-    <t>850618</t>
+    <t>s_850618-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-City-Police-Accessory-Set-850617</t>
@@ -2631,7 +2631,7 @@
     <t>LEGO® City Police Accessory Set</t>
   </si>
   <si>
-    <t>850617</t>
+    <t>s_850617-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-City-Starter-Set-60023</t>
@@ -2640,7 +2640,7 @@
     <t>LEGO® City Starter-Set</t>
   </si>
   <si>
-    <t>60023</t>
+    <t>s_60023-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Creative-Bucket-10662</t>
@@ -2649,7 +2649,7 @@
     <t>LEGO® Creative Bucket</t>
   </si>
   <si>
-    <t>10662</t>
+    <t>s_10662-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-All-in-One-Gift-Set-10570</t>
@@ -2658,7 +2658,7 @@
     <t>LEGO® DUPLO® All-in-One-Gift-Set</t>
   </si>
   <si>
-    <t>10570</t>
+    <t>s_10570-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-All-in-One-Box-of-Fun-10572</t>
@@ -2667,7 +2667,7 @@
     <t>LEGO® DUPLO® All-in-One-Box-of-Fun</t>
   </si>
   <si>
-    <t>10572</t>
+    <t>s_10572-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-All-in-One-Pink-Box-of-Fun-10571</t>
@@ -2676,7 +2676,7 @@
     <t>LEGO® DUPLO® All-in-One-Pink-Box-of-Fun</t>
   </si>
   <si>
-    <t>10571</t>
+    <t>s_10571-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-Deluxe-Box-of-fun-10580</t>
@@ -2685,7 +2685,7 @@
     <t>LEGO® DUPLO® Deluxe Box of fun</t>
   </si>
   <si>
-    <t>10580</t>
+    <t>s_10580-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Friends-Advent-Calendar-41040</t>
@@ -2694,7 +2694,7 @@
     <t>&lt;p&gt;LEGO® Friends Advent Calendar&lt;/p&gt;</t>
   </si>
   <si>
-    <t>41040</t>
+    <t>s_41040-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Friends-Sorting-System-5003564</t>
@@ -2712,7 +2712,7 @@
     <t>LEGO® Power Functions Motor Set</t>
   </si>
   <si>
-    <t>8293</t>
+    <t>s_8293-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Light-Repair-Truck-60054</t>
@@ -2721,7 +2721,7 @@
     <t>Light Repair Truck</t>
   </si>
   <si>
-    <t>60054</t>
+    <t>s_60054-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Light-Sensor-9844</t>
@@ -2730,7 +2730,7 @@
     <t>Light Sensor</t>
   </si>
   <si>
-    <t>9844</t>
+    <t>s_9844-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Logging-Truck-60059</t>
@@ -2739,7 +2739,7 @@
     <t>Logging Truck</t>
   </si>
   <si>
-    <t>60059</t>
+    <t>s_60059-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mia-s-Lemonade-Stand-41027</t>
@@ -2748,7 +2748,7 @@
     <t>Mia's Lemonade Stand</t>
   </si>
   <si>
-    <t>41027</t>
+    <t>s_41027-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mickey-Friends-10531</t>
@@ -2757,7 +2757,7 @@
     <t>Mickey &amp; Friends</t>
   </si>
   <si>
-    <t>10531</t>
+    <t>s_10531-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Minecraft-21102</t>
@@ -2766,7 +2766,7 @@
     <t>&lt;p&gt;Micro World - The Forest&lt;/p&gt;</t>
   </si>
   <si>
-    <t>21102</t>
+    <t>s_21102-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mini-Backhoe-Loader-42004</t>
@@ -2775,7 +2775,7 @@
     <t>Mini Backhoe Loader</t>
   </si>
   <si>
-    <t>42004</t>
+    <t>s_42004-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Millennium-Falcon-7965</t>
@@ -2784,7 +2784,7 @@
     <t>&lt;i&gt;Millennium Falcon&lt;/i&gt;™</t>
   </si>
   <si>
-    <t>7965</t>
+    <t>s_7965-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mini-Off-Roader-42001</t>
@@ -2793,7 +2793,7 @@
     <t>Mini Off-Roader</t>
   </si>
   <si>
-    <t>42001</t>
+    <t>s_42001-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mobile-Crane-MK-II-42009</t>
@@ -2802,7 +2802,7 @@
     <t>Mobile Crane MK II</t>
   </si>
   <si>
-    <t>42009</t>
+    <t>s_42009-1</t>
   </si>
   <si>
     <t>Price $219.99</t>
@@ -2814,7 +2814,7 @@
     <t>Mobile Police Unit</t>
   </si>
   <si>
-    <t>60044</t>
+    <t>s_60044-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Model-Catwalk-40112</t>
@@ -2823,13 +2823,13 @@
     <t>Model Catwalk</t>
   </si>
   <si>
-    <t>40112</t>
+    <t>s_40112-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Monster-Truck-60055</t>
   </si>
   <si>
-    <t>60055</t>
+    <t>s_60055-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Monster-Truck-Transporter-60027</t>
@@ -2838,7 +2838,7 @@
     <t>Monster Truck Transporter</t>
   </si>
   <si>
-    <t>60027</t>
+    <t>s_60027-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mountain-Hut-31025</t>
@@ -2847,7 +2847,7 @@
     <t>Mountain Hut</t>
   </si>
   <si>
-    <t>31025</t>
+    <t>s_31025-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/My-First-Circus-10504</t>
@@ -2856,7 +2856,7 @@
     <t>My First Circus</t>
   </si>
   <si>
-    <t>10504</t>
+    <t>s_10504-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/My-First-Construction-Site-10518</t>
@@ -2865,7 +2865,7 @@
     <t>My First Construction Site</t>
   </si>
   <si>
-    <t>10518</t>
+    <t>s_10518-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/My-First-Garden-10517</t>
@@ -2874,7 +2874,7 @@
     <t>My First Garden</t>
   </si>
   <si>
-    <t>10517</t>
+    <t>s_10517-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/My-First-LEGO-DUPLO-Fire-Station-6138</t>
@@ -2883,7 +2883,7 @@
     <t>My First LEGO® DUPLO® Fire Station</t>
   </si>
   <si>
-    <t>6138</t>
+    <t>s_6138-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/My-First-Police-Set-10532</t>
@@ -2892,7 +2892,7 @@
     <t>My First Police Set</t>
   </si>
   <si>
-    <t>10532</t>
+    <t>s_10532-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/My-First-Shop-10546</t>
@@ -2901,7 +2901,7 @@
     <t>My First Shop</t>
   </si>
   <si>
-    <t>10546</t>
+    <t>s_10546-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/My-First-Train-Set-10507</t>
@@ -2910,7 +2910,7 @@
     <t>My First Train Set</t>
   </si>
   <si>
-    <t>10507</t>
+    <t>s_10507-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/My-First-Zoo-6136</t>
@@ -2919,7 +2919,7 @@
     <t>My First Zoo</t>
   </si>
   <si>
-    <t>6136</t>
+    <t>s_6136-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Never-Land-Hideout-10513</t>
@@ -2928,7 +2928,7 @@
     <t>Never Land Hideout</t>
   </si>
   <si>
-    <t>10513</t>
+    <t>s_10513-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Number-Train-10558</t>
@@ -2937,7 +2937,7 @@
     <t>Number Train</t>
   </si>
   <si>
-    <t>10558</t>
+    <t>s_10558-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/NXT-Intelligent-Brick-9841</t>
@@ -2946,7 +2946,7 @@
     <t>NXT Intelligent Brick</t>
   </si>
   <si>
-    <t>9841</t>
+    <t>s_9841-1</t>
   </si>
   <si>
     <t>Price $169.99</t>
@@ -2958,7 +2958,7 @@
     <t>NXT DC Rechargeable Battery</t>
   </si>
   <si>
-    <t>9693</t>
+    <t>s_9693-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Off-road-Racer-42010</t>
@@ -2967,7 +2967,7 @@
     <t>Off-road Racer</t>
   </si>
   <si>
-    <t>42010</t>
+    <t>s_42010-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Olivia-s-Ice-Cream-Bike-41030</t>
@@ -2976,7 +2976,7 @@
     <t>Olivia’s Ice Cream Bike</t>
   </si>
   <si>
-    <t>41030</t>
+    <t>s_41030-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Olivia-s-House-3315</t>
@@ -2985,7 +2985,7 @@
     <t>Olivia’s House</t>
   </si>
   <si>
-    <t>3315</t>
+    <t>s_3315-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Peter-Pan-s-Visit-10526</t>
@@ -2994,7 +2994,7 @@
     <t>Peter Pan's Visit</t>
   </si>
   <si>
-    <t>10526</t>
+    <t>s_10526-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-ATV-60006</t>
@@ -3003,7 +3003,7 @@
     <t>Police ATV</t>
   </si>
   <si>
-    <t>60006</t>
+    <t>s_60006-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-Bike-5679</t>
@@ -3012,7 +3012,7 @@
     <t>Police Bike</t>
   </si>
   <si>
-    <t>5679</t>
+    <t>s_5679-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-Pursuit-4437</t>
@@ -3021,7 +3021,7 @@
     <t>Police Pursuit</t>
   </si>
   <si>
-    <t>4437</t>
+    <t>s_4437-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-Patrol-60045</t>
@@ -3030,7 +3030,7 @@
     <t>Police Patrol</t>
   </si>
   <si>
-    <t>60045</t>
+    <t>s_60045-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Power-Functions-Servo-Motor-88004</t>
@@ -3039,7 +3039,7 @@
     <t>Power Functions Servo Motor</t>
   </si>
   <si>
-    <t>88004</t>
+    <t>s_88004-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Power-Functions-L-Motor-88003</t>
@@ -3048,7 +3048,7 @@
     <t>Power Functions L-Motor</t>
   </si>
   <si>
-    <t>88003</t>
+    <t>s_88003-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Power-Digger-31014</t>
@@ -3057,7 +3057,7 @@
     <t>Power Digger</t>
   </si>
   <si>
-    <t>31014</t>
+    <t>s_31014-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Power-Mech-31007</t>
@@ -3066,7 +3066,7 @@
     <t>Power Mech</t>
   </si>
   <si>
-    <t>31007</t>
+    <t>s_31007-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Prisoner-Transporter-60043</t>
@@ -3075,7 +3075,7 @@
     <t>Prisoner Transporter</t>
   </si>
   <si>
-    <t>60043</t>
+    <t>s_60043-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Race-Car-42011</t>
@@ -3084,7 +3084,7 @@
     <t>Race Car</t>
   </si>
   <si>
-    <t>42011</t>
+    <t>s_42011-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Racer-42000</t>
@@ -3093,13 +3093,13 @@
     <t>Racer</t>
   </si>
   <si>
-    <t>42000</t>
+    <t>s_42000-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Race-Car-60053</t>
   </si>
   <si>
-    <t>60053</t>
+    <t>s_60053-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Rapunzel-s-Creativity-Tower-41054</t>
@@ -3108,7 +3108,7 @@
     <t>Rapunzel's Creativity Tower</t>
   </si>
   <si>
-    <t>41054</t>
+    <t>s_41054-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Red-Rotors-31003</t>
@@ -3117,7 +3117,7 @@
     <t>Red Rotors</t>
   </si>
   <si>
-    <t>31003</t>
+    <t>s_31003-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Rehearsal-Stage-41004</t>
@@ -3126,7 +3126,7 @@
     <t>Rehearsal Stage</t>
   </si>
   <si>
-    <t>41004</t>
+    <t>s_41004-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Republic-Gunship-75021</t>
@@ -3135,7 +3135,7 @@
     <t>Republic Gunship™</t>
   </si>
   <si>
-    <t>75021</t>
+    <t>s_75021-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Red-Thunder-31013</t>
@@ -3144,7 +3144,7 @@
     <t>Red Thunder</t>
   </si>
   <si>
-    <t>31013</t>
+    <t>s_31013-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Republic-Troopers-vs-Sith-Troopers-75001</t>
@@ -3153,7 +3153,7 @@
     <t>Republic Troopers™ vs Sith™ Troopers</t>
   </si>
   <si>
-    <t>75001</t>
+    <t>s_75001-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Roaring-Power-31024</t>
@@ -3162,7 +3162,7 @@
     <t>Roaring Power</t>
   </si>
   <si>
-    <t>31024</t>
+    <t>s_31024-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ripslinger-s-Air-Race-10510</t>
@@ -3171,7 +3171,7 @@
     <t>Ripslinger's Air Race</t>
   </si>
   <si>
-    <t>10510</t>
+    <t>s_10510-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sandcrawler-75059</t>
@@ -3180,7 +3180,7 @@
     <t>Sandcrawler™</t>
   </si>
   <si>
-    <t>75059</t>
+    <t>s_75059-1</t>
   </si>
   <si>
     <t>Price $299.99</t>
@@ -3192,7 +3192,7 @@
     <t>School Bus</t>
   </si>
   <si>
-    <t>10528</t>
+    <t>s_10528-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Seaside-House-7346</t>
@@ -3201,7 +3201,7 @@
     <t>Seaside House</t>
   </si>
   <si>
-    <t>7346</t>
+    <t>s_7346-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Seattle-Space-Needle-21003</t>
@@ -3210,7 +3210,7 @@
     <t>Seattle Space Needle</t>
   </si>
   <si>
-    <t>21003</t>
+    <t>s_21003-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Shredder-s-Dragon-Bike-79101</t>
@@ -3219,7 +3219,7 @@
     <t>Shredder's Dragon Bike</t>
   </si>
   <si>
-    <t>79101</t>
+    <t>s_79101-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Skipper-s-Flight-School-10511</t>
@@ -3228,7 +3228,7 @@
     <t>Skipper's Flight School</t>
   </si>
   <si>
-    <t>10511</t>
+    <t>s_10511-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sleeping-Beauty-s-Fairy-Tale-10542</t>
@@ -3237,7 +3237,7 @@
     <t>Sleeping Beauty’s Fairy Tale</t>
   </si>
   <si>
-    <t>10542</t>
+    <t>s_10542-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Small-Cottage-31009</t>
@@ -3246,7 +3246,7 @@
     <t>Small Cottage</t>
   </si>
   <si>
-    <t>31009</t>
+    <t>s_31009-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Snowmobile-42021</t>
@@ -3255,7 +3255,7 @@
     <t>Snowmobile</t>
   </si>
   <si>
-    <t>42021</t>
+    <t>s_42021-1</t>
   </si>
   <si>
     <t>84</t>
@@ -3267,7 +3267,7 @@
     <t>Sound Sensor</t>
   </si>
   <si>
-    <t>9845</t>
+    <t>s_9845-1</t>
   </si>
   <si>
     <t>Price $28.99</t>
@@ -3282,7 +3282,7 @@
     <t>Spider-Man™: Daily Bugle Showdown</t>
   </si>
   <si>
-    <t>76005</t>
+    <t>s_76005-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Spider-Man-Spider-Cycle-Chase-76004</t>
@@ -3291,7 +3291,7 @@
     <t>Spider-Man™: Spider-Cycle Chase</t>
   </si>
   <si>
-    <t>76004</t>
+    <t>s_76004-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Stealth-Shell-in-Pursuit-79102</t>
@@ -3300,7 +3300,7 @@
     <t>Stealth Shell in Pursuit</t>
   </si>
   <si>
-    <t>79102</t>
+    <t>s_79102-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Stephanie-s-New-Born-Lamb-41029</t>
@@ -3309,7 +3309,7 @@
     <t>Stephanie's New Born Lamb</t>
   </si>
   <si>
-    <t>41029</t>
+    <t>s_41029-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Straight-Crossroad-Plates-7280</t>
@@ -3318,7 +3318,7 @@
     <t>Straight &amp; Crossroad Plates</t>
   </si>
   <si>
-    <t>7280</t>
+    <t>s_7280-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Studio-21050</t>
@@ -3327,7 +3327,7 @@
     <t>Studio</t>
   </si>
   <si>
-    <t>21050</t>
+    <t>s_21050-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Summer-Caravan-41034</t>
@@ -3336,7 +3336,7 @@
     <t>Summer Caravan</t>
   </si>
   <si>
-    <t>41034</t>
+    <t>s_41034-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sunset-Speeder-31017</t>
@@ -3345,7 +3345,7 @@
     <t>Sunset Speeder</t>
   </si>
   <si>
-    <t>31017</t>
+    <t>s_31017-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sunshine-Harvest-41026</t>
@@ -3354,7 +3354,7 @@
     <t>Sunshine Harvest</t>
   </si>
   <si>
-    <t>41026</t>
+    <t>s_41026-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sunshine-Ranch-41039</t>
@@ -3363,7 +3363,7 @@
     <t>Sunshine Ranch</t>
   </si>
   <si>
-    <t>41039</t>
+    <t>s_41039-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Super-Racer-31002</t>
@@ -3372,7 +3372,7 @@
     <t>Super Racer</t>
   </si>
   <si>
-    <t>31002</t>
+    <t>s_31002-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Superman-Battle-of-Smallville-76003</t>
@@ -3381,7 +3381,7 @@
     <t>Superman™: Battle of Smallville</t>
   </si>
   <si>
-    <t>76003</t>
+    <t>s_76003-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Superman-Black-Zero-Escape-76009</t>
@@ -3390,7 +3390,7 @@
     <t>Superman™: Black Zero Escape</t>
   </si>
   <si>
-    <t>76009</t>
+    <t>s_76009-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Superman-Rescue-10543</t>
@@ -3399,7 +3399,7 @@
     <t>Superman™ Rescue</t>
   </si>
   <si>
-    <t>10543</t>
+    <t>s_10543-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Superman-Metropolis-Showdown-76002</t>
@@ -3408,7 +3408,7 @@
     <t>Superman™: Metropolis Showdown</t>
   </si>
   <si>
-    <t>76002</t>
+    <t>s_76002-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Switching-Tracks-7895</t>
@@ -3417,7 +3417,7 @@
     <t>Switching Tracks</t>
   </si>
   <si>
-    <t>7895</t>
+    <t>s_7895-1</t>
   </si>
   <si>
     <t>Price $15.99</t>
@@ -3426,7 +3426,7 @@
     <t>http://shop.lego.com/en-US/Sydney-Opera-House-21012</t>
   </si>
   <si>
-    <t>21012</t>
+    <t>s_21012-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/T-Junction-Curved-Road-Plates-7281</t>
@@ -3435,7 +3435,7 @@
     <t>T-Junction &amp; Curved Road Plates</t>
   </si>
   <si>
-    <t>7281</t>
+    <t>s_7281-1</t>
   </si>
   <si>
     <t>79</t>
@@ -3447,7 +3447,7 @@
     <t>The Bat vs. Bane™: Tumbler Chase</t>
   </si>
   <si>
-    <t>76001</t>
+    <t>s_76001-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-DeLorean-time-machine-21103</t>
@@ -3456,7 +3456,7 @@
     <t>The DeLorean time machine</t>
   </si>
   <si>
-    <t>21103</t>
+    <t>s_21103-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Eiffel-Tower-21019</t>
@@ -3465,7 +3465,7 @@
     <t>The Eiffel Tower</t>
   </si>
   <si>
-    <t>21019</t>
+    <t>s_21019-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Golden-Dragon-70503</t>
@@ -3474,7 +3474,7 @@
     <t>The Golden Dragon</t>
   </si>
   <si>
-    <t>70503</t>
+    <t>s_70503-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Joker-Challenge-10544</t>
@@ -3483,7 +3483,7 @@
     <t>The Joker Challenge</t>
   </si>
   <si>
-    <t>10544</t>
+    <t>s_10544-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Leaning-Tower-of-Pisa-21015</t>
@@ -3492,7 +3492,7 @@
     <t>The Leaning Tower of Pisa</t>
   </si>
   <si>
-    <t>21015</t>
+    <t>s_21015-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Toddler-Build-and-Boat-Fun-10567</t>
@@ -3501,7 +3501,7 @@
     <t>Toddler Build and Boat Fun</t>
   </si>
   <si>
-    <t>10567</t>
+    <t>s_10567-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Toddler-Build-and-Play-Cubes-10553</t>
@@ -3510,7 +3510,7 @@
     <t>Toddler Build and Play Cubes</t>
   </si>
   <si>
-    <t>10553</t>
+    <t>s_10553-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Toddler-Starter-Building-Set-10561</t>
@@ -3519,7 +3519,7 @@
     <t>Toddler Starter Building Set</t>
   </si>
   <si>
-    <t>10561</t>
+    <t>s_10561-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Toddler-Build-and-Pull-Along-10554</t>
@@ -3528,7 +3528,7 @@
     <t>Toddler Build and Pull Along</t>
   </si>
   <si>
-    <t>10554</t>
+    <t>s_10554-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Touch-Sensor-9843</t>
@@ -3537,7 +3537,7 @@
     <t>Touch Sensor</t>
   </si>
   <si>
-    <t>9843</t>
+    <t>s_9843-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Tow-Truck-60056</t>
@@ -3546,7 +3546,7 @@
     <t>Tow Truck</t>
   </si>
   <si>
-    <t>60056</t>
+    <t>s_60056-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Train-Station-60050</t>
@@ -3555,7 +3555,7 @@
     <t>Train Station</t>
   </si>
   <si>
-    <t>60050</t>
+    <t>s_60050-1</t>
   </si>
   <si>
     <t>Price $64.99</t>
@@ -3567,7 +3567,7 @@
     <t>Treasure Attack</t>
   </si>
   <si>
-    <t>10569</t>
+    <t>s_10569-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Treehouse-31010</t>
@@ -3576,7 +3576,7 @@
     <t>Treehouse</t>
   </si>
   <si>
-    <t>31010</t>
+    <t>s_31010-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Truck-10529</t>
@@ -3585,7 +3585,7 @@
     <t>Truck</t>
   </si>
   <si>
-    <t>10529</t>
+    <t>s_10529-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Turbo-Quad-31022</t>
@@ -3594,7 +3594,7 @@
     <t>Turbo Quad</t>
   </si>
   <si>
-    <t>31022</t>
+    <t>s_31022-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ultra-Sonic-Raider-9449</t>
@@ -3603,7 +3603,7 @@
     <t>Ultra Sonic Raider</t>
   </si>
   <si>
-    <t>9449</t>
+    <t>s_9449-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ultrasonic-Sensor-9846</t>
@@ -3612,7 +3612,7 @@
     <t>Ultrasonic Sensor</t>
   </si>
   <si>
-    <t>9846</t>
+    <t>s_9846-1</t>
   </si>
   <si>
     <t>Price $33.99</t>
@@ -3624,7 +3624,7 @@
     <t>Umbaran MHC™ (Mobile Heavy Cannon)</t>
   </si>
   <si>
-    <t>75013</t>
+    <t>s_75013-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/United-Nations-Headquarters-21018</t>
@@ -3633,7 +3633,7 @@
     <t>United Nations Headquarters</t>
   </si>
   <si>
-    <t>21018</t>
+    <t>s_21018-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Vermin-Vaporizer-70704</t>
@@ -3642,7 +3642,7 @@
     <t>Vermin Vaporizer</t>
   </si>
   <si>
-    <t>70704</t>
+    <t>s_70704-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Villa-Savoye-21014</t>
@@ -3651,7 +3651,7 @@
     <t>Villa Savoye</t>
   </si>
   <si>
-    <t>21014</t>
+    <t>s_21014-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/White-House-21006</t>
@@ -3660,7 +3660,7 @@
     <t>White House</t>
   </si>
   <si>
-    <t>21006</t>
+    <t>s_21006-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/X-Large-Gray-Baseplate-628</t>
@@ -3669,7 +3669,7 @@
     <t>X-Large Gray Baseplate</t>
   </si>
   <si>
-    <t>628</t>
+    <t>s_628-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/X-1-Ninja-Charger-70727</t>
@@ -3678,7 +3678,7 @@
     <t>X-1 Ninja Charger</t>
   </si>
   <si>
-    <t>70727</t>
+    <t>s_70727-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Yellow-Racers-31023</t>
@@ -3687,7 +3687,7 @@
     <t>Yellow Racers</t>
   </si>
   <si>
-    <t>31023</t>
+    <t>s_31023-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Z-95-Headhunter-75004</t>
@@ -3696,7 +3696,7 @@
     <t>&lt;i&gt;Z-95 Headhunter&lt;/i&gt;™</t>
   </si>
   <si>
-    <t>75004</t>
+    <t>s_75004-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/AAT-75029</t>
@@ -3705,7 +3705,7 @@
     <t>AAT™</t>
   </si>
   <si>
-    <t>75029</t>
+    <t>s_75029-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/An-Unexpected-Gathering-79003</t>
@@ -3714,7 +3714,7 @@
     <t>An Unexpected Gathering</t>
   </si>
   <si>
-    <t>79003</t>
+    <t>s_79003-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Arctic-Base-Camp-60036</t>
@@ -3723,7 +3723,7 @@
     <t>Arctic Base Camp</t>
   </si>
   <si>
-    <t>60036</t>
+    <t>s_60036-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Arctic-Outpost-60035</t>
@@ -3732,7 +3732,7 @@
     <t>Arctic Outpost</t>
   </si>
   <si>
-    <t>60035</t>
+    <t>s_60035-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/AT-AP-75043</t>
@@ -3741,7 +3741,7 @@
     <t>AT-AP™</t>
   </si>
   <si>
-    <t>75043</t>
+    <t>s_75043-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/AT-AT-75054</t>
@@ -3750,7 +3750,7 @@
     <t>AT-AT™</t>
   </si>
   <si>
-    <t>75054</t>
+    <t>s_75054-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/B-Wing-75050</t>
@@ -3759,7 +3759,7 @@
     <t>B-Wing™</t>
   </si>
   <si>
-    <t>75050</t>
+    <t>s_75050-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Bad-Cop-s-Pursuit-70802</t>
@@ -3768,7 +3768,7 @@
     <t>Bad Cop's Pursuit</t>
   </si>
   <si>
-    <t>70802</t>
+    <t>s_70802-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Batman-Defend-the-Batcave-10672</t>
@@ -3777,7 +3777,7 @@
     <t>Batman™: Defend the Batcave</t>
   </si>
   <si>
-    <t>10672</t>
+    <t>s_10672-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Batman-Man-Bat-Attack-76011</t>
@@ -3786,7 +3786,7 @@
     <t>&lt;i&gt;Batman&lt;/i&gt;™: &lt;i&gt;Man-Bat&lt;/i&gt; Attack</t>
   </si>
   <si>
-    <t>76011</t>
+    <t>s_76011-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Batman-The-Joker-Steam-Roller-76013</t>
@@ -3795,7 +3795,7 @@
     <t>&lt;i&gt;Batman&lt;/i&gt;™: The Joker Steam Roller</t>
   </si>
   <si>
-    <t>76013</t>
+    <t>s_76013-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Batman-The-Penguin-Face-off-76010</t>
@@ -3804,7 +3804,7 @@
     <t>&lt;i&gt;Batman&lt;/i&gt;™: The Penguin Face off</t>
   </si>
   <si>
-    <t>76010</t>
+    <t>s_76010-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Batman-The-Riddler-Chase-76012</t>
@@ -3813,7 +3813,7 @@
     <t>&lt;i&gt;Batman&lt;/i&gt;™: The Riddler Chase</t>
   </si>
   <si>
-    <t>76012</t>
+    <t>s_76012-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Battle-for-Ninjago-City-70728</t>
@@ -3822,7 +3822,7 @@
     <t>Battle for Ninjago City</t>
   </si>
   <si>
-    <t>70728</t>
+    <t>s_70728-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Battle-on-Saleucami-75037</t>
@@ -3831,7 +3831,7 @@
     <t>Battle on Saleucami™</t>
   </si>
   <si>
-    <t>75037</t>
+    <t>s_75037-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Benny-s-Spaceship-Spaceship-SPACESHIP-70816</t>
@@ -3840,7 +3840,7 @@
     <t>Benny's Spaceship, Spaceship, SPACESHIP!</t>
   </si>
   <si>
-    <t>70816</t>
+    <t>s_70816-1</t>
   </si>
   <si>
     <t>99</t>
@@ -3852,7 +3852,7 @@
     <t>Big Rig Snow Getaway</t>
   </si>
   <si>
-    <t>79116</t>
+    <t>s_79116-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Braptor-s-Wing-Striker-70128</t>
@@ -3861,7 +3861,7 @@
     <t>Braptor’s Wing Striker</t>
   </si>
   <si>
-    <t>70128</t>
+    <t>s_70128-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/BREEZ-Flea-Machine-44027</t>
@@ -3870,7 +3870,7 @@
     <t>BREEZ Flea Machine</t>
   </si>
   <si>
-    <t>44027</t>
+    <t>s_44027-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Captain-America-vs-Hydra-76017</t>
@@ -3879,7 +3879,7 @@
     <t>Captain America vs. Hydra</t>
   </si>
   <si>
-    <t>76017</t>
+    <t>s_76017-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Castle-Cavalry-70806</t>
@@ -3888,7 +3888,7 @@
     <t>Castle Cavalry</t>
   </si>
   <si>
-    <t>70806</t>
+    <t>s_70806-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Clone-Turbo-Tank-75028</t>
@@ -3897,7 +3897,7 @@
     <t>Clone Turbo Tank™</t>
   </si>
   <si>
-    <t>75028</t>
+    <t>s_75028-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Cloud-Cuckoo-Palace-70803</t>
@@ -3906,7 +3906,7 @@
     <t>Cloud Cuckoo Palace</t>
   </si>
   <si>
-    <t>70803</t>
+    <t>s_70803-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Color-Sensor-9694</t>
@@ -3915,7 +3915,7 @@
     <t>Color Sensor</t>
   </si>
   <si>
-    <t>9694</t>
+    <t>s_9694-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Creative-Ambush-70812</t>
@@ -3924,7 +3924,7 @@
     <t>Creative Ambush</t>
   </si>
   <si>
-    <t>70812</t>
+    <t>s_70812-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Crocodile-Legend-Beast-70126</t>
@@ -3933,7 +3933,7 @@
     <t>Crocodile Legend Beast</t>
   </si>
   <si>
-    <t>70126</t>
+    <t>s_70126-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Death-Star-Troopers-75034</t>
@@ -3942,7 +3942,7 @@
     <t>Death Star Troopers™</t>
   </si>
   <si>
-    <t>75034</t>
+    <t>s_75034-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Destructoid-70726</t>
@@ -3951,7 +3951,7 @@
     <t>Destructoid</t>
   </si>
   <si>
-    <t>70726</t>
+    <t>s_70726-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Doc-Ock-Truck-Heist-76015</t>
@@ -3960,7 +3960,7 @@
     <t>Doc Ock Truck Heist</t>
   </si>
   <si>
-    <t>76015</t>
+    <t>s_76015-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Dol-Guldur-Ambush-79011</t>
@@ -3969,7 +3969,7 @@
     <t>Dol Guldur Ambush</t>
   </si>
   <si>
-    <t>79011</t>
+    <t>s_79011-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Dol-Guldur-Battle-79014</t>
@@ -3978,7 +3978,7 @@
     <t>Dol Guldur Battle</t>
   </si>
   <si>
-    <t>79014</t>
+    <t>s_79014-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Dragon-Mountain-70403</t>
@@ -3987,7 +3987,7 @@
     <t>Dragon Mountain</t>
   </si>
   <si>
-    <t>70403</t>
+    <t>s_70403-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Droid-Gunship-75042</t>
@@ -3996,7 +3996,7 @@
     <t>Droid Gunship™</t>
   </si>
   <si>
-    <t>75042</t>
+    <t>s_75042-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Eagle-Legend-Beast-70124</t>
@@ -4005,7 +4005,7 @@
     <t>Eagle Legend Beast</t>
   </si>
   <si>
-    <t>70124</t>
+    <t>s_70124-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Emmet-s-Construct-o-Mech-70814</t>
@@ -4014,7 +4014,7 @@
     <t>Emmet’s Construct-o-Mech</t>
   </si>
   <si>
-    <t>70814</t>
+    <t>s_70814-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Epic-Dragon-Battle-9450</t>
@@ -4023,7 +4023,7 @@
     <t>Epic Dragon Battle</t>
   </si>
   <si>
-    <t>9450</t>
+    <t>s_9450-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Eris-Fire-Eagle-Flyer-70142</t>
@@ -4032,7 +4032,7 @@
     <t>Eris’ Fire Eagle Flyer</t>
   </si>
   <si>
-    <t>70142</t>
+    <t>s_70142-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/EV3-Intelligent-Brick-45500</t>
@@ -4041,7 +4041,7 @@
     <t>&lt;p&gt;EV3 Intelligent Brick&lt;/p&gt;</t>
   </si>
   <si>
-    <t>45500</t>
+    <t>s_45500-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/EVO-Walker-44015</t>
@@ -4050,7 +4050,7 @@
     <t>EVO Walker</t>
   </si>
   <si>
-    <t>44015</t>
+    <t>s_44015-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/EVO-XL-Machine-44022</t>
@@ -4059,7 +4059,7 @@
     <t>EVO XL Machine</t>
   </si>
   <si>
-    <t>44022</t>
+    <t>s_44022-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-vs-Ice-70156</t>
@@ -4068,7 +4068,7 @@
     <t>Fire vs. Ice</t>
   </si>
   <si>
-    <t>70156</t>
+    <t>s_70156-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Flaming-Claws-70150</t>
@@ -4077,7 +4077,7 @@
     <t>Flaming Claws</t>
   </si>
   <si>
-    <t>70150</t>
+    <t>s_70150-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/FLYER-Beast-vs-BREEZ-44020</t>
@@ -4086,7 +4086,7 @@
     <t>FLYER Beast vs. BREEZ</t>
   </si>
   <si>
-    <t>44020</t>
+    <t>s_44020-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Flying-Phoenix-Fire-Temple-70146</t>
@@ -4095,7 +4095,7 @@
     <t>Flying Phoenix Fire Temple</t>
   </si>
   <si>
-    <t>70146</t>
+    <t>s_70146-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Forest-Animals-31019</t>
@@ -4104,7 +4104,7 @@
     <t>Forest Animals</t>
   </si>
   <si>
-    <t>31019</t>
+    <t>s_31019-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Frozen-Spikes-70151</t>
@@ -4113,7 +4113,7 @@
     <t>Frozen Spikes</t>
   </si>
   <si>
-    <t>70151</t>
+    <t>s_70151-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/FURNO-Jet-Machine-44018</t>
@@ -4122,7 +4122,7 @@
     <t>FURNO Jet Machine</t>
   </si>
   <si>
-    <t>44018</t>
+    <t>s_44018-1</t>
   </si>
   <si>
     <t>83</t>
@@ -4134,7 +4134,7 @@
     <t>Furry Creatures</t>
   </si>
   <si>
-    <t>31021</t>
+    <t>s_31021-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Getaway-Glider-70800</t>
@@ -4143,7 +4143,7 @@
     <t>Getaway Glider</t>
   </si>
   <si>
-    <t>70800</t>
+    <t>s_70800-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/General-Grievous-Wheel-Bike-75040</t>
@@ -4152,7 +4152,7 @@
     <t>General Grievous' Wheel Bike™</t>
   </si>
   <si>
-    <t>75040</t>
+    <t>s_75040-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ghostbusters-Ecto-1-21108</t>
@@ -4161,7 +4161,7 @@
     <t>Ghostbusters™ Ecto-1</t>
   </si>
   <si>
-    <t>21108</t>
+    <t>s_21108-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Helicopter-Transporter-60049</t>
@@ -4170,7 +4170,7 @@
     <t>Helicopter Transporter</t>
   </si>
   <si>
-    <t>60049</t>
+    <t>s_60049-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/House-Suitcase-10660</t>
@@ -4179,7 +4179,7 @@
     <t>House Suitcase</t>
   </si>
   <si>
-    <t>10660</t>
+    <t>s_10660-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Hover-Hunter-70720</t>
@@ -4188,7 +4188,7 @@
     <t>Hover Hunter</t>
   </si>
   <si>
-    <t>70720</t>
+    <t>s_70720-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Hulk-Lab-Smash-76018</t>
@@ -4197,7 +4197,7 @@
     <t>Hulk Lab Smash</t>
   </si>
   <si>
-    <t>76018</t>
+    <t>s_76018-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Hurricane-Heist-70164</t>
@@ -4206,7 +4206,7 @@
     <t>Hurricane Heist</t>
   </si>
   <si>
-    <t>70164</t>
+    <t>s_70164-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ice-Cream-Machine-70804</t>
@@ -4215,7 +4215,7 @@
     <t>Ice Cream Machine</t>
   </si>
   <si>
-    <t>70804</t>
+    <t>s_70804-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Imperial-Star-Destroyer-75055</t>
@@ -4224,7 +4224,7 @@
     <t>Imperial Star Destroyer™</t>
   </si>
   <si>
-    <t>75055</t>
+    <t>s_75055-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Infearno-Interception-70162</t>
@@ -4233,7 +4233,7 @@
     <t>Infearno Interception</t>
   </si>
   <si>
-    <t>70162</t>
+    <t>s_70162-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Inferno-Pit-70155</t>
@@ -4242,7 +4242,7 @@
     <t>Inferno Pit</t>
   </si>
   <si>
-    <t>70155</t>
+    <t>s_70155-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Iron-Man-Malibu-Mansion-Attack-76007</t>
@@ -4251,7 +4251,7 @@
     <t>Iron Man™: Malibu Mansion Attack</t>
   </si>
   <si>
-    <t>76007</t>
+    <t>s_76007-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/JAW-Beast-vs-STORMER-44016</t>
@@ -4260,7 +4260,7 @@
     <t>JAW Beast vs. STORMER</t>
   </si>
   <si>
-    <t>44016</t>
+    <t>s_44016-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jedi-Scout-Fighter-75051</t>
@@ -4269,7 +4269,7 @@
     <t>Jedi™ Scout Fighter</t>
   </si>
   <si>
-    <t>75051</t>
+    <t>s_75051-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Kai-Fighter-70721</t>
@@ -4278,7 +4278,7 @@
     <t>Kai Fighter</t>
   </si>
   <si>
-    <t>70721</t>
+    <t>s_70721-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Karai-Bike-Escape-79118</t>
@@ -4287,7 +4287,7 @@
     <t>Karai Bike Escape</t>
   </si>
   <si>
-    <t>79118</t>
+    <t>s_79118-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Kashyyyk-Troopers-75035</t>
@@ -4296,7 +4296,7 @@
     <t>Kashyyyk Troopers™</t>
   </si>
   <si>
-    <t>75035</t>
+    <t>s_75035-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Knights-Castle-10676</t>
@@ -4305,7 +4305,7 @@
     <t>Knights' Castle</t>
   </si>
   <si>
-    <t>10676</t>
+    <t>s_10676-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Knowhere-Escape-Mission-76020</t>
@@ -4314,7 +4314,7 @@
     <t>Knowhere Escape Mission</t>
   </si>
   <si>
-    <t>76020</t>
+    <t>s_76020-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Kraang-Lab-Escape-79100</t>
@@ -4323,7 +4323,7 @@
     <t>Kraang Lab Escape</t>
   </si>
   <si>
-    <t>79100</t>
+    <t>s_79100-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Lake-town-Chase-79013</t>
@@ -4332,7 +4332,7 @@
     <t>Lake-town Chase</t>
   </si>
   <si>
-    <t>79013</t>
+    <t>s_79013-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Laval-s-Fire-Lion-70144</t>
@@ -4341,7 +4341,7 @@
     <t>Laval’s Fire Lion</t>
   </si>
   <si>
-    <t>70144</t>
+    <t>s_70144-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Lavertus-Twin-Blade-70129</t>
@@ -4350,7 +4350,7 @@
     <t>Lavertus’ Twin Blade</t>
   </si>
   <si>
-    <t>70129</t>
+    <t>s_70129-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Lavertus-Outland-Base-70134</t>
@@ -4359,7 +4359,7 @@
     <t>Lavertus’ Outland Base</t>
   </si>
   <si>
-    <t>70134</t>
+    <t>s_70134-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Blue-Suitcase-10659</t>
@@ -4368,7 +4368,7 @@
     <t>Vehicle Suitcase</t>
   </si>
   <si>
-    <t>10659</t>
+    <t>s_10659-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Friends-Notebook-850595</t>
@@ -4386,7 +4386,7 @@
     <t>LEGO® Juniors Construction</t>
   </si>
   <si>
-    <t>10667</t>
+    <t>s_10667-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Master-Builder-Academy-Invention-Designer-20215</t>
@@ -4395,7 +4395,7 @@
     <t>LEGO® Master Builder Academy Invention Designer</t>
   </si>
   <si>
-    <t>20215</t>
+    <t>s_20215-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Master-Builder-Academy-Adventure-Designer-20214</t>
@@ -4404,7 +4404,7 @@
     <t>LEGO® Master Builder Academy Adventure Designer</t>
   </si>
   <si>
-    <t>20214</t>
+    <t>s_20214-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Master-Builder-Academy-Robot-Micro-Designer-20216</t>
@@ -4413,7 +4413,7 @@
     <t>LEGO® Master Builder Academy Robot &amp; Micro Designer</t>
   </si>
   <si>
-    <t>20216</t>
+    <t>s_20216-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-SERIOUS-PLAY-Window-Exploration-Bag-2000409</t>
@@ -4422,7 +4422,7 @@
     <t>Window Exploration Bag</t>
   </si>
   <si>
-    <t>2000409</t>
+    <t>s_2000409-1</t>
   </si>
   <si>
     <t>Price $484.99</t>
@@ -4434,7 +4434,7 @@
     <t>Lion Legend Beast</t>
   </si>
   <si>
-    <t>70123</t>
+    <t>s_70123-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Lord-Business-Evil-Lair-70809</t>
@@ -4443,7 +4443,7 @@
     <t>Lord Business' Evil Lair</t>
   </si>
   <si>
-    <t>70809</t>
+    <t>s_70809-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Maula-s-Ice-Mammoth-Stomper-70145</t>
@@ -4452,7 +4452,7 @@
     <t>Maula’s Ice Mammoth Stomper</t>
   </si>
   <si>
-    <t>70145</t>
+    <t>s_70145-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Melting-Room-70801</t>
@@ -4461,7 +4461,7 @@
     <t>Melting Room</t>
   </si>
   <si>
-    <t>70801</t>
+    <t>s_70801-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/MetalBeard-s-Duel-70807</t>
@@ -4470,7 +4470,7 @@
     <t>MetalBeard's Duel</t>
   </si>
   <si>
-    <t>70807</t>
+    <t>s_70807-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Micro-World-The-End-21107</t>
@@ -4479,7 +4479,7 @@
     <t>Micro World – The End</t>
   </si>
   <si>
-    <t>21107</t>
+    <t>s_21107-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Micro-World-The-Nether-21106</t>
@@ -4488,7 +4488,7 @@
     <t>Micro World – The Nether</t>
   </si>
   <si>
-    <t>21106</t>
+    <t>s_21106-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Millennium-Falcon-75030</t>
@@ -4497,7 +4497,7 @@
     <t>Millennium Falcon™</t>
   </si>
   <si>
-    <t>75030</t>
+    <t>s_75030-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Micro-World-The-Village-21105</t>
@@ -4506,7 +4506,7 @@
     <t>Micro World – The Village</t>
   </si>
   <si>
-    <t>21105</t>
+    <t>s_21105-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mirkwood-Elf-Army-79012</t>
@@ -4515,7 +4515,7 @@
     <t>Mirkwood™ Elf Army</t>
   </si>
   <si>
-    <t>79012</t>
+    <t>s_79012-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Museum-Break-in-60008</t>
@@ -4524,7 +4524,7 @@
     <t>Museum Break-in</t>
   </si>
   <si>
-    <t>60008</t>
+    <t>s_60008-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mutation-Chamber-Unleashed-79119</t>
@@ -4533,7 +4533,7 @@
     <t>Mutation Chamber Unleashed</t>
   </si>
   <si>
-    <t>79119</t>
+    <t>s_79119-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Nindroid-MechDragon-70725</t>
@@ -4542,7 +4542,7 @@
     <t>Nindroid MechDragon</t>
   </si>
   <si>
-    <t>70725</t>
+    <t>s_70725-1</t>
   </si>
   <si>
     <t>Price $89.99SalePrice $71.98</t>
@@ -4554,7 +4554,7 @@
     <t>NinjaCopter</t>
   </si>
   <si>
-    <t>70724</t>
+    <t>s_70724-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/OverBorg-Attack-70722</t>
@@ -4563,7 +4563,7 @@
     <t>OverBorg Attack</t>
   </si>
   <si>
-    <t>70722</t>
+    <t>s_70722-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Pirate-Ship-Ambush-79008</t>
@@ -4572,7 +4572,7 @@
     <t>Pirate Ship Ambush</t>
   </si>
   <si>
-    <t>79008</t>
+    <t>s_79008-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-Dog-Unit-60048</t>
@@ -4581,7 +4581,7 @@
     <t>Police Dog Unit</t>
   </si>
   <si>
-    <t>60048</t>
+    <t>s_60048-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-Station-60047</t>
@@ -4590,7 +4590,7 @@
     <t>Police Station</t>
   </si>
   <si>
-    <t>60047</t>
+    <t>s_60047-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-The-Big-Escape-10675</t>
@@ -4599,7 +4599,7 @@
     <t>Police – The Big Escape</t>
   </si>
   <si>
-    <t>10675</t>
+    <t>s_10675-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Pony-Farm-10674</t>
@@ -4608,7 +4608,7 @@
     <t>Pony Farm</t>
   </si>
   <si>
-    <t>10674</t>
+    <t>s_10674-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/QUEEN-Beast-vs-FURNO-EVO-STORMER-44029</t>
@@ -4617,7 +4617,7 @@
     <t>QUEEN Beast vs. FURNO, EVO &amp; STORMER</t>
   </si>
   <si>
-    <t>44029</t>
+    <t>s_44029-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Race-Car-Rally-10673</t>
@@ -4626,7 +4626,7 @@
     <t>Race Car Rally</t>
   </si>
   <si>
-    <t>10673</t>
+    <t>s_10673-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Rancor-Pit-75005</t>
@@ -4635,7 +4635,7 @@
     <t>Rancor™ Pit</t>
   </si>
   <si>
-    <t>75005</t>
+    <t>s_75005-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Rescue-Reinforcements-70813</t>
@@ -4644,7 +4644,7 @@
     <t>Rescue Reinforcements</t>
   </si>
   <si>
-    <t>70813</t>
+    <t>s_70813-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Riverside-Raid-70160</t>
@@ -4653,7 +4653,7 @@
     <t>Riverside Raid</t>
   </si>
   <si>
-    <t>70160</t>
+    <t>s_70160-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/ROCKA-Crawler-44023</t>
@@ -4662,7 +4662,7 @@
     <t>ROCKA Crawler</t>
   </si>
   <si>
-    <t>44023</t>
+    <t>s_44023-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/ROCKA-Stealth-Machine-44019</t>
@@ -4671,7 +4671,7 @@
     <t>ROCKA Stealth Machine</t>
   </si>
   <si>
-    <t>44019</t>
+    <t>s_44019-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Rogon-s-Rock-Flinger-70131</t>
@@ -4680,7 +4680,7 @@
     <t>Rogon’s Rock Flinger</t>
   </si>
   <si>
-    <t>70131</t>
+    <t>s_70131-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Scorm-s-Scorpion-Stinger-70132</t>
@@ -4689,7 +4689,7 @@
     <t>Scorm’s Scorpion Stinger</t>
   </si>
   <si>
-    <t>70132</t>
+    <t>s_70132-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Scorching-Blades-70149</t>
@@ -4698,7 +4698,7 @@
     <t>Scorching Blades</t>
   </si>
   <si>
-    <t>70149</t>
+    <t>s_70149-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Shredder-s-Lair-Rescue-79122</t>
@@ -4707,7 +4707,7 @@
     <t>Shredder’s Lair Rescue</t>
   </si>
   <si>
-    <t>79122</t>
+    <t>s_79122-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sir-Fangar-s-Saber-tooth-Walker-70143</t>
@@ -4716,7 +4716,7 @@
     <t>Sir Fangar’s Saber-tooth Walker</t>
   </si>
   <si>
-    <t>70143</t>
+    <t>s_70143-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Snowspeeder-75049</t>
@@ -4725,7 +4725,7 @@
     <t>Snowspeeder™</t>
   </si>
   <si>
-    <t>75049</t>
+    <t>s_75049-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sparratus-Spider-Stalker-70130</t>
@@ -4734,7 +4734,7 @@
     <t>Sparratus’ Spider Stalker</t>
   </si>
   <si>
-    <t>70130</t>
+    <t>s_70130-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Spider-Helicopter-Rescue-76016</t>
@@ -4743,7 +4743,7 @@
     <t>Spider-Helicopter Rescue</t>
   </si>
   <si>
-    <t>76016</t>
+    <t>s_76016-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Spider-Man-Spider-Car-Pursuit-10665</t>
@@ -4752,7 +4752,7 @@
     <t>Spider-Man™: Spider-Car Pursuit</t>
   </si>
   <si>
-    <t>10665</t>
+    <t>s_10665-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Spider-Trike-vs-Electro-76014</t>
@@ -4761,7 +4761,7 @@
     <t>Spider-Trike vs. Electro</t>
   </si>
   <si>
-    <t>76014</t>
+    <t>s_76014-1</t>
   </si>
   <si>
     <t>62</t>
@@ -4773,7 +4773,7 @@
     <t>Spinlyn’s Cavern</t>
   </si>
   <si>
-    <t>70133</t>
+    <t>s_70133-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/SPLITTER-BEAST-VS-FURNO-EVO-44021</t>
@@ -4782,7 +4782,7 @@
     <t>SPLITTER BEAST VS. FURNO &amp; EVO</t>
   </si>
   <si>
-    <t>44021</t>
+    <t>s_44021-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Star-Destroyer-75033</t>
@@ -4791,7 +4791,7 @@
     <t>Star Destroyer™</t>
   </si>
   <si>
-    <t>75033</t>
+    <t>s_75033-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Starblaster-Showdown-76019</t>
@@ -4800,7 +4800,7 @@
     <t>Starblaster Showdown</t>
   </si>
   <si>
-    <t>76019</t>
+    <t>s_76019-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/STORMER-Freeze-Machine-44017</t>
@@ -4809,7 +4809,7 @@
     <t>STORMER Freeze Machine</t>
   </si>
   <si>
-    <t>44017</t>
+    <t>s_44017-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Super-Cycle-Chase-70808</t>
@@ -4818,7 +4818,7 @@
     <t>Super Cycle Chase</t>
   </si>
   <si>
-    <t>70808</t>
+    <t>s_70808-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Super-Secret-Police-Dropship-70815</t>
@@ -4827,7 +4827,7 @@
     <t>Super Secret Police Dropship</t>
   </si>
   <si>
-    <t>70815</t>
+    <t>s_70815-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Surfer-Rescue-60011</t>
@@ -4836,7 +4836,7 @@
     <t>Surfer Rescue</t>
   </si>
   <si>
-    <t>60011</t>
+    <t>s_60011-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/T-Rawket-Sky-Strike-79120</t>
@@ -4845,7 +4845,7 @@
     <t>T-Rawket Sky Strike</t>
   </si>
   <si>
-    <t>79120</t>
+    <t>s_79120-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Temple-of-Light-70505</t>
@@ -4854,7 +4854,7 @@
     <t>Temple of Light</t>
   </si>
   <si>
-    <t>70505</t>
+    <t>s_70505-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Batcave-6860</t>
@@ -4863,7 +4863,7 @@
     <t>The &lt;i&gt;Batcave&lt;/i&gt;</t>
   </si>
   <si>
-    <t>6860</t>
+    <t>s_6860-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Council-of-Elrond-79006</t>
@@ -4872,7 +4872,7 @@
     <t>The Council of Elrond</t>
   </si>
   <si>
-    <t>79006</t>
+    <t>s_79006-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Flying-Flusher-70811</t>
@@ -4881,7 +4881,7 @@
     <t>The Flying Flusher</t>
   </si>
   <si>
-    <t>70811</t>
+    <t>s_70811-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Gatehouse-Raid-70402</t>
@@ -4890,7 +4890,7 @@
     <t>The Gatehouse Raid</t>
   </si>
   <si>
-    <t>70402</t>
+    <t>s_70402-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Ghost-75053</t>
@@ -4899,7 +4899,7 @@
     <t>The Ghost</t>
   </si>
   <si>
-    <t>75053</t>
+    <t>s_75053-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Milano-Spaceship-Rescue-76021</t>
@@ -4908,7 +4908,7 @@
     <t>The Milano Spaceship Rescue</t>
   </si>
   <si>
-    <t>76021</t>
+    <t>s_76021-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Phantom-75048</t>
@@ -4917,7 +4917,7 @@
     <t>The Phantom</t>
   </si>
   <si>
-    <t>75048</t>
+    <t>s_75048-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Shellraiser-Street-Chase-79104</t>
@@ -4926,7 +4926,7 @@
     <t>The Shellraiser Street Chase</t>
   </si>
   <si>
-    <t>79104</t>
+    <t>s_79104-1</t>
   </si>
   <si>
     <t>56</t>
@@ -4938,7 +4938,7 @@
     <t>The Wizard Battle</t>
   </si>
   <si>
-    <t>79005</t>
+    <t>s_79005-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Thunder-Raider-70723</t>
@@ -4947,7 +4947,7 @@
     <t>Thunder Raider</t>
   </si>
   <si>
-    <t>70723</t>
+    <t>s_70723-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/TIE-Interceptor-75031</t>
@@ -4956,7 +4956,7 @@
     <t>TIE Interceptor™</t>
   </si>
   <si>
-    <t>75031</t>
+    <t>s_75031-1</t>
   </si>
   <si>
     <t>75</t>
@@ -4968,7 +4968,7 @@
     <t>Toxikita's Toxic Meltdown</t>
   </si>
   <si>
-    <t>70163</t>
+    <t>s_70163-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Trash-Chomper-70805</t>
@@ -4977,7 +4977,7 @@
     <t>Trash Chomper</t>
   </si>
   <si>
-    <t>70805</t>
+    <t>s_70805-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Tremor-Track-Infiltration-70161</t>
@@ -4986,7 +4986,7 @@
     <t>Tremor Track Infiltration</t>
   </si>
   <si>
-    <t>70161</t>
+    <t>s_70161-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Trevi-Fountain-21020</t>
@@ -4995,7 +4995,7 @@
     <t>Trevi Fountain</t>
   </si>
   <si>
-    <t>21020</t>
+    <t>s_21020-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Turtle-Lair-10669</t>
@@ -5004,7 +5004,7 @@
     <t>Turtle Lair</t>
   </si>
   <si>
-    <t>10669</t>
+    <t>s_10669-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Turtle-Lair-Attack-79103</t>
@@ -5013,7 +5013,7 @@
     <t>Turtle Lair Attack</t>
   </si>
   <si>
-    <t>79103</t>
+    <t>s_79103-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Turtle-Lair-Invasion-79117</t>
@@ -5022,7 +5022,7 @@
     <t>Turtle Lair Invasion</t>
   </si>
   <si>
-    <t>79117</t>
+    <t>s_79117-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Turtle-Sub-Undersea-Chase-79121</t>
@@ -5031,7 +5031,7 @@
     <t>Turtle Sub Undersea Chase</t>
   </si>
   <si>
-    <t>79121</t>
+    <t>s_79121-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Turtle-Van-Takedown-79115</t>
@@ -5040,7 +5040,7 @@
     <t>Turtle Van Takedown</t>
   </si>
   <si>
-    <t>79115</t>
+    <t>s_79115-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Twin-rotor-Helicopter-42020</t>
@@ -5049,7 +5049,7 @@
     <t>Twin-rotor Helicopter</t>
   </si>
   <si>
-    <t>42020</t>
+    <t>s_42020-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Twinblade-Adventures-31020</t>
@@ -5058,7 +5058,7 @@
     <t>Twinblade Adventures</t>
   </si>
   <si>
-    <t>31020</t>
+    <t>s_31020-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ultra-Agents-Mission-HQ-70165</t>
@@ -5067,7 +5067,7 @@
     <t>Ultra Agents Mission HQ</t>
   </si>
   <si>
-    <t>70165</t>
+    <t>s_70165-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Utapau-Troopers-75036</t>
@@ -5076,7 +5076,7 @@
     <t>Utapau Troopers™</t>
   </si>
   <si>
-    <t>75036</t>
+    <t>s_75036-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Vardy-s-Ice-Vulture-Glider-70141</t>
@@ -5085,7 +5085,7 @@
     <t>Vardy’s Ice Vulture Glider</t>
   </si>
   <si>
-    <t>70141</t>
+    <t>s_70141-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/X-Men-vs-The-Sentinel-76022</t>
@@ -5094,7 +5094,7 @@
     <t>X-Men™ vs. The Sentinel™</t>
   </si>
   <si>
-    <t>76022</t>
+    <t>s_76022-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/X-Wing-Fighter-75032</t>
@@ -5103,7 +5103,7 @@
     <t>X-Wing Fighter™</t>
   </si>
   <si>
-    <t>75032</t>
+    <t>s_75032-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-City-Fire-Truck-Holiday-Bauble-850842</t>
@@ -5112,7 +5112,7 @@
     <t>LEGO® City Fire Truck Holiday Bauble</t>
   </si>
   <si>
-    <t>850842</t>
+    <t>s_850842-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Friends-Doghouse-Holiday-Bauble-850849</t>
@@ -5121,7 +5121,7 @@
     <t>LEGO® Friends Doghouse Holiday Bauble</t>
   </si>
   <si>
-    <t>850849</t>
+    <t>s_850849-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Santa-Holiday-Bauble-850850</t>
@@ -5130,7 +5130,7 @@
     <t>LEGO® Santa Holiday Bauble</t>
   </si>
   <si>
-    <t>850850</t>
+    <t>s_850850-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Tree-Holiday-Bauble-850851</t>
@@ -5139,7 +5139,7 @@
     <t>LEGO® Tree Holiday Bauble</t>
   </si>
   <si>
-    <t>850851</t>
+    <t>s_850851-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-4-stud-Red-Storage-Brick-5001385</t>
@@ -5178,7 +5178,7 @@
     <t>LEGO® Fusion Resort Designer</t>
   </si>
   <si>
-    <t>21208</t>
+    <t>s_21208-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Santa-Claus-Classic-Key-Chain-850150</t>
@@ -5196,7 +5196,7 @@
     <t>LEGO® Fusion Battle Towers</t>
   </si>
   <si>
-    <t>21205</t>
+    <t>s_21205-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Fusion-Town-Master-21204</t>
@@ -5205,7 +5205,7 @@
     <t>LEGO® Fusion Town Master</t>
   </si>
   <si>
-    <t>21204</t>
+    <t>s_21204-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Legends-of-Chima-Scorpion-Sword-Shield-851015</t>
@@ -5226,7 +5226,7 @@
     <t>Flexible Train Tracks</t>
   </si>
   <si>
-    <t>8867</t>
+    <t>s_8867-1</t>
   </si>
   <si>
     <t>57</t>
@@ -5238,7 +5238,7 @@
     <t>LEGO® Power Functions AAA Battery Box</t>
   </si>
   <si>
-    <t>88000</t>
+    <t>s_88000-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Power-Functions-Control-Switch-8869</t>
@@ -5247,7 +5247,7 @@
     <t>LEGO® Power Functions Control Switch</t>
   </si>
   <si>
-    <t>8869</t>
+    <t>s_8869-1</t>
   </si>
   <si>
     <t>Price $5.79</t>
@@ -5259,7 +5259,7 @@
     <t>LEGO® Power Functions Battery Box</t>
   </si>
   <si>
-    <t>8881</t>
+    <t>s_8881-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Power-Functions-Extension-Wire-20-8871</t>
@@ -5268,7 +5268,7 @@
     <t>LEGO® Power Functions Extension Wire 20”</t>
   </si>
   <si>
-    <t>8871</t>
+    <t>s_8871-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Power-Functions-Extension-Wire-8886</t>
@@ -5277,7 +5277,7 @@
     <t>LEGO® Power Functions Extension Wire</t>
   </si>
   <si>
-    <t>8886</t>
+    <t>s_8886-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Power-Functions-IR-Receiver-8884</t>
@@ -5286,7 +5286,7 @@
     <t>LEGO® Power Functions IR Receiver</t>
   </si>
   <si>
-    <t>8884</t>
+    <t>s_8884-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Power-Functions-IR-Speed-Remote-Control-8879</t>
@@ -5295,7 +5295,7 @@
     <t>LEGO® Power Functions IR Speed Remote Control</t>
   </si>
   <si>
-    <t>8879</t>
+    <t>s_8879-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Power-Functions-Light-8870</t>
@@ -5304,7 +5304,7 @@
     <t>LEGO® Power Functions Light</t>
   </si>
   <si>
-    <t>8870</t>
+    <t>s_8870-1</t>
   </si>
   <si>
     <t>Price $6.49</t>
@@ -5316,7 +5316,7 @@
     <t>LEGO® Power Functions M-Motor</t>
   </si>
   <si>
-    <t>8883</t>
+    <t>s_8883-1</t>
   </si>
   <si>
     <t>Price $7.49</t>
@@ -5328,7 +5328,7 @@
     <t>LEGO® Power Functions Rechargeable Battery Box</t>
   </si>
   <si>
-    <t>8878</t>
+    <t>s_8878-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Power-Functions-Train-Motor-88002</t>
@@ -5337,7 +5337,7 @@
     <t>LEGO® Power Functions Train Motor</t>
   </si>
   <si>
-    <t>88002</t>
+    <t>s_88002-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Power-Functions-XL-Motor-8882</t>
@@ -5346,7 +5346,7 @@
     <t>LEGO® Power Functions XL-Motor</t>
   </si>
   <si>
-    <t>8882</t>
+    <t>s_8882-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Classic-Firetruck-Bag-Charm-850952</t>
@@ -5538,7 +5538,7 @@
     <t>Busy Farm</t>
   </si>
   <si>
-    <t>6759</t>
+    <t>s_6759-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Brickmaster-Star-Wars-Crystal-5004103</t>
@@ -5694,7 +5694,7 @@
     <t>Peekaboo Jungle</t>
   </si>
   <si>
-    <t>10560</t>
+    <t>s_10560-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sir-Fangar-Claw-Shield-851318</t>
@@ -5739,7 +5739,7 @@
     <t>http://shop.lego.com/en-US/Fire-Emergency-10671</t>
   </si>
   <si>
-    <t>10671</t>
+    <t>s_10671-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Dolphin-Bag-Charm-851324</t>
@@ -5847,7 +5847,7 @@
     <t>&lt;p&gt;Halloween Set&lt;/p&gt;</t>
   </si>
   <si>
-    <t>850936</t>
+    <t>s_850936-1</t>
   </si>
   <si>
     <t>Call to check product availability</t>
@@ -5889,7 +5889,7 @@
     <t>LEGO® City Coin Bank</t>
   </si>
   <si>
-    <t>40110</t>
+    <t>s_40110-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-City-Playmat-850929</t>
@@ -5982,7 +5982,7 @@
     <t>LEGO® Minifigure Birthday Set</t>
   </si>
   <si>
-    <t>850791</t>
+    <t>s_850791-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/THE-LEGO-MOVIE-Bad-Cop-Key-Light-5003584</t>
@@ -6057,7 +6057,7 @@
     <t>4x4 Crawler Exclusive Edition</t>
   </si>
   <si>
-    <t>41999</t>
+    <t>s_41999-1</t>
   </si>
   <si>
     <t>Retired product</t>
@@ -6069,7 +6069,7 @@
     <t>Anakin’s Jedi Interceptor™</t>
   </si>
   <si>
-    <t>9494</t>
+    <t>s_9494-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Animal-Clinic-6158</t>
@@ -6078,7 +6078,7 @@
     <t>Animal Clinic</t>
   </si>
   <si>
-    <t>6158</t>
+    <t>s_6158-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/B-Wing-Starfighter-10227</t>
@@ -6087,7 +6087,7 @@
     <t>B-Wing Starfighter™</t>
   </si>
   <si>
-    <t>10227</t>
+    <t>s_10227-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Backhoe-Loader-8069</t>
@@ -6096,7 +6096,7 @@
     <t>Backhoe Loader</t>
   </si>
   <si>
-    <t>8069</t>
+    <t>s_8069-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Bank-Money-Transfer-3661</t>
@@ -6105,7 +6105,7 @@
     <t>Bank &amp; Money Transfer</t>
   </si>
   <si>
-    <t>3661</t>
+    <t>s_3661-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Battle-of-Hoth-75014</t>
@@ -6114,7 +6114,7 @@
     <t>Battle of Hoth™</t>
   </si>
   <si>
-    <t>75014</t>
+    <t>s_75014-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Big-Zoo-6157</t>
@@ -6123,7 +6123,7 @@
     <t>Big Zoo</t>
   </si>
   <si>
-    <t>6157</t>
+    <t>s_6157-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Brick-Calendar-853195</t>
@@ -6144,7 +6144,7 @@
     <t>Bucket Truck</t>
   </si>
   <si>
-    <t>8071</t>
+    <t>s_8071-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Bunny-s-Hutch-41022</t>
@@ -6153,7 +6153,7 @@
     <t>Bunny's Hutch</t>
   </si>
   <si>
-    <t>41022</t>
+    <t>s_41022-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Car-Wash-5696</t>
@@ -6162,13 +6162,13 @@
     <t>Car Wash</t>
   </si>
   <si>
-    <t>5696</t>
+    <t>s_5696-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Cargo-Train-7939</t>
   </si>
   <si>
-    <t>7939</t>
+    <t>s_7939-1</t>
   </si>
   <si>
     <t>Price $179.99</t>
@@ -6189,7 +6189,7 @@
     <t>CHI Battles</t>
   </si>
   <si>
-    <t>70113</t>
+    <t>s_70113-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/CHI-Waterfall-70102</t>
@@ -6198,7 +6198,7 @@
     <t>CHI Waterfall</t>
   </si>
   <si>
-    <t>70102</t>
+    <t>s_70102-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Circus-Show-10503</t>
@@ -6207,7 +6207,7 @@
     <t>Circus Show</t>
   </si>
   <si>
-    <t>10503</t>
+    <t>s_10503-1</t>
   </si>
   <si>
     <t>Exclusive|Retiring Soon</t>
@@ -6219,7 +6219,7 @@
     <t>Decorating the Tree</t>
   </si>
   <si>
-    <t>40058</t>
+    <t>s_40058-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Doctor-s-Clinic-5695</t>
@@ -6228,7 +6228,7 @@
     <t>Doctor’s Clinic</t>
   </si>
   <si>
-    <t>5695</t>
+    <t>s_5695-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Drink-Tumbler-853213</t>
@@ -6246,7 +6246,7 @@
     <t>Eagles’ Castle</t>
   </si>
   <si>
-    <t>70011</t>
+    <t>s_70011-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Emergency-Helicopter-5794</t>
@@ -6255,7 +6255,7 @@
     <t>Emergency Helicopter</t>
   </si>
   <si>
-    <t>5794</t>
+    <t>s_5794-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Equila-s-Ultra-Striker-70013</t>
@@ -6264,7 +6264,7 @@
     <t>Equila’s Ultra Striker</t>
   </si>
   <si>
-    <t>70013</t>
+    <t>s_70013-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fairground-Mixer-10244</t>
@@ -6273,7 +6273,7 @@
     <t>Fairground Mixer</t>
   </si>
   <si>
-    <t>10244</t>
+    <t>s_10244-1</t>
   </si>
   <si>
     <t>Out of stock, expected ship date 17 Nov 2014</t>
@@ -6285,7 +6285,7 @@
     <t>Extreme Cruiser</t>
   </si>
   <si>
-    <t>8081</t>
+    <t>s_8081-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fangpyre-Mech-9455</t>
@@ -6294,7 +6294,7 @@
     <t>Fangpyre Mech</t>
   </si>
   <si>
-    <t>9455</t>
+    <t>s_9455-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fangpyre-Wrecking-Ball-9457</t>
@@ -6303,7 +6303,7 @@
     <t>Fangpyre Wrecking Ball</t>
   </si>
   <si>
-    <t>9457</t>
+    <t>s_9457-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-Boat-60005</t>
@@ -6312,7 +6312,7 @@
     <t>Fire Boat</t>
   </si>
   <si>
-    <t>60005</t>
+    <t>s_60005-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-Brigade-10197</t>
@@ -6321,7 +6321,7 @@
     <t>Fire Brigade</t>
   </si>
   <si>
-    <t>10197</t>
+    <t>s_10197-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-Helicopter-60010</t>
@@ -6330,7 +6330,7 @@
     <t>Fire Helicopter</t>
   </si>
   <si>
-    <t>60010</t>
+    <t>s_60010-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-Transporter-4430</t>
@@ -6339,13 +6339,13 @@
     <t>Fire Transporter</t>
   </si>
   <si>
-    <t>4430</t>
+    <t>s_4430-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Flatbed-Truck-8109</t>
   </si>
   <si>
-    <t>8109</t>
+    <t>s_8109-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/friends-animal-collection-5004260</t>
@@ -6354,7 +6354,7 @@
     <t>Friends Animal Collection</t>
   </si>
   <si>
-    <t>5004260</t>
+    <t>s_5004260-1</t>
   </si>
   <si>
     <t>Price $11.97</t>
@@ -6366,7 +6366,7 @@
     <t>Gas Station</t>
   </si>
   <si>
-    <t>6171</t>
+    <t>s_6171-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Grand-Emporium-10211</t>
@@ -6375,7 +6375,7 @@
     <t>Grand Emporium</t>
   </si>
   <si>
-    <t>10211</t>
+    <t>s_10211-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Halloween-Pumpkin-40055</t>
@@ -6384,7 +6384,7 @@
     <t>Halloween Pumpkin</t>
   </si>
   <si>
-    <t>40055</t>
+    <t>s_40055-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Haunted-House-10228</t>
@@ -6393,7 +6393,7 @@
     <t>Haunted House</t>
   </si>
   <si>
-    <t>10228</t>
+    <t>s_10228-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Heartlake-Flying-Club-3063</t>
@@ -6402,7 +6402,7 @@
     <t>Heartlake Flying Club</t>
   </si>
   <si>
-    <t>3063</t>
+    <t>s_3063-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Hillside-House-5771</t>
@@ -6411,7 +6411,7 @@
     <t>Hillside House</t>
   </si>
   <si>
-    <t>5771</t>
+    <t>s_5771-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Holiday-Scene-Magnet-853353</t>
@@ -6429,7 +6429,7 @@
     <t>Hoth™ Echo Base™</t>
   </si>
   <si>
-    <t>7879</t>
+    <t>s_7879-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jet-Plane-9394</t>
@@ -6438,7 +6438,7 @@
     <t>Jet Plane</t>
   </si>
   <si>
-    <t>9394</t>
+    <t>s_9394-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Lasha-s-Bite-Cycle-9447</t>
@@ -6447,7 +6447,7 @@
     <t>Lasha's Bite Cycle</t>
   </si>
   <si>
-    <t>9447</t>
+    <t>s_9447-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Building-Fun-5549</t>
@@ -6456,7 +6456,7 @@
     <t>LEGO® Building Fun</t>
   </si>
   <si>
-    <t>5549</t>
+    <t>s_5549-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Castle-King-Key-Chain-850884</t>
@@ -6483,7 +6483,7 @@
     <t>LEGO® Castle Knights Accessory Set</t>
   </si>
   <si>
-    <t>850888</t>
+    <t>s_850888-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-City-Fire-Collection-60004-and-850781-5003096</t>
@@ -6513,7 +6513,7 @@
     <t>LEGO® Classic Minifigure Graduation Set</t>
   </si>
   <si>
-    <t>850935</t>
+    <t>s_850935-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DC-Universe-Super-Heroes-Arctic-Batman-Key-Chain-850815</t>
@@ -6531,7 +6531,7 @@
     <t>LEGO® DUPLO® Build &amp; Play Box</t>
   </si>
   <si>
-    <t>4629</t>
+    <t>s_4629-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-Creative-Chest-10556</t>
@@ -6540,7 +6540,7 @@
     <t>LEGO® DUPLO® Creative Chest</t>
   </si>
   <si>
-    <t>10556</t>
+    <t>s_10556-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Easter-40086</t>
@@ -6549,7 +6549,7 @@
     <t>LEGO® Easter</t>
   </si>
   <si>
-    <t>40086</t>
+    <t>s_40086-1</t>
   </si>
   <si>
     <t>Price $9.99SalePrice $7.98</t>
@@ -6576,7 +6576,7 @@
     <t>http://shop.lego.com/en-US/LEGO-Legends-of-Chima-Minifigure-Accessory-Set-850779</t>
   </si>
   <si>
-    <t>850779</t>
+    <t>s_850779-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Legends-of-Chima-Rogon-Key-Chain-850908</t>
@@ -6627,7 +6627,7 @@
     <t>LEGO® Minifigures Series 11</t>
   </si>
   <si>
-    <t>71002</t>
+    <t>s_71002-0</t>
   </si>
   <si>
     <t>Exclusive|Hard To Find</t>
@@ -6888,7 +6888,7 @@
     <t>Let's Go! Vroom!</t>
   </si>
   <si>
-    <t>6760</t>
+    <t>s_6760-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Loader-and-Tipper-4201</t>
@@ -6897,13 +6897,13 @@
     <t>Loader and Tipper</t>
   </si>
   <si>
-    <t>4201</t>
+    <t>s_4201-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Logging-Truck-9397</t>
   </si>
   <si>
-    <t>9397</t>
+    <t>s_9397-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Luke-s-Landspeeder-8092</t>
@@ -6912,7 +6912,7 @@
     <t>Luke’s Landspeeder™</t>
   </si>
   <si>
-    <t>8092</t>
+    <t>s_8092-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Market-Place-5683</t>
@@ -6921,7 +6921,7 @@
     <t>Market Place</t>
   </si>
   <si>
-    <t>5683</t>
+    <t>s_5683-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mini-Container-Truck-8065</t>
@@ -6930,7 +6930,7 @@
     <t>Mini Container Truck</t>
   </si>
   <si>
-    <t>8065</t>
+    <t>s_8065-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mini-Mobile-Crane-8067</t>
@@ -6939,7 +6939,7 @@
     <t>Mini Mobile Crane</t>
   </si>
   <si>
-    <t>8067</t>
+    <t>s_8067-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mini-Tow-Truck-9390</t>
@@ -6948,7 +6948,7 @@
     <t>Mini Tow Truck</t>
   </si>
   <si>
-    <t>9390</t>
+    <t>s_9390-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mining-4x4-4200</t>
@@ -6957,7 +6957,7 @@
     <t>Mining 4x4</t>
   </si>
   <si>
-    <t>4200</t>
+    <t>s_4200-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/NASA-Mars-Science-Laboratory-Curiosity-Rover-21104</t>
@@ -6966,7 +6966,7 @@
     <t>NASA Mars Science Laboratory Curiosity Rover</t>
   </si>
   <si>
-    <t>21104</t>
+    <t>s_21104-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ninjago-Battle-Arena-2520</t>
@@ -6975,7 +6975,7 @@
     <t>Ninjago Battle Arena</t>
   </si>
   <si>
-    <t>2520</t>
+    <t>s_2520-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Nurse-s-Car-5793</t>
@@ -6984,7 +6984,7 @@
     <t>Nurse’s Car</t>
   </si>
   <si>
-    <t>5793</t>
+    <t>s_5793-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ocean-Interceptor-5888</t>
@@ -6993,7 +6993,7 @@
     <t>Ocean Interceptor</t>
   </si>
   <si>
-    <t>5888</t>
+    <t>s_5888-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Off-Road-Command-Center-4205</t>
@@ -7002,7 +7002,7 @@
     <t>Off Road Command Center</t>
   </si>
   <si>
-    <t>4205</t>
+    <t>s_4205-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Off-Roader-8066</t>
@@ -7011,7 +7011,7 @@
     <t>Off-Roader</t>
   </si>
   <si>
-    <t>8066</t>
+    <t>s_8066-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Olivia-s-Speedboat-3937</t>
@@ -7020,7 +7020,7 @@
     <t>Olivia's Speedboat</t>
   </si>
   <si>
-    <t>3937</t>
+    <t>s_3937-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Patrol-Car-4436</t>
@@ -7029,7 +7029,7 @@
     <t>Patrol Car</t>
   </si>
   <si>
-    <t>4436</t>
+    <t>s_4436-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Passenger-Train-7938</t>
@@ -7038,7 +7038,7 @@
     <t>Passenger Train</t>
   </si>
   <si>
-    <t>7938</t>
+    <t>s_7938-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Passenger-Plane-3181</t>
@@ -7047,7 +7047,7 @@
     <t>Passenger Plane</t>
   </si>
   <si>
-    <t>3181</t>
+    <t>s_3181-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-Helicopter-3658</t>
@@ -7056,7 +7056,7 @@
     <t>Police Helicopter</t>
   </si>
   <si>
-    <t>3658</t>
+    <t>s_3658-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Poodle-s-Little-Palace-41021</t>
@@ -7065,7 +7065,7 @@
     <t>Poodle's Little Palace</t>
   </si>
   <si>
-    <t>41021</t>
+    <t>s_41021-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Pre-Vizsla-s-Mandalorian-Fighter-9525</t>
@@ -7074,7 +7074,7 @@
     <t>Pre Vizsla's Mandalorian™ Fighter</t>
   </si>
   <si>
-    <t>9525</t>
+    <t>s_9525-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Quad-Bike-9392</t>
@@ -7083,7 +7083,7 @@
     <t>Quad Bike</t>
   </si>
   <si>
-    <t>9392</t>
+    <t>s_9392-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/R2-D2-10225</t>
@@ -7092,7 +7092,7 @@
     <t>R2-D2™</t>
   </si>
   <si>
-    <t>10225</t>
+    <t>s_10225-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Recycling-Truck-4206</t>
@@ -7101,7 +7101,7 @@
     <t>Recycling Truck</t>
   </si>
   <si>
-    <t>4206</t>
+    <t>s_4206-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Red-6132</t>
@@ -7110,7 +7110,7 @@
     <t>Red</t>
   </si>
   <si>
-    <t>6132</t>
+    <t>s_6132-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Rescue-Helicopter-8068</t>
@@ -7119,7 +7119,7 @@
     <t>Rescue Helicopter</t>
   </si>
   <si>
-    <t>8068</t>
+    <t>s_8068-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Robber-s-Hideout-4438</t>
@@ -7128,7 +7128,7 @@
     <t>Robber's Hideout</t>
   </si>
   <si>
-    <t>4438</t>
+    <t>s_4438-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Santa-s-Sleigh-40059</t>
@@ -7137,7 +7137,7 @@
     <t>Santa’s Sleigh</t>
   </si>
   <si>
-    <t>40059</t>
+    <t>s_40059-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Satellite-Launch-Pad-3366</t>
@@ -7146,7 +7146,7 @@
     <t>Satellite Launch Pad</t>
   </si>
   <si>
-    <t>3366</t>
+    <t>s_3366-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Shuttle-Expedition-10231</t>
@@ -7155,7 +7155,7 @@
     <t>Shuttle Expedition</t>
   </si>
   <si>
-    <t>10231</t>
+    <t>s_10231-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sopwith-Camel-10226</t>
@@ -7164,7 +7164,7 @@
     <t>Sopwith Camel</t>
   </si>
   <si>
-    <t>10226</t>
+    <t>s_10226-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Spider-Man-Key-Chain-850507</t>
@@ -7182,7 +7182,7 @@
     <t>Spinner Battle</t>
   </si>
   <si>
-    <t>9456</t>
+    <t>s_9456-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Squirrel-s-Tree-House-41017</t>
@@ -7191,7 +7191,7 @@
     <t>Squirrel's Tree House</t>
   </si>
   <si>
-    <t>41017</t>
+    <t>s_41017-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Super-Star-Destroyer-10221</t>
@@ -7200,7 +7200,7 @@
     <t>Super Star Destroyer™</t>
   </si>
   <si>
-    <t>10221</t>
+    <t>s_10221-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Supercar-8070</t>
@@ -7209,7 +7209,7 @@
     <t>Supercar</t>
   </si>
   <si>
-    <t>8070</t>
+    <t>s_8070-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Tank-Truck-3180</t>
@@ -7218,7 +7218,7 @@
     <t>Tank Truck</t>
   </si>
   <si>
-    <t>3180</t>
+    <t>s_3180-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Tanker-Truck-60016</t>
@@ -7227,7 +7227,7 @@
     <t>Tanker Truck</t>
   </si>
   <si>
-    <t>60016</t>
+    <t>s_60016-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Batmobile-and-the-Two-Face-Chase-6864</t>
@@ -7236,7 +7236,7 @@
     <t>The Batmobile and the &lt;i&gt;Two-Face&lt;/i&gt; Chase</t>
   </si>
   <si>
-    <t>6864</t>
+    <t>s_6864-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Dynamic-Duo-Funhouse-Escape-6857</t>
@@ -7245,7 +7245,7 @@
     <t>&lt;i&gt;The Dynamic Duo Funhouse Escape&lt;/i&gt;</t>
   </si>
   <si>
-    <t>6857</t>
+    <t>s_6857-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/THE-LEGO-MOVIE-Bad-Cop-Key-Chain-850896</t>
@@ -7290,7 +7290,7 @@
     <t>The Tumbler</t>
   </si>
   <si>
-    <t>76023</t>
+    <t>s_76023-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Tigger-s-Expedition-5946</t>
@@ -7299,7 +7299,7 @@
     <t>Tigger’s Expedition</t>
   </si>
   <si>
-    <t>5946</t>
+    <t>s_5946-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Town-Hall-10224</t>
@@ -7308,7 +7308,7 @@
     <t>Town Hall</t>
   </si>
   <si>
-    <t>10224</t>
+    <t>s_10224-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Tractor-9393</t>
@@ -7317,7 +7317,7 @@
     <t>Tractor</t>
   </si>
   <si>
-    <t>9393</t>
+    <t>s_9393-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Transport-Chopper-7345</t>
@@ -7326,7 +7326,7 @@
     <t>Transport Chopper</t>
   </si>
   <si>
-    <t>7345</t>
+    <t>s_7345-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Twin-Pod-Cloud-Car-Bespin-9678</t>
@@ -7335,7 +7335,7 @@
     <t>Twin-Pod Cloud Car™ &amp; Bespin™</t>
   </si>
   <si>
-    <t>9678</t>
+    <t>s_9678-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Winter-Village-Post-Office-10222</t>
@@ -7344,7 +7344,7 @@
     <t>Winter Village Post Office</t>
   </si>
   <si>
-    <t>10222</t>
+    <t>s_10222-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Winter-Village-Cottage-10229</t>
@@ -7353,7 +7353,7 @@
     <t>Winter Village Cottage</t>
   </si>
   <si>
-    <t>10229</t>
+    <t>s_10229-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Arctic-Icebreaker-60062</t>
@@ -7362,7 +7362,7 @@
     <t>Arctic Icebreaker</t>
   </si>
   <si>
-    <t>60062</t>
+    <t>s_60062-1</t>
   </si>
   <si>
     <t>Out of stock, will ship in 30 days</t>
@@ -7374,7 +7374,7 @@
     <t>Attack of the Wargs</t>
   </si>
   <si>
-    <t>79002</t>
+    <t>s_79002-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Barrel-Escape-79004</t>
@@ -7383,7 +7383,7 @@
     <t>Barrel Escape</t>
   </si>
   <si>
-    <t>79004</t>
+    <t>s_79004-1</t>
   </si>
   <si>
     <t>Price $39.99SalePrice $19.98</t>
@@ -7395,7 +7395,7 @@
     <t>Digger</t>
   </si>
   <si>
-    <t>10666</t>
+    <t>s_10666-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Exo-Suit-21109</t>
@@ -7404,7 +7404,7 @@
     <t>Exo Suit</t>
   </si>
   <si>
-    <t>21109</t>
+    <t>s_21109-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jungle-Gates-70104</t>
@@ -7413,7 +7413,7 @@
     <t>Jungle Gates</t>
   </si>
   <si>
-    <t>70104</t>
+    <t>s_70104-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Marvel-Super-Heroes-Iron-Man-Magnet-850673</t>
@@ -7434,7 +7434,7 @@
     <t>Mini Sports Car</t>
   </si>
   <si>
-    <t>6910</t>
+    <t>s_6910-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Research-Institute-21110</t>
@@ -7443,7 +7443,7 @@
     <t>Research Institute</t>
   </si>
   <si>
-    <t>21110</t>
+    <t>s_21110-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Riddles-for-the-Ring-79000</t>
@@ -7452,7 +7452,7 @@
     <t>Riddles for the Ring</t>
   </si>
   <si>
-    <t>79000</t>
+    <t>s_79000-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Samurai-Mech-9448</t>
@@ -7461,7 +7461,7 @@
     <t>Samurai Mech</t>
   </si>
   <si>
-    <t>9448</t>
+    <t>s_9448-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Street-Rebel-7291</t>
@@ -7470,7 +7470,7 @@
     <t>Street Rebel</t>
   </si>
   <si>
-    <t>7291</t>
+    <t>s_7291-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Super-Soarer-6912</t>
@@ -7479,7 +7479,7 @@
     <t>Super Soarer</t>
   </si>
   <si>
-    <t>6912</t>
+    <t>s_6912-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Croc-Swamp-Hideout-70014</t>
@@ -7488,7 +7488,7 @@
     <t>The Croc Swamp Hideout</t>
   </si>
   <si>
-    <t>70014</t>
+    <t>s_70014-1</t>
   </si>
   <si>
     <t>Price $69.99SalePrice $34.98</t>
@@ -7500,7 +7500,7 @@
     <t>The &lt;i&gt;Goblin King Battle&lt;/i&gt;</t>
   </si>
   <si>
-    <t>79010</t>
+    <t>s_79010-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Mines-of-Moria-9473</t>
@@ -7509,7 +7509,7 @@
     <t>The Mines of Moria™</t>
   </si>
   <si>
-    <t>9473</t>
+    <t>s_9473-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Orc-Forge-9476</t>
@@ -7518,7 +7518,7 @@
     <t>The Orc Forge</t>
   </si>
   <si>
-    <t>9476</t>
+    <t>s_9476-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Web-Dash-70138</t>
@@ -7527,7 +7527,7 @@
     <t>Web Dash</t>
   </si>
   <si>
-    <t>70138</t>
+    <t>s_70138-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/A-Fairy-Tale-10559</t>
@@ -7536,7 +7536,7 @@
     <t>A Fairy Tale</t>
   </si>
   <si>
-    <t>10559</t>
+    <t>s_10559-1</t>
   </si>
   <si>
     <t>Price $12.99SalePrice $3.48</t>
@@ -7548,7 +7548,7 @@
     <t>4x4 Fire Truck</t>
   </si>
   <si>
-    <t>4208</t>
+    <t>s_4208-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Adventure-Camper-3184</t>
@@ -7557,7 +7557,7 @@
     <t>Adventure Camper</t>
   </si>
   <si>
-    <t>3184</t>
+    <t>s_3184-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Agent-Mater-5817</t>
@@ -7566,7 +7566,7 @@
     <t>Agent Mater</t>
   </si>
   <si>
-    <t>5817</t>
+    <t>s_5817-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Agent-Mater-s-Escape-9483</t>
@@ -7575,13 +7575,13 @@
     <t>Agent Mater’s Escape</t>
   </si>
   <si>
-    <t>9483</t>
+    <t>s_9483-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ambulance-4431</t>
   </si>
   <si>
-    <t>4431</t>
+    <t>s_4431-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ambush-Attack-5882</t>
@@ -7590,7 +7590,7 @@
     <t>Ambush Attack</t>
   </si>
   <si>
-    <t>5882</t>
+    <t>s_5882-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Anakin-Skywalker-and-Sebulba-s-Podracers-7962</t>
@@ -7599,7 +7599,7 @@
     <t>Anakin Skywalker and Sebulba’s Podracers™</t>
   </si>
   <si>
-    <t>7962</t>
+    <t>s_7962-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Andrea-s-Bunny-House-3938</t>
@@ -7608,7 +7608,7 @@
     <t>Andrea's Bunny House</t>
   </si>
   <si>
-    <t>3938</t>
+    <t>s_3938-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Andrea-s-Bedroom-41009</t>
@@ -7617,7 +7617,7 @@
     <t>Andrea’s Bedroom</t>
   </si>
   <si>
-    <t>41009</t>
+    <t>s_41009-1</t>
   </si>
   <si>
     <t>Price $9.99SalePrice $4.98</t>
@@ -7629,7 +7629,7 @@
     <t>Apple Tree House</t>
   </si>
   <si>
-    <t>5891</t>
+    <t>s_5891-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Andrea-s-Stage-3932</t>
@@ -7638,7 +7638,7 @@
     <t>Andrea’s Stage</t>
   </si>
   <si>
-    <t>3932</t>
+    <t>s_3932-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ariel-s-Magical-Boat-Ride-10516</t>
@@ -7647,7 +7647,7 @@
     <t>Ariel's Magical Boat Ride</t>
   </si>
   <si>
-    <t>10516</t>
+    <t>s_10516-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/AT-ST-Endor-9679</t>
@@ -7656,7 +7656,7 @@
     <t>AT-ST™ &amp; Endor™</t>
   </si>
   <si>
-    <t>9679</t>
+    <t>s_9679-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Battle-for-Geonosis-7869</t>
@@ -7665,7 +7665,7 @@
     <t>Battle for Geonosis™</t>
   </si>
   <si>
-    <t>7869</t>
+    <t>s_7869-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Baxter-Robot-Rampage-79105</t>
@@ -7674,7 +7674,7 @@
     <t>Baxter Robot Rampage</t>
   </si>
   <si>
-    <t>79105</t>
+    <t>s_79105-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Batwing-Battle-Over-Gotham-City-6863</t>
@@ -7683,7 +7683,7 @@
     <t>Batwing Battle Over &lt;i&gt;Gotham City&lt;/i&gt;</t>
   </si>
   <si>
-    <t>6863</t>
+    <t>s_6863-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Big-Bentley-5828</t>
@@ -7692,7 +7692,7 @@
     <t>Big Bentley</t>
   </si>
   <si>
-    <t>5828</t>
+    <t>s_5828-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Big-Tractor-5647</t>
@@ -7701,7 +7701,7 @@
     <t>Big Tractor</t>
   </si>
   <si>
-    <t>5647</t>
+    <t>s_5647-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Bluetooth-Dongle-9847</t>
@@ -7710,7 +7710,7 @@
     <t>Bluetooth® Dongle</t>
   </si>
   <si>
-    <t>9847</t>
+    <t>s_9847-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Boulder-Bowling-70103</t>
@@ -7719,7 +7719,7 @@
     <t>Boulder Bowling</t>
   </si>
   <si>
-    <t>70103</t>
+    <t>s_70103-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Bounty-Hunter-Assault-Gunship-7930</t>
@@ -7728,7 +7728,7 @@
     <t>Bounty Hunter™ Assault Gunship</t>
   </si>
   <si>
-    <t>7930</t>
+    <t>s_7930-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Brown-Bear-s-River-41046</t>
@@ -7737,7 +7737,7 @@
     <t>Brown Bear's River</t>
   </si>
   <si>
-    <t>41046</t>
+    <t>s_41046-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Building-Plates-4632</t>
@@ -7746,7 +7746,7 @@
     <t>Building Plates</t>
   </si>
   <si>
-    <t>4632</t>
+    <t>s_4632-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Burj-Khalifa-21008</t>
@@ -7755,7 +7755,7 @@
     <t>Burj Khalifa</t>
   </si>
   <si>
-    <t>21008</t>
+    <t>s_21008-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Butterfly-Beauty-Shop-3187</t>
@@ -7764,7 +7764,7 @@
     <t>Butterfly Beauty Shop</t>
   </si>
   <si>
-    <t>3187</t>
+    <t>s_3187-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Captain-America-s-Avenging-Cycle-6865</t>
@@ -7773,7 +7773,7 @@
     <t>Captain America's™ Avenging Cycle</t>
   </si>
   <si>
-    <t>6865</t>
+    <t>s_6865-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Car-and-Caravan-4435</t>
@@ -7782,7 +7782,7 @@
     <t>Car and Caravan</t>
   </si>
   <si>
-    <t>4435</t>
+    <t>s_4435-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Car-Transporter-5684</t>
@@ -7791,7 +7791,7 @@
     <t>Car Transporter</t>
   </si>
   <si>
-    <t>5684</t>
+    <t>s_5684-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Cat-s-Playground-41018</t>
@@ -7800,7 +7800,7 @@
     <t>Cat's Playground</t>
   </si>
   <si>
-    <t>41018</t>
+    <t>s_41018-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Catwoman-Catcycle-City-Chase-6858</t>
@@ -7809,7 +7809,7 @@
     <t>Catwoman Catcycle City Chase</t>
   </si>
   <si>
-    <t>6858</t>
+    <t>s_6858-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Cement-Mixer-60018</t>
@@ -7818,7 +7818,7 @@
     <t>Cement Mixer</t>
   </si>
   <si>
-    <t>60018</t>
+    <t>s_60018-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/City-Garage-4207</t>
@@ -7827,7 +7827,7 @@
     <t>City Garage</t>
   </si>
   <si>
-    <t>4207</t>
+    <t>s_4207-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/City-Park-Caf%C3%A9-3061</t>
@@ -7836,7 +7836,7 @@
     <t>City Park Café</t>
   </si>
   <si>
-    <t>3061</t>
+    <t>s_3061-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Classic-Mater-8201</t>
@@ -7845,7 +7845,7 @@
     <t>Classic Mater</t>
   </si>
   <si>
-    <t>8201</t>
+    <t>s_8201-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Clone-Trooper-Battle-Pack-7913</t>
@@ -7854,7 +7854,7 @@
     <t>Clone Trooper™ Battle Pack</t>
   </si>
   <si>
-    <t>7913</t>
+    <t>s_7913-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Colby-City-Showdown-79109</t>
@@ -7863,7 +7863,7 @@
     <t>Colby City Showdown</t>
   </si>
   <si>
-    <t>79109</t>
+    <t>s_79109-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Cole-s-Tread-Assault-9444</t>
@@ -7872,7 +7872,7 @@
     <t>Cole’s Tread Assault</t>
   </si>
   <si>
-    <t>9444</t>
+    <t>s_9444-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Community-Minifigure-Set-9348</t>
@@ -7881,7 +7881,7 @@
     <t>Community Minifigure Set</t>
   </si>
   <si>
-    <t>9348</t>
+    <t>s_9348-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Constitution-Train-Chase-79111</t>
@@ -7890,7 +7890,7 @@
     <t>Constitution Train Chase</t>
   </si>
   <si>
-    <t>79111</t>
+    <t>s_79111-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Cool-Cruiser-5767</t>
@@ -7899,7 +7899,7 @@
     <t>Cool Cruiser</t>
   </si>
   <si>
-    <t>5767</t>
+    <t>s_5767-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Cragger-s-Command-Ship-70006</t>
@@ -7908,7 +7908,7 @@
     <t>Cragger’s Command Ship</t>
   </si>
   <si>
-    <t>70006</t>
+    <t>s_70006-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Crater-Creeper-70706</t>
@@ -7917,7 +7917,7 @@
     <t>Crater Creeper</t>
   </si>
   <si>
-    <t>70706</t>
+    <t>s_70706-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Crawley-s-Claw-Ripper-70001</t>
@@ -7926,7 +7926,7 @@
     <t>Crawley’s Claw Ripper</t>
   </si>
   <si>
-    <t>70001</t>
+    <t>s_70001-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Creative-Sorter-6784</t>
@@ -7935,7 +7935,7 @@
     <t>Creative Sorter</t>
   </si>
   <si>
-    <t>6784</t>
+    <t>s_6784-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Darth-Maul-s-Sith-Infiltrator-7961</t>
@@ -7944,13 +7944,13 @@
     <t>Darth Maul’s Sith Infiltrator™</t>
   </si>
   <si>
-    <t>7961</t>
+    <t>s_7961-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Deluxe-Train-Set-5609</t>
   </si>
   <si>
-    <t>5609</t>
+    <t>s_5609-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Desert-Skiff-9496</t>
@@ -7959,7 +7959,7 @@
     <t>Desert Skiff™</t>
   </si>
   <si>
-    <t>9496</t>
+    <t>s_9496-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Dino-Defense-HQ-5887</t>
@@ -7968,7 +7968,7 @@
     <t>Dino Defense HQ</t>
   </si>
   <si>
-    <t>5887</t>
+    <t>s_5887-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Diagon-Alley-10217</t>
@@ -7977,7 +7977,7 @@
     <t>Diagon Alley™</t>
   </si>
   <si>
-    <t>10217</t>
+    <t>s_10217-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Dirt-Bike-Transporter-4433</t>
@@ -7986,7 +7986,7 @@
     <t>Dirt Bike Transporter</t>
   </si>
   <si>
-    <t>4433</t>
+    <t>s_4433-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Downtown-Bakery-41006</t>
@@ -7995,7 +7995,7 @@
     <t>Downtown Bakery</t>
   </si>
   <si>
-    <t>41006</t>
+    <t>s_41006-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Droid-Escape-9490</t>
@@ -8004,7 +8004,7 @@
     <t>Droid™ Escape</t>
   </si>
   <si>
-    <t>9490</t>
+    <t>s_9490-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Dune-Hopper-5763</t>
@@ -8013,7 +8013,7 @@
     <t>Dune Hopper</t>
   </si>
   <si>
-    <t>5763</t>
+    <t>s_5763-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Eglor-s-Twin-Bike-70007</t>
@@ -8022,7 +8022,7 @@
     <t>Eglor's Twin Bike</t>
   </si>
   <si>
-    <t>70007</t>
+    <t>s_70007-1</t>
   </si>
   <si>
     <t>Price $24.99SalePrice $12.48</t>
@@ -8034,7 +8034,7 @@
     <t>Elite Clone Trooper™ &amp; Commando Droid™ Battle Pack</t>
   </si>
   <si>
-    <t>9488</t>
+    <t>s_9488-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Emma-s-Fashion-Design-Studio-3936</t>
@@ -8043,7 +8043,7 @@
     <t>Emma’s Fashion Design Studio</t>
   </si>
   <si>
-    <t>3936</t>
+    <t>s_3936-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Emma-s-Horse-Trailer-3186</t>
@@ -8052,7 +8052,7 @@
     <t>Emma's Horse Trailer</t>
   </si>
   <si>
-    <t>3186</t>
+    <t>s_3186-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Emma-s-Karate-Class-41002</t>
@@ -8061,7 +8061,7 @@
     <t>Emma's Karate Class</t>
   </si>
   <si>
-    <t>41002</t>
+    <t>s_41002-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Emma-s-Splash-Pool-3931</t>
@@ -8070,7 +8070,7 @@
     <t>Emma’s Splash Pool</t>
   </si>
   <si>
-    <t>3931</t>
+    <t>s_3931-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Empire-State-Building-21002</t>
@@ -8079,7 +8079,7 @@
     <t>Empire State Building</t>
   </si>
   <si>
-    <t>21002</t>
+    <t>s_21002-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Endor-Rebel-Trooper-Imperial-Trooper-Battle-Pack-9489</t>
@@ -8088,7 +8088,7 @@
     <t>Endor™ Rebel Trooper™ &amp; Imperial Trooper™ Battle Pack</t>
   </si>
   <si>
-    <t>9489</t>
+    <t>s_9489-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Eris-Eagle-Interceptor-70003</t>
@@ -8097,7 +8097,7 @@
     <t>Eris’ Eagle Interceptor</t>
   </si>
   <si>
-    <t>70003</t>
+    <t>s_70003-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/EV3-Cable-Pack-45514</t>
@@ -8106,7 +8106,7 @@
     <t>EV3 Cable Pack</t>
   </si>
   <si>
-    <t>45514</t>
+    <t>s_45514-1</t>
   </si>
   <si>
     <t>Out of stock, expected ship date 26 Nov 2014</t>
@@ -8118,7 +8118,7 @@
     <t>&lt;p&gt;EV3 Gyro Sensor&lt;/p&gt;</t>
   </si>
   <si>
-    <t>45505</t>
+    <t>s_45505-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/EV3-Medium-Servo-Motor-45503</t>
@@ -8127,7 +8127,7 @@
     <t>&lt;p&gt;EV3 Medium Servo Motor&lt;/p&gt;</t>
   </si>
   <si>
-    <t>45503</t>
+    <t>s_45503-1</t>
   </si>
   <si>
     <t>Out of stock, expected ship date 31 Dec 2014</t>
@@ -8139,7 +8139,7 @@
     <t>&lt;p&gt;EV3 Large Servo Motor&lt;/p&gt;</t>
   </si>
   <si>
-    <t>45502</t>
+    <t>s_45502-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Family-House-31012</t>
@@ -8148,7 +8148,7 @@
     <t>Family House</t>
   </si>
   <si>
-    <t>31012</t>
+    <t>s_31012-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fangpyre-Truck-Ambush-9445</t>
@@ -8157,7 +8157,7 @@
     <t>Fangpyre Truck Ambush</t>
   </si>
   <si>
-    <t>9445</t>
+    <t>s_9445-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Farnsworth-House-21009</t>
@@ -8166,7 +8166,7 @@
     <t>Farnsworth House™</t>
   </si>
   <si>
-    <t>21009</t>
+    <t>s_21009-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fawn-s-Forest-41023</t>
@@ -8175,7 +8175,7 @@
     <t>Fawn’s Forest</t>
   </si>
   <si>
-    <t>41023</t>
+    <t>s_41023-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Finn-McMissile-9480</t>
@@ -8184,7 +8184,7 @@
     <t>Finn McMissile</t>
   </si>
   <si>
-    <t>9480</t>
+    <t>s_9480-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-ATV-4427</t>
@@ -8193,7 +8193,7 @@
     <t>Fire ATV</t>
   </si>
   <si>
-    <t>4427</t>
+    <t>s_4427-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-Plane-4209</t>
@@ -8202,7 +8202,7 @@
     <t>Fire Plane</t>
   </si>
   <si>
-    <t>4209</t>
+    <t>s_4209-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-Temple-2507</t>
@@ -8211,13 +8211,13 @@
     <t>Fire Temple</t>
   </si>
   <si>
-    <t>2507</t>
+    <t>s_2507-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-Truck-5682</t>
   </si>
   <si>
-    <t>5682</t>
+    <t>s_5682-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fishing-Boat-4642</t>
@@ -8226,7 +8226,7 @@
     <t>Fishing Boat</t>
   </si>
   <si>
-    <t>4642</t>
+    <t>s_4642-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Flo-s-V8-Caf%C3%A9-8487</t>
@@ -8235,7 +8235,7 @@
     <t>Flo’s V8 Café</t>
   </si>
   <si>
-    <t>8487</t>
+    <t>s_8487-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Forest-Police-Station-4440</t>
@@ -8244,7 +8244,7 @@
     <t>Forest Police Station</t>
   </si>
   <si>
-    <t>4440</t>
+    <t>s_4440-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Front-Loader-5650</t>
@@ -8253,7 +8253,7 @@
     <t>Front Loader</t>
   </si>
   <si>
-    <t>5650</t>
+    <t>s_5650-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Francesco-Bernoulli-9478</t>
@@ -8262,7 +8262,7 @@
     <t>Francesco Bernoulli</t>
   </si>
   <si>
-    <t>9478</t>
+    <t>s_9478-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fun-with-Bricks-4627</t>
@@ -8271,7 +8271,7 @@
     <t>Fun with Bricks</t>
   </si>
   <si>
-    <t>4627</t>
+    <t>s_4627-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fun-with-Vehicles-4635</t>
@@ -8280,13 +8280,13 @@
     <t>Fun with Vehicles</t>
   </si>
   <si>
-    <t>4635</t>
+    <t>s_4635-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Garbage-Truck-4432</t>
   </si>
   <si>
-    <t>4432</t>
+    <t>s_4432-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Garmatron-70504</t>
@@ -8295,7 +8295,7 @@
     <t>Garmatron</t>
   </si>
   <si>
-    <t>70504</t>
+    <t>s_70504-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Geonosian-Starfighter-7959</t>
@@ -8304,7 +8304,7 @@
     <t>Geonosian Starfighter™</t>
   </si>
   <si>
-    <t>7959</t>
+    <t>s_7959-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Geonosian-Cannon-9491</t>
@@ -8313,7 +8313,7 @@
     <t>Geonosian™ Cannon</t>
   </si>
   <si>
-    <t>9491</t>
+    <t>s_9491-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Golden-Ninja-Key-Chain-850622</t>
@@ -8331,7 +8331,7 @@
     <t>Gold Leader’s Y-Wing Starfighter™</t>
   </si>
   <si>
-    <t>9495</t>
+    <t>s_9495-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Gorzan-Kid-s-Minifigure-Link-Watch-5003257</t>
@@ -8349,7 +8349,7 @@
     <t>Gorzan's Gorilla Striker</t>
   </si>
   <si>
-    <t>70008</t>
+    <t>s_70008-1</t>
   </si>
   <si>
     <t>Price $49.99SalePrice $24.98</t>
@@ -8361,7 +8361,7 @@
     <t>Grow Caterpillar Grow!</t>
   </si>
   <si>
-    <t>6758</t>
+    <t>s_6758-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Gungan-Sub-9499</t>
@@ -8370,7 +8370,7 @@
     <t>Gungan Sub™</t>
   </si>
   <si>
-    <t>9499</t>
+    <t>s_9499-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Hagrid-s-Hut-4738</t>
@@ -8379,7 +8379,7 @@
     <t>Hagrid’s Hut</t>
   </si>
   <si>
-    <t>4738</t>
+    <t>s_4738-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Harbor-4645</t>
@@ -8388,7 +8388,7 @@
     <t>Harbor</t>
   </si>
   <si>
-    <t>4645</t>
+    <t>s_4645-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Hayabusa-21101</t>
@@ -8397,7 +8397,7 @@
     <t>Hayabusa</t>
   </si>
   <si>
-    <t>21101</t>
+    <t>s_21101-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Heartlake-Dog-Show-3942</t>
@@ -8406,7 +8406,7 @@
     <t>Heartlake Dog Show</t>
   </si>
   <si>
-    <t>3942</t>
+    <t>s_3942-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Heartlake-Stables-3189</t>
@@ -8415,7 +8415,7 @@
     <t>Heartlake Stables</t>
   </si>
   <si>
-    <t>3189</t>
+    <t>s_3189-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Heartlake-Vet-3188</t>
@@ -8424,7 +8424,7 @@
     <t>Heartlake Vet</t>
   </si>
   <si>
-    <t>3188</t>
+    <t>s_3188-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Heavy-Lift-Helicopter-4439</t>
@@ -8433,7 +8433,7 @@
     <t>Heavy-Lift Helicopter</t>
   </si>
   <si>
-    <t>4439</t>
+    <t>s_4439-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Helicopter-9396</t>
@@ -8442,7 +8442,7 @@
     <t>Helicopter</t>
   </si>
   <si>
-    <t>9396</t>
+    <t>s_9396-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Hedgehog-s-Hideaway-41020</t>
@@ -8451,7 +8451,7 @@
     <t>Hedgehog's Hideaway</t>
   </si>
   <si>
-    <t>41020</t>
+    <t>s_41020-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Helicopter-Rescue-4429</t>
@@ -8460,7 +8460,7 @@
     <t>Helicopter Rescue</t>
   </si>
   <si>
-    <t>4429</t>
+    <t>s_4429-1</t>
   </si>
   <si>
     <t>Price $59.99SalePrice $29.98</t>
@@ -8472,7 +8472,7 @@
     <t>Highway Pickup</t>
   </si>
   <si>
-    <t>7347</t>
+    <t>s_7347-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Hogwarts-4867</t>
@@ -8481,7 +8481,7 @@
     <t>Hogwarts™</t>
   </si>
   <si>
-    <t>4867</t>
+    <t>s_4867-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Hogwarts-Castle-4842</t>
@@ -8490,7 +8490,7 @@
     <t>Hogwarts™ Castle</t>
   </si>
   <si>
-    <t>4842</t>
+    <t>s_4842-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Hulk-s-Helicarrier-Breakout-6868</t>
@@ -8499,7 +8499,7 @@
     <t>Hulk's™ Helicarrier Breakout</t>
   </si>
   <si>
-    <t>6868</t>
+    <t>s_6868-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Imperial-Shuttle-10212</t>
@@ -8508,7 +8508,7 @@
     <t>Imperial Shuttle™</t>
   </si>
   <si>
-    <t>10212</t>
+    <t>s_10212-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Imperial-V-wing-Starfighter-7915</t>
@@ -8517,7 +8517,7 @@
     <t>Imperial V-wing Starfighter™</t>
   </si>
   <si>
-    <t>7915</t>
+    <t>s_7915-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ivan-Mater-9479</t>
@@ -8526,7 +8526,7 @@
     <t>Ivan Mater</t>
   </si>
   <si>
-    <t>9479</t>
+    <t>s_9479-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jay-s-Storm-Fighter-9442</t>
@@ -8535,7 +8535,7 @@
     <t>Jay’s Storm Fighter</t>
   </si>
   <si>
-    <t>9442</t>
+    <t>s_9442-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jedi-Starfighter-Kamino-75006</t>
@@ -8544,7 +8544,7 @@
     <t>&lt;i&gt;Jedi Starfighter™ &amp; Kamino&lt;/i&gt;™</t>
   </si>
   <si>
-    <t>75006</t>
+    <t>s_75006-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jeff-Gorvette-9481</t>
@@ -8553,7 +8553,7 @@
     <t>Jeff Gorvette</t>
   </si>
   <si>
-    <t>9481</t>
+    <t>s_9481-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Kai-s-Blade-Cycle-9441</t>
@@ -8562,7 +8562,7 @@
     <t>Kai’s Blade Cycle</t>
   </si>
   <si>
-    <t>9441</t>
+    <t>s_9441-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Keychain-Star-Lord-851006</t>
@@ -8580,7 +8580,7 @@
     <t>Laval’s Royal Fighter</t>
   </si>
   <si>
-    <t>70005</t>
+    <t>s_70005-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Airport-Building-Set-5933</t>
@@ -8589,7 +8589,7 @@
     <t>LEGO® Airport Building Set</t>
   </si>
   <si>
-    <t>5933</t>
+    <t>s_5933-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Batman-DC-Universe-Super-Heroes-Wii-U-Video-Game-5002774</t>
@@ -8628,13 +8628,13 @@
     <t>LEGO® City Advent Calendar</t>
   </si>
   <si>
-    <t>4428</t>
+    <t>s_4428-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-City-Advent-Calendar-60024</t>
   </si>
   <si>
-    <t>60024</t>
+    <t>s_60024-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-City-Truck-3221</t>
@@ -8643,7 +8643,7 @@
     <t>LEGO® City Truck</t>
   </si>
   <si>
-    <t>3221</t>
+    <t>s_3221-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-City-Undercover-The-Chase-Begins-Nintendo-3DS-Video-Game-5002420</t>
@@ -8739,7 +8739,7 @@
     <t>Deluxe Brick Box</t>
   </si>
   <si>
-    <t>5508</t>
+    <t>s_5508-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Doors-Windows-6117</t>
@@ -8748,7 +8748,7 @@
     <t>LEGO® Doors &amp; Windows</t>
   </si>
   <si>
-    <t>6117</t>
+    <t>s_6117-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-Brick-Box-4624</t>
@@ -8757,7 +8757,7 @@
     <t>LEGO® DUPLO® Brick Box</t>
   </si>
   <si>
-    <t>4624</t>
+    <t>s_4624-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-Basic-Bricks-Deluxe-6176</t>
@@ -8766,13 +8766,13 @@
     <t>LEGO® DUPLO® Basic Bricks Deluxe</t>
   </si>
   <si>
-    <t>6176</t>
+    <t>s_6176-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-Brick-Box-5416</t>
   </si>
   <si>
-    <t>5416</t>
+    <t>s_5416-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-Creative-Bucket-10555</t>
@@ -8781,7 +8781,7 @@
     <t>LEGO® DUPLO® Creative Bucket</t>
   </si>
   <si>
-    <t>10555</t>
+    <t>s_10555-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-Deluxe-Brick-Box-5507</t>
@@ -8790,7 +8790,7 @@
     <t>LEGO® DUPLO® Deluxe Brick Box</t>
   </si>
   <si>
-    <t>5507</t>
+    <t>s_5507-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-Curved-Rails-2735</t>
@@ -8799,7 +8799,7 @@
     <t>LEGO® DUPLO® Curved Rails</t>
   </si>
   <si>
-    <t>2735</t>
+    <t>s_2735-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-Large-Brick-Box-5506</t>
@@ -8808,7 +8808,7 @@
     <t>LEGO® DUPLO® Large Brick Box</t>
   </si>
   <si>
-    <t>5506</t>
+    <t>s_5506-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-Pink-Brick-Box-4623</t>
@@ -8817,7 +8817,7 @@
     <t>LEGO® DUPLO® Pink Brick Box</t>
   </si>
   <si>
-    <t>4623</t>
+    <t>s_4623-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-Play-with-Letters-Set-6051</t>
@@ -8826,7 +8826,7 @@
     <t>LEGO® DUPLO® Play with Letters Set</t>
   </si>
   <si>
-    <t>6051</t>
+    <t>s_6051-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-Play-with-Numbers-5497</t>
@@ -8835,7 +8835,7 @@
     <t>LEGO® DUPLO® Play with Numbers</t>
   </si>
   <si>
-    <t>5497</t>
+    <t>s_5497-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-DUPLO-Straight-Rails-2734</t>
@@ -8844,7 +8844,7 @@
     <t>LEGO® DUPLO® Straight Rails</t>
   </si>
   <si>
-    <t>2734</t>
+    <t>s_2734-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Eris-Key-Chain-850607</t>
@@ -8862,7 +8862,7 @@
     <t>LEGO® Farm Brick Box</t>
   </si>
   <si>
-    <t>4626</t>
+    <t>s_4626-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Friends-Advent-Calendar-3316</t>
@@ -8871,13 +8871,13 @@
     <t>LEGO® Friends Advent Calendar</t>
   </si>
   <si>
-    <t>3316</t>
+    <t>s_3316-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Friends-Advent-Calendar-41016</t>
   </si>
   <si>
-    <t>41016</t>
+    <t>s_41016-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Friends-Heartlake-City-Playmat-850596</t>
@@ -8967,7 +8967,7 @@
     <t>LEGO® Fun with Bricks</t>
   </si>
   <si>
-    <t>4628</t>
+    <t>s_4628-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Friends-Ultimate-Stickerbook-5002814</t>
@@ -8994,7 +8994,7 @@
     <t>LEGO® Large Brick Box</t>
   </si>
   <si>
-    <t>6166</t>
+    <t>s_6166-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Large-Pink-Brick-Box-5560</t>
@@ -9003,7 +9003,7 @@
     <t>LEGO® Large Pink Brick Box</t>
   </si>
   <si>
-    <t>5560</t>
+    <t>s_5560-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Legends-of-Chima-Cragger-s-Shield-850611</t>
@@ -9123,7 +9123,7 @@
     <t>LEGO® MINDSTORMS® EV3</t>
   </si>
   <si>
-    <t>31313</t>
+    <t>s_31313-1</t>
   </si>
   <si>
     <t>Price $349.99</t>
@@ -9138,7 +9138,7 @@
     <t>LEGO® MINDSTORMS® NXT 2.0</t>
   </si>
   <si>
-    <t>8547</t>
+    <t>s_8547-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-MINDSTORMS-NXT-IR-Receiver-2855040</t>
@@ -9147,7 +9147,7 @@
     <t>Infrared Receiver</t>
   </si>
   <si>
-    <t>2855040</t>
+    <t>s_2855040-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Minifigures-Series-10-71001</t>
@@ -9156,7 +9156,7 @@
     <t>LEGO® Minifigures Series 10</t>
   </si>
   <si>
-    <t>71001</t>
+    <t>s_71001-0</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Minifigures-Series-7-8831</t>
@@ -9165,7 +9165,7 @@
     <t>LEGO® Minifigures, Series 7</t>
   </si>
   <si>
-    <t>8831</t>
+    <t>s_8831-0</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Minifigures-Series-8-8833</t>
@@ -9174,7 +9174,7 @@
     <t>LEGO® Minifigures, Series 8</t>
   </si>
   <si>
-    <t>8833</t>
+    <t>s_8833-0</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Minifigures-Series-9-71000</t>
@@ -9183,7 +9183,7 @@
     <t>LEGO® Minifigures Series 9</t>
   </si>
   <si>
-    <t>71000</t>
+    <t>s_71000-0</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Minifigures-The-LEGO-Movie-Series-71004</t>
@@ -9192,7 +9192,7 @@
     <t>LEGO® Minifigures - The LEGO Movie Series</t>
   </si>
   <si>
-    <t>71004</t>
+    <t>s_71004-0</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Monster-Trucks-10655</t>
@@ -9201,7 +9201,7 @@
     <t>LEGO® Monster Trucks</t>
   </si>
   <si>
-    <t>10655</t>
+    <t>s_10655-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Ninjago-Brickmaster-Kit-Fight-the-Power-of-the-Snakes-5002772</t>
@@ -9255,7 +9255,7 @@
     <t>LEGO® Pink Brick Box</t>
   </si>
   <si>
-    <t>4625</t>
+    <t>s_4625-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Power-Functions-Transformer-Charger-10VDC-8887</t>
@@ -9264,7 +9264,7 @@
     <t>LEGO® Power Functions Transformer/Charger 10VDC</t>
   </si>
   <si>
-    <t>8887</t>
+    <t>s_8887-1</t>
   </si>
   <si>
     <t>Out of stock, expected ship date 30 Dec 2014</t>
@@ -9276,7 +9276,7 @@
     <t>LEGO® Road Construction Building Set</t>
   </si>
   <si>
-    <t>5930</t>
+    <t>s_5930-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Star-Wars-Advent-Calendar-75023</t>
@@ -9285,7 +9285,7 @@
     <t>LEGO® Star Wars™ Advent Calendar</t>
   </si>
   <si>
-    <t>75023</t>
+    <t>s_75023-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Star-Wars-Advent-Calendar-9509</t>
@@ -9294,7 +9294,7 @@
     <t>LEGO® &lt;i&gt;Star Wars&lt;/i&gt;™ Advent Calendar</t>
   </si>
   <si>
-    <t>9509</t>
+    <t>s_9509-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Star-Wars-Anakin-Skywalker-Minifigure-Watch-2856128</t>
@@ -9627,7 +9627,7 @@
     <t>LEGO® Wheels</t>
   </si>
   <si>
-    <t>6118</t>
+    <t>s_6118-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Worriz-Laval-Key-Chain-850609</t>
@@ -9645,7 +9645,7 @@
     <t>Lennox' Lion Attack</t>
   </si>
   <si>
-    <t>70002</t>
+    <t>s_70002-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Lightning-McQueen-5813</t>
@@ -9654,7 +9654,7 @@
     <t>Lightning McQueen</t>
   </si>
   <si>
-    <t>5813</t>
+    <t>s_5813-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Log-Cabin-5766</t>
@@ -9663,7 +9663,7 @@
     <t>Log Cabin</t>
   </si>
   <si>
-    <t>5766</t>
+    <t>s_5766-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Loki-s-Cosmic-Cube-Escape-6867</t>
@@ -9672,7 +9672,7 @@
     <t>Loki's™ Cosmic Cube Escape</t>
   </si>
   <si>
-    <t>6867</t>
+    <t>s_6867-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Luigi-s-Italian-Place-5818</t>
@@ -9681,7 +9681,7 @@
     <t>Luigi’s Italian Place</t>
   </si>
   <si>
-    <t>5818</t>
+    <t>s_5818-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Maersk-Train-10219</t>
@@ -9690,7 +9690,7 @@
     <t>Maersk Train</t>
   </si>
   <si>
-    <t>10219</t>
+    <t>s_10219-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Macaw-s-Fountain-41044</t>
@@ -9699,7 +9699,7 @@
     <t>Macaw's Fountain</t>
   </si>
   <si>
-    <t>41044</t>
+    <t>s_41044-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mandalorian-Battle-Pack-7914</t>
@@ -9708,7 +9708,7 @@
     <t>Mandalorian™ Battle Pack</t>
   </si>
   <si>
-    <t>7914</t>
+    <t>s_7914-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Marina-4644</t>
@@ -9717,7 +9717,7 @@
     <t>Marina</t>
   </si>
   <si>
-    <t>4644</t>
+    <t>s_4644-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Medieval-Market-Village-10193</t>
@@ -9726,7 +9726,7 @@
     <t>Medieval Market Village</t>
   </si>
   <si>
-    <t>10193</t>
+    <t>s_10193-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mercedes-Benz-Unimog-U-400-8110</t>
@@ -9735,7 +9735,7 @@
     <t>Mercedes-Benz Unimog U 400</t>
   </si>
   <si>
-    <t>8110</t>
+    <t>s_8110-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mia-s-Bedroom-3939</t>
@@ -9744,7 +9744,7 @@
     <t>Mia's Bedroom</t>
   </si>
   <si>
-    <t>3939</t>
+    <t>s_3939-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mia-s-Magic-Tricks-41001</t>
@@ -9753,7 +9753,7 @@
     <t>Mia's Magic Tricks</t>
   </si>
   <si>
-    <t>41001</t>
+    <t>s_41001-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mia-s-Puppy-House-3934</t>
@@ -9762,7 +9762,7 @@
     <t>Mia’s Puppy House</t>
   </si>
   <si>
-    <t>3934</t>
+    <t>s_3934-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mini-Digger-5761</t>
@@ -9771,7 +9771,7 @@
     <t>Mini Digger</t>
   </si>
   <si>
-    <t>5761</t>
+    <t>s_5761-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mini-Dumper-5865</t>
@@ -9780,7 +9780,7 @@
     <t>Mini Dumper</t>
   </si>
   <si>
-    <t>5865</t>
+    <t>s_5865-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mini-Plane-5762</t>
@@ -9789,7 +9789,7 @@
     <t>Mini Plane</t>
   </si>
   <si>
-    <t>5762</t>
+    <t>s_5762-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mini-Helicopter-5864</t>
@@ -9798,7 +9798,7 @@
     <t>Mini Helicopter</t>
   </si>
   <si>
-    <t>5864</t>
+    <t>s_5864-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mini-Skyflyer-31001</t>
@@ -9807,7 +9807,7 @@
     <t>Mini Skyflyer</t>
   </si>
   <si>
-    <t>31001</t>
+    <t>s_31001-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mini-Speeder-31000</t>
@@ -9816,7 +9816,7 @@
     <t>Mini Speeder</t>
   </si>
   <si>
-    <t>31000</t>
+    <t>s_31000-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mining-Truck-4202</t>
@@ -9825,13 +9825,13 @@
     <t>Mining Truck</t>
   </si>
   <si>
-    <t>4202</t>
+    <t>s_4202-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mobile-Police-Unit-7288</t>
   </si>
   <si>
-    <t>7288</t>
+    <t>s_7288-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Motorized-Excavator-8043</t>
@@ -9840,7 +9840,7 @@
     <t>Motorized Excavator</t>
   </si>
   <si>
-    <t>8043</t>
+    <t>s_8043-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/My-First-Build-4631</t>
@@ -9849,7 +9849,7 @@
     <t>My First Build</t>
   </si>
   <si>
-    <t>4631</t>
+    <t>s_4631-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/My-First-LEGO-DUPLO-Farm-6141</t>
@@ -9858,7 +9858,7 @@
     <t>My First LEGO® DUPLO® Farm</t>
   </si>
   <si>
-    <t>6141</t>
+    <t>s_6141-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/My-First-LEGO-DUPLO-Supermarket-6137</t>
@@ -9867,7 +9867,7 @@
     <t>My First LEGO® DUPLO® Supermarket</t>
   </si>
   <si>
-    <t>6137</t>
+    <t>s_6137-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/My-First-LEGO-Fire-Station-10661</t>
@@ -9876,7 +9876,7 @@
     <t>My First LEGO® Fire Station</t>
   </si>
   <si>
-    <t>10661</t>
+    <t>s_10661-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/My-First-LEGO-Set-10657</t>
@@ -9885,13 +9885,13 @@
     <t>My First LEGO® Set</t>
   </si>
   <si>
-    <t>10657</t>
+    <t>s_10657-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/My-First-LEGO-Set-5932</t>
   </si>
   <si>
-    <t>5932</t>
+    <t>s_5932-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Naboo-Starfighter-7877</t>
@@ -9900,7 +9900,7 @@
     <t>&lt;i&gt;Naboo&lt;/i&gt; Starfighter™</t>
   </si>
   <si>
-    <t>7877</t>
+    <t>s_7877-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Naboo-Starfighter-Naboo-9674</t>
@@ -9909,7 +9909,7 @@
     <t>Naboo Starfighter™ &amp; Naboo™</t>
   </si>
   <si>
-    <t>9674</t>
+    <t>s_9674-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Off-Road-Fire-Rescue-7942</t>
@@ -9918,7 +9918,7 @@
     <t>Off-Road Fire Rescue</t>
   </si>
   <si>
-    <t>7942</t>
+    <t>s_7942-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Offroad-Power-5893</t>
@@ -9927,7 +9927,7 @@
     <t>Offroad Power</t>
   </si>
   <si>
-    <t>5893</t>
+    <t>s_5893-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Oil-Rig-Escape-9486</t>
@@ -9936,7 +9936,7 @@
     <t>Oil Rig Escape</t>
   </si>
   <si>
-    <t>9486</t>
+    <t>s_9486-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Olivia-s-Beach-Buggy-41010</t>
@@ -9945,7 +9945,7 @@
     <t>Olivia’s Beach Buggy</t>
   </si>
   <si>
-    <t>41010</t>
+    <t>s_41010-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Olivia-s-Invention-Workshop-3933</t>
@@ -9954,7 +9954,7 @@
     <t>Olivia’s Invention Workshop</t>
   </si>
   <si>
-    <t>3933</t>
+    <t>s_3933-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Olivia-s-Newborn-Foal-41003</t>
@@ -9963,7 +9963,7 @@
     <t>Olivia's Newborn Foal</t>
   </si>
   <si>
-    <t>41003</t>
+    <t>s_41003-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Olivia-s-Tree-House-3065</t>
@@ -9972,7 +9972,7 @@
     <t>Olivia’s Tree House</t>
   </si>
   <si>
-    <t>3065</t>
+    <t>s_3065-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Orangutan-s-Banana-Tree-41045</t>
@@ -9981,7 +9981,7 @@
     <t>Orangutan's Banana Tree</t>
   </si>
   <si>
-    <t>41045</t>
+    <t>s_41045-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Panda-6173</t>
@@ -9990,7 +9990,7 @@
     <t>Panda</t>
   </si>
   <si>
-    <t>6173</t>
+    <t>s_6173-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Parrot-s-Perch-41024</t>
@@ -9999,7 +9999,7 @@
     <t>Parrot’s Perch</t>
   </si>
   <si>
-    <t>41024</t>
+    <t>s_41024-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Penguin-s-Playground-41043</t>
@@ -10008,7 +10008,7 @@
     <t>Penguin's Playground</t>
   </si>
   <si>
-    <t>41043</t>
+    <t>s_41043-1</t>
   </si>
   <si>
     <t>Price $3.99SalePrice $2.98</t>
@@ -10020,7 +10020,7 @@
     <t>Pick-up Tow Truck</t>
   </si>
   <si>
-    <t>9395</t>
+    <t>s_9395-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-Building-Set-4636</t>
@@ -10029,7 +10029,7 @@
     <t>Police Building Set</t>
   </si>
   <si>
-    <t>4636</t>
+    <t>s_4636-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-Dog-Van-4441</t>
@@ -10038,25 +10038,25 @@
     <t>Police Dog Van</t>
   </si>
   <si>
-    <t>4441</t>
+    <t>s_4441-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-Helicopter-7741</t>
   </si>
   <si>
-    <t>7741</t>
+    <t>s_7741-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-Station-5681</t>
   </si>
   <si>
-    <t>5681</t>
+    <t>s_5681-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-Station-7498</t>
   </si>
   <si>
-    <t>7498</t>
+    <t>s_7498-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-Truck-5680</t>
@@ -10065,7 +10065,7 @@
     <t>Police Truck</t>
   </si>
   <si>
-    <t>5680</t>
+    <t>s_5680-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Prisoner-Transport-7286</t>
@@ -10074,7 +10074,7 @@
     <t>Prisoner Transport</t>
   </si>
   <si>
-    <t>7286</t>
+    <t>s_7286-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Puppy-s-Playhouse-41025</t>
@@ -10083,7 +10083,7 @@
     <t>Puppy’s Playhouse</t>
   </si>
   <si>
-    <t>41025</t>
+    <t>s_41025-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Quidditch-Match-4737</t>
@@ -10092,7 +10092,7 @@
     <t>Quidditch Match</t>
   </si>
   <si>
-    <t>4737</t>
+    <t>s_4737-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Race-Day-6133</t>
@@ -10101,7 +10101,7 @@
     <t>Race Day</t>
   </si>
   <si>
-    <t>6133</t>
+    <t>s_6133-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Radiator-Springs-Lightning-McQueen-8200</t>
@@ -10110,7 +10110,7 @@
     <t>Radiator Springs Lightning McQueen</t>
   </si>
   <si>
-    <t>8200</t>
+    <t>s_8200-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Raptor-Chase-5884</t>
@@ -10119,7 +10119,7 @@
     <t>Raptor Chase</t>
   </si>
   <si>
-    <t>5884</t>
+    <t>s_5884-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Rattlecopter-9443</t>
@@ -10128,7 +10128,7 @@
     <t>Rattlecopter</t>
   </si>
   <si>
-    <t>9443</t>
+    <t>s_9443-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Razcal-s-Glider-70000</t>
@@ -10137,7 +10137,7 @@
     <t>Razcal’s Glider</t>
   </si>
   <si>
-    <t>70000</t>
+    <t>s_70000-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Red-Cargo-Train-3677</t>
@@ -10146,7 +10146,7 @@
     <t>Red Cargo Train</t>
   </si>
   <si>
-    <t>3677</t>
+    <t>s_3677-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Red-s-Water-Rescue-9484</t>
@@ -10155,7 +10155,7 @@
     <t>Red’s Water Rescue</t>
   </si>
   <si>
-    <t>9484</t>
+    <t>s_9484-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Razar-s-CHI-Raider-70012</t>
@@ -10164,7 +10164,7 @@
     <t>Razar’s CHI Raider</t>
   </si>
   <si>
-    <t>70012</t>
+    <t>s_70012-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Republic-Frigate-7964</t>
@@ -10173,7 +10173,7 @@
     <t>Republic Frigate™</t>
   </si>
   <si>
-    <t>7964</t>
+    <t>s_7964-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Republic-Assault-Ship-Coruscant-75007</t>
@@ -10182,7 +10182,7 @@
     <t>&lt;i&gt;Republic Assault Ship™ &amp; Coruscant&lt;/i&gt;™</t>
   </si>
   <si>
-    <t>75007</t>
+    <t>s_75007-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Republic-Striker-class-Starfighter-9497</t>
@@ -10191,7 +10191,7 @@
     <t>Republic Striker-class Starfighter™</t>
   </si>
   <si>
-    <t>9497</t>
+    <t>s_9497-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ring-of-Fire-70100</t>
@@ -10200,7 +10200,7 @@
     <t>Ring of Fire</t>
   </si>
   <si>
-    <t>70100</t>
+    <t>s_70100-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Robie-House-21010</t>
@@ -10209,7 +10209,7 @@
     <t>Robie™ House</t>
   </si>
   <si>
-    <t>21010</t>
+    <t>s_21010-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Rockefeller-Center-21007</t>
@@ -10218,7 +10218,7 @@
     <t>Rockefeller Center</t>
   </si>
   <si>
-    <t>21007</t>
+    <t>s_21007-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Rotor-Rescue-5866</t>
@@ -10227,7 +10227,7 @@
     <t>Rotor Rescue</t>
   </si>
   <si>
-    <t>5866</t>
+    <t>s_5866-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Saesee-Tiin-s-Jedi-Starfighter-9498</t>
@@ -10236,7 +10236,7 @@
     <t>Saesee Tiin's Jedi Starfighter™</t>
   </si>
   <si>
-    <t>9498</t>
+    <t>s_9498-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Safari-Building-Set-4637</t>
@@ -10245,7 +10245,7 @@
     <t>Safari Building Set</t>
   </si>
   <si>
-    <t>4637</t>
+    <t>s_4637-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Seaplane-3178</t>
@@ -10254,7 +10254,7 @@
     <t>Seaplane</t>
   </si>
   <si>
-    <t>3178</t>
+    <t>s_3178-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sebulba-s-Podracer-Tatooine-9675</t>
@@ -10263,7 +10263,7 @@
     <t>Sebulba’s Podracer™ &amp; Tatooine™</t>
   </si>
   <si>
-    <t>9675</t>
+    <t>s_9675-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Siddeley-Saves-the-Day-6134</t>
@@ -10272,7 +10272,7 @@
     <t>Siddeley Saves the Day</t>
   </si>
   <si>
-    <t>6134</t>
+    <t>s_6134-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sir-Fangar-Key-Chain-850909</t>
@@ -10290,7 +10290,7 @@
     <t>Sith™ &lt;i&gt;Fury&lt;/i&gt;-class Interceptor™</t>
   </si>
   <si>
-    <t>9500</t>
+    <t>s_9500-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sith-Nightspeeder-7957</t>
@@ -10299,7 +10299,7 @@
     <t>&lt;i&gt;Sith&lt;/i&gt; Nightspeeder™</t>
   </si>
   <si>
-    <t>7957</t>
+    <t>s_7957-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Skull-Truck-2506</t>
@@ -10308,7 +10308,7 @@
     <t>Skull Truck</t>
   </si>
   <si>
-    <t>2506</t>
+    <t>s_2506-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sleeping-Beauty-s-Room-6151</t>
@@ -10317,7 +10317,7 @@
     <t>Sleeping Beauty’s Room</t>
   </si>
   <si>
-    <t>6151</t>
+    <t>s_6151-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Small-Car-3177</t>
@@ -10326,7 +10326,7 @@
     <t>Small Car</t>
   </si>
   <si>
-    <t>3177</t>
+    <t>s_3177-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Snow-White-s-Cottage-6152</t>
@@ -10335,7 +10335,7 @@
     <t>Snow White’s Cottage</t>
   </si>
   <si>
-    <t>6152</t>
+    <t>s_6152-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Solomon-R-Guggenheim-Museum-21004</t>
@@ -10344,7 +10344,7 @@
     <t>Solomon R. Guggenheim Museum®</t>
   </si>
   <si>
-    <t>21004</t>
+    <t>s_21004-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Space-Center-3368</t>
@@ -10353,7 +10353,7 @@
     <t>Space Center</t>
   </si>
   <si>
-    <t>3368</t>
+    <t>s_3368-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Space-Moon-Buggy-3365</t>
@@ -10362,7 +10362,7 @@
     <t>Space Moon Buggy</t>
   </si>
   <si>
-    <t>3365</t>
+    <t>s_3365-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Space-Shuttle-3367</t>
@@ -10371,7 +10371,7 @@
     <t>Space Shuttle</t>
   </si>
   <si>
-    <t>3367</t>
+    <t>s_3367-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Space-Swarmer-70700</t>
@@ -10380,7 +10380,7 @@
     <t>Space Swarmer</t>
   </si>
   <si>
-    <t>70700</t>
+    <t>s_70700-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Speed-Boat-4641</t>
@@ -10389,7 +10389,7 @@
     <t>Speed Boat</t>
   </si>
   <si>
-    <t>4641</t>
+    <t>s_4641-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Stagecoach-Escape-79108</t>
@@ -10398,7 +10398,7 @@
     <t>Stagecoach Escape</t>
   </si>
   <si>
-    <t>79108</t>
+    <t>s_79108-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Star-Slicer-70703</t>
@@ -10407,7 +10407,7 @@
     <t>Star Slicer</t>
   </si>
   <si>
-    <t>70703</t>
+    <t>s_70703-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Stephanie-s-Beach-House-41037</t>
@@ -10416,7 +10416,7 @@
     <t>Stephanie's Beach House</t>
   </si>
   <si>
-    <t>41037</t>
+    <t>s_41037-1</t>
   </si>
   <si>
     <t>Out of stock, expected ship date 23 Nov 2014</t>
@@ -10428,7 +10428,7 @@
     <t>Stephanie’s Pet Patrol</t>
   </si>
   <si>
-    <t>3935</t>
+    <t>s_3935-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Stephanie-s-Cool-Convertible-3183</t>
@@ -10437,7 +10437,7 @@
     <t>Stephanie’s Cool Convertible</t>
   </si>
   <si>
-    <t>3183</t>
+    <t>s_3183-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Stephanie-s-Soccer-Practice-41011</t>
@@ -10446,7 +10446,7 @@
     <t>Stephanie's Soccer Practice</t>
   </si>
   <si>
-    <t>41011</t>
+    <t>s_41011-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Stephanie-s-Outdoor-Bakery-3930</t>
@@ -10455,7 +10455,7 @@
     <t>Stephanie’s Outdoor Bakery</t>
   </si>
   <si>
-    <t>3930</t>
+    <t>s_3930-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Street-Speeder-6743</t>
@@ -10464,7 +10464,7 @@
     <t>Street Speeder</t>
   </si>
   <si>
-    <t>6743</t>
+    <t>s_6743-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Summer-Riding-Camp-3185</t>
@@ -10473,7 +10473,7 @@
     <t>Summer Riding Camp</t>
   </si>
   <si>
-    <t>3185</t>
+    <t>s_3185-1</t>
   </si>
   <si>
     <t>Price $99.99SalePrice $49.98</t>
@@ -10485,7 +10485,7 @@
     <t>Sungnyemun</t>
   </si>
   <si>
-    <t>21016</t>
+    <t>s_21016-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Swarm-Interceptor-70701</t>
@@ -10494,7 +10494,7 @@
     <t>Swarm Interceptor</t>
   </si>
   <si>
-    <t>70701</t>
+    <t>s_70701-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/T-6-Jedi-Shuttle-7931</t>
@@ -10503,7 +10503,7 @@
     <t>T-6 Jedi Shuttle™</t>
   </si>
   <si>
-    <t>7931</t>
+    <t>s_7931-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/T-Rex-Hunter-5886</t>
@@ -10512,7 +10512,7 @@
     <t>T-Rex Hunter</t>
   </si>
   <si>
-    <t>5886</t>
+    <t>s_5886-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Target-Practice-70101</t>
@@ -10521,7 +10521,7 @@
     <t>Target Practice</t>
   </si>
   <si>
-    <t>70101</t>
+    <t>s_70101-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Thanksgiving-Feast-40056</t>
@@ -10530,7 +10530,7 @@
     <t>Thanksgiving Feast</t>
   </si>
   <si>
-    <t>40056</t>
+    <t>s_40056-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Battle-of-Naboo-7929</t>
@@ -10539,7 +10539,7 @@
     <t>The Battle of Naboo™</t>
   </si>
   <si>
-    <t>7929</t>
+    <t>s_7929-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Forbidden-Forest-4865</t>
@@ -10548,7 +10548,7 @@
     <t>The Forbidden Forest</t>
   </si>
   <si>
-    <t>4865</t>
+    <t>s_4865-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Knight-Bus-4866</t>
@@ -10557,7 +10557,7 @@
     <t>The Knight Bus</t>
   </si>
   <si>
-    <t>4866</t>
+    <t>s_4866-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/THE-LEGO-MOVIE-Bad-Cop-Minifigure-Link-Watch-5003023</t>
@@ -10677,7 +10677,7 @@
     <t>The Lion CHI Temple</t>
   </si>
   <si>
-    <t>70010</t>
+    <t>s_70010-1</t>
   </si>
   <si>
     <t>Price $119.99SalePrice $59.98</t>
@@ -10689,7 +10689,7 @@
     <t>The &lt;i&gt;Malevolence&lt;/i&gt;™</t>
   </si>
   <si>
-    <t>9515</t>
+    <t>s_9515-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Pit-Stop-5829</t>
@@ -10698,7 +10698,7 @@
     <t>The Pit Stop</t>
   </si>
   <si>
-    <t>5829</t>
+    <t>s_5829-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/TIE-Bomber-Asteroid-Field-75008</t>
@@ -10707,7 +10707,7 @@
     <t>TIE Bomber™ &amp; Asteroid Field</t>
   </si>
   <si>
-    <t>75008</t>
+    <t>s_75008-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/TIE-Fighter-9492</t>
@@ -10716,7 +10716,7 @@
     <t>TIE Fighter™</t>
   </si>
   <si>
-    <t>9492</t>
+    <t>s_9492-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/TIE-Interceptor-Death-Star-9676</t>
@@ -10725,7 +10725,7 @@
     <t>TIE Interceptor™ &amp; Death Star™</t>
   </si>
   <si>
-    <t>9676</t>
+    <t>s_9676-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Tipper-Truck-4434</t>
@@ -10734,7 +10734,7 @@
     <t>Tipper Truck</t>
   </si>
   <si>
-    <t>4434</t>
+    <t>s_4434-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Tiger-s-Beautiful-Temple-41042</t>
@@ -10743,7 +10743,7 @@
     <t>Tiger's Beautiful Temple</t>
   </si>
   <si>
-    <t>41042</t>
+    <t>s_41042-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Tokyo-Racing-5819</t>
@@ -10752,7 +10752,7 @@
     <t>Tokyo Racing</t>
   </si>
   <si>
-    <t>5819</t>
+    <t>s_5819-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Tower-Takedown-5883</t>
@@ -10761,7 +10761,7 @@
     <t>Tower Takedown</t>
   </si>
   <si>
-    <t>5883</t>
+    <t>s_5883-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Tracked-Crane-9391</t>
@@ -10770,13 +10770,13 @@
     <t>Tracked Crane</t>
   </si>
   <si>
-    <t>9391</t>
+    <t>s_9391-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Train-Station-7937</t>
   </si>
   <si>
-    <t>7937</t>
+    <t>s_7937-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Transport-Truck-5765</t>
@@ -10785,7 +10785,7 @@
     <t>Transport Truck</t>
   </si>
   <si>
-    <t>5765</t>
+    <t>s_5765-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Triceratops-Trapper-5885</t>
@@ -10794,7 +10794,7 @@
     <t>Triceratops Trapper</t>
   </si>
   <si>
-    <t>5885</t>
+    <t>s_5885-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Turtle-s-Little-Oasis-41019</t>
@@ -10803,7 +10803,7 @@
     <t>Turtle's Little Oasis</t>
   </si>
   <si>
-    <t>41019</t>
+    <t>s_41019-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Turtle-s-Little-Paradise-41041</t>
@@ -10812,7 +10812,7 @@
     <t>Turtle's Little Paradise</t>
   </si>
   <si>
-    <t>41041</t>
+    <t>s_41041-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ultimate-Race-Set-9485</t>
@@ -10821,7 +10821,7 @@
     <t>Ultimate Race Set</t>
   </si>
   <si>
-    <t>9485</t>
+    <t>s_9485-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ultimate-Speedor-Tournament-70115</t>
@@ -10830,7 +10830,7 @@
     <t>Ultimate Speedor Tournament</t>
   </si>
   <si>
-    <t>70115</t>
+    <t>s_70115-1</t>
   </si>
   <si>
     <t>78</t>
@@ -10842,7 +10842,7 @@
     <t>Venomari Shrine</t>
   </si>
   <si>
-    <t>9440</t>
+    <t>s_9440-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Vet-5685</t>
@@ -10851,7 +10851,7 @@
     <t>Vet</t>
   </si>
   <si>
-    <t>5685</t>
+    <t>s_5685-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Wakz-Pack-Tracker-70004</t>
@@ -10860,7 +10860,7 @@
     <t>Wakz' Pack Tracker</t>
   </si>
   <si>
-    <t>70004</t>
+    <t>s_70004-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Warp-Stinger-70702</t>
@@ -10869,7 +10869,7 @@
     <t>Warp Stinger</t>
   </si>
   <si>
-    <t>70702</t>
+    <t>s_70702-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Warrior-bike-70501</t>
@@ -10878,7 +10878,7 @@
     <t>Warrior Bike</t>
   </si>
   <si>
-    <t>70501</t>
+    <t>s_70501-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Wheels-Set-9387</t>
@@ -10887,7 +10887,7 @@
     <t>Wheels Set</t>
   </si>
   <si>
-    <t>9387</t>
+    <t>s_9387-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Weapon-Pack-9591</t>
@@ -10896,7 +10896,7 @@
     <t>Weapon Pack</t>
   </si>
   <si>
-    <t>9591</t>
+    <t>s_9591-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Winnie-the-Pooh-s-Picnic-5945</t>
@@ -10905,7 +10905,7 @@
     <t>Winnie the Pooh’s Picnic</t>
   </si>
   <si>
-    <t>5945</t>
+    <t>s_5945-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Willis-Tower-21000</t>
@@ -10914,7 +10914,7 @@
     <t>Willis Tower</t>
   </si>
   <si>
-    <t>21000</t>
+    <t>s_21000-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Winter-Village-Bakery-10216</t>
@@ -10923,7 +10923,7 @@
     <t>Winter Village Bakery</t>
   </si>
   <si>
-    <t>10216</t>
+    <t>s_10216-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Wolverine-Magnet-851007</t>
@@ -10941,7 +10941,7 @@
     <t>Wolverine's™ Chopper Showdown</t>
   </si>
   <si>
-    <t>6866</t>
+    <t>s_6866-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Worriz-Combat-Lair-70009</t>
@@ -10950,7 +10950,7 @@
     <t>Worriz' Combat Lair</t>
   </si>
   <si>
-    <t>70009</t>
+    <t>s_70009-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Worriz-Kid-s-Minifigure-Link-Watch-5003258</t>
@@ -10968,7 +10968,7 @@
     <t>X-wing Starfighter™ &amp; Yavin 4™</t>
   </si>
   <si>
-    <t>9677</t>
+    <t>s_9677-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Zoo-Bus-10502</t>
@@ -10977,7 +10977,7 @@
     <t>Zoo Bus</t>
   </si>
   <si>
-    <t>10502</t>
+    <t>s_10502-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Zoo-Truck-6172</t>
@@ -10986,7 +10986,7 @@
     <t>Zoo Truck</t>
   </si>
   <si>
-    <t>6172</t>
+    <t>s_6172-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Zoo-Friends-10501</t>
@@ -10995,7 +10995,7 @@
     <t>Zoo Friends</t>
   </si>
   <si>
-    <t>10501</t>
+    <t>s_10501-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Notebook-with-Studs-850686</t>
@@ -11013,7 +11013,7 @@
     <t>Accelerometer Sensor</t>
   </si>
   <si>
-    <t>2852724</t>
+    <t>s_2852724-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Alien-Striker-7049</t>
@@ -11022,7 +11022,7 @@
     <t>Alien Striker</t>
   </si>
   <si>
-    <t>7049</t>
+    <t>s_7049-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/AQUAGON-44013</t>
@@ -11031,7 +11031,7 @@
     <t>AQUAGON</t>
   </si>
   <si>
-    <t>44013</t>
+    <t>s_44013-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Attack-on-Weathertop-9472</t>
@@ -11040,7 +11040,7 @@
     <t>Attack on Weathertop™</t>
   </si>
   <si>
-    <t>9472</t>
+    <t>s_9472-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/BALK-41517</t>
@@ -11049,7 +11049,7 @@
     <t>BALK</t>
   </si>
   <si>
-    <t>41517</t>
+    <t>s_41517-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Banana-Bash-70136</t>
@@ -11058,7 +11058,7 @@
     <t>Banana Bash</t>
   </si>
   <si>
-    <t>70136</t>
+    <t>s_70136-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Bat-Strike-70137</t>
@@ -11067,7 +11067,7 @@
     <t>Bat Strike</t>
   </si>
   <si>
-    <t>70137</t>
+    <t>s_70137-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Batman-4526</t>
@@ -11076,7 +11076,7 @@
     <t>Batman™</t>
   </si>
   <si>
-    <t>4526</t>
+    <t>s_4526-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/BLACK-PHANTOM-6203</t>
@@ -11085,7 +11085,7 @@
     <t>BLACK PHANTOM</t>
   </si>
   <si>
-    <t>6203</t>
+    <t>s_6203-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Blue-Roadster-6913</t>
@@ -11094,7 +11094,7 @@
     <t>Blue Roadster</t>
   </si>
   <si>
-    <t>6913</t>
+    <t>s_6913-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/BREEZ-44006</t>
@@ -11103,13 +11103,13 @@
     <t>BREEZ</t>
   </si>
   <si>
-    <t>44006</t>
+    <t>s_44006-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/BREEZ-6227</t>
   </si>
   <si>
-    <t>6227</t>
+    <t>s_6227-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/BRUIZER-44005</t>
@@ -11118,7 +11118,7 @@
     <t>BRUIZER</t>
   </si>
   <si>
-    <t>44005</t>
+    <t>s_44005-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/BULK-44004</t>
@@ -11127,13 +11127,13 @@
     <t>BULK</t>
   </si>
   <si>
-    <t>44004</t>
+    <t>s_44004-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/BULK-6223</t>
   </si>
   <si>
-    <t>6223</t>
+    <t>s_6223-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Bytar-9556</t>
@@ -11142,7 +11142,7 @@
     <t>Bytar</t>
   </si>
   <si>
-    <t>9556</t>
+    <t>s_9556-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Captain-America-4597</t>
@@ -11151,7 +11151,7 @@
     <t>Captain America™</t>
   </si>
   <si>
-    <t>4597</t>
+    <t>s_4597-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Cavalry-Builder-Set-79106</t>
@@ -11160,7 +11160,7 @@
     <t>Cavalry Builder Set</t>
   </si>
   <si>
-    <t>79106</t>
+    <t>s_79106-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/CHI-Cragger-70203</t>
@@ -11169,7 +11169,7 @@
     <t>CHI Cragger</t>
   </si>
   <si>
-    <t>70203</t>
+    <t>s_70203-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/CHI-Gorzan-70202</t>
@@ -11178,7 +11178,7 @@
     <t>CHI Gorzan</t>
   </si>
   <si>
-    <t>70202</t>
+    <t>s_70202-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/CHI-Eris-70201</t>
@@ -11187,7 +11187,7 @@
     <t>CHI Eris</t>
   </si>
   <si>
-    <t>70201</t>
+    <t>s_70201-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/CHI-Laval-70200</t>
@@ -11196,7 +11196,7 @@
     <t>CHI Laval</t>
   </si>
   <si>
-    <t>70200</t>
+    <t>s_70200-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/CHI-Razar-70205</t>
@@ -11205,7 +11205,7 @@
     <t>CHI Razar</t>
   </si>
   <si>
-    <t>70205</t>
+    <t>s_70205-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/CHI-Worriz-70204</t>
@@ -11214,7 +11214,7 @@
     <t>CHI Worriz</t>
   </si>
   <si>
-    <t>70204</t>
+    <t>s_70204-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/CHOMLY-41512</t>
@@ -11223,7 +11223,7 @@
     <t>CHOMLY</t>
   </si>
   <si>
-    <t>41512</t>
+    <t>s_41512-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Cole-DX-2170</t>
@@ -11232,7 +11232,7 @@
     <t>Cole DX</t>
   </si>
   <si>
-    <t>2170</t>
+    <t>s_2170-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Comanche-Camp-79107</t>
@@ -11241,7 +11241,7 @@
     <t>Comanche Camp</t>
   </si>
   <si>
-    <t>79107</t>
+    <t>s_79107-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Connector-Cables-for-LEGO-MINDSTORMS-NXT-8529</t>
@@ -11250,7 +11250,7 @@
     <t>Connector Cables for LEGO® MINDSTORMS® NXT</t>
   </si>
   <si>
-    <t>8529</t>
+    <t>s_8529-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Converter-Cables-for-LEGO-MINDSTORMS-NXT-8528</t>
@@ -11259,7 +11259,7 @@
     <t>Converter Cables for LEGO® MINDSTORMS® NXT</t>
   </si>
   <si>
-    <t>8528</t>
+    <t>s_8528-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/CORE-HUNTER-6222</t>
@@ -11268,7 +11268,7 @@
     <t>CORE HUNTER</t>
   </si>
   <si>
-    <t>6222</t>
+    <t>s_6222-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Croc-Chomp-70112</t>
@@ -11277,7 +11277,7 @@
     <t>Croc Chomp</t>
   </si>
   <si>
-    <t>70112</t>
+    <t>s_70112-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Destiny-s-Bounty-9446</t>
@@ -11286,7 +11286,7 @@
     <t>Destiny’s Bounty</t>
   </si>
   <si>
-    <t>9446</t>
+    <t>s_9446-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/DRAGON-BOLT-44009</t>
@@ -11295,7 +11295,7 @@
     <t>DRAGON BOLT</t>
   </si>
   <si>
-    <t>44009</t>
+    <t>s_44009-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Escape-from-Mirkwood-Spiders-79001</t>
@@ -11304,7 +11304,7 @@
     <t>Escape from &lt;i&gt;Mirkwood&lt;/i&gt;™ Spiders</t>
   </si>
   <si>
-    <t>79001</t>
+    <t>s_79001-1</t>
   </si>
   <si>
     <t>Price $29.99SalePrice $14.98</t>
@@ -11316,13 +11316,13 @@
     <t>EVO</t>
   </si>
   <si>
-    <t>44012</t>
+    <t>s_44012-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/EVO-6200</t>
   </si>
   <si>
-    <t>6200</t>
+    <t>s_6200-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ewok-Attack-7956</t>
@@ -11331,7 +11331,7 @@
     <t>Ewok™ Attack</t>
   </si>
   <si>
-    <t>7956</t>
+    <t>s_7956-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fangdam-9571</t>
@@ -11340,7 +11340,7 @@
     <t>Fangdam</t>
   </si>
   <si>
-    <t>9571</t>
+    <t>s_9571-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fangz-2233</t>
@@ -11349,13 +11349,13 @@
     <t>Fangz</t>
   </si>
   <si>
-    <t>2233</t>
+    <t>s_2233-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fire-Station-7208</t>
   </si>
   <si>
-    <t>7208</t>
+    <t>s_7208-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/FLAIN-41500</t>
@@ -11364,7 +11364,7 @@
     <t>FLAIN</t>
   </si>
   <si>
-    <t>41500</t>
+    <t>s_41500-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/FLURR-41511</t>
@@ -11373,7 +11373,7 @@
     <t>FLURR</t>
   </si>
   <si>
-    <t>41511</t>
+    <t>s_41511-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/FROST-BEAST-44011</t>
@@ -11382,7 +11382,7 @@
     <t>FROST BEAST</t>
   </si>
   <si>
-    <t>44011</t>
+    <t>s_44011-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/FURNO-6293</t>
@@ -11391,7 +11391,7 @@
     <t>FURNO</t>
   </si>
   <si>
-    <t>6293</t>
+    <t>s_6293-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/FURNO-XL-44000</t>
@@ -11400,7 +11400,7 @@
     <t>FURNO XL</t>
   </si>
   <si>
-    <t>44000</t>
+    <t>s_44000-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Gandalf-Arrives-9469</t>
@@ -11409,7 +11409,7 @@
     <t>Gandalf™ Arrives</t>
   </si>
   <si>
-    <t>9469</t>
+    <t>s_9469-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/GOBBA-41513</t>
@@ -11418,7 +11418,7 @@
     <t>GOBBA</t>
   </si>
   <si>
-    <t>41513</t>
+    <t>s_41513-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Green-Lantern-4528</t>
@@ -11427,7 +11427,7 @@
     <t>Green Lantern</t>
   </si>
   <si>
-    <t>4528</t>
+    <t>s_4528-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ice-Tower-70106</t>
@@ -11436,7 +11436,7 @@
     <t>Ice Tower</t>
   </si>
   <si>
-    <t>70106</t>
+    <t>s_70106-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Iron-Man-4529</t>
@@ -11445,7 +11445,7 @@
     <t>Iron Man™</t>
   </si>
   <si>
-    <t>4529</t>
+    <t>s_4529-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jabba-s-Palace-9516</t>
@@ -11454,7 +11454,7 @@
     <t>Jabba's Palace™</t>
   </si>
   <si>
-    <t>9516</t>
+    <t>s_9516-1</t>
   </si>
   <si>
     <t>Price $119.99SalePrice $29.98</t>
@@ -11466,7 +11466,7 @@
     <t>JAWBLADE</t>
   </si>
   <si>
-    <t>6216</t>
+    <t>s_6216-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/JAWG-41514</t>
@@ -11475,7 +11475,7 @@
     <t>JAWG</t>
   </si>
   <si>
-    <t>41514</t>
+    <t>s_41514-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jay-ZX-9553</t>
@@ -11484,7 +11484,7 @@
     <t>Jay ZX</t>
   </si>
   <si>
-    <t>9553</t>
+    <t>s_9553-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jedi-Interceptor-75038</t>
@@ -11493,7 +11493,7 @@
     <t>Jedi™ Interceptor</t>
   </si>
   <si>
-    <t>75038</t>
+    <t>s_75038-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Jet-Copter-Encounter-7067</t>
@@ -11502,7 +11502,7 @@
     <t>Jet-Copter Encounter</t>
   </si>
   <si>
-    <t>7067</t>
+    <t>s_7067-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/JET-ROCKA-44014</t>
@@ -11511,7 +11511,7 @@
     <t>JET ROCKA</t>
   </si>
   <si>
-    <t>44014</t>
+    <t>s_44014-1</t>
   </si>
   <si>
     <t>Price $34.99SalePrice $17.48</t>
@@ -11523,7 +11523,7 @@
     <t>KRADER</t>
   </si>
   <si>
-    <t>41503</t>
+    <t>s_41503-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/KRAW-41515</t>
@@ -11532,7 +11532,7 @@
     <t>KRAW</t>
   </si>
   <si>
-    <t>41515</t>
+    <t>s_41515-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Legends-of-Chima-50006</t>
@@ -11559,7 +11559,7 @@
     <t>LEGO® Fusion Create &amp; Race</t>
   </si>
   <si>
-    <t>21206</t>
+    <t>s_21206-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Ninjago-3856</t>
@@ -11577,7 +11577,7 @@
     <t>Connections Kit</t>
   </si>
   <si>
-    <t>2000431</t>
+    <t>s_2000431-1</t>
   </si>
   <si>
     <t>Price $754.99</t>
@@ -11589,7 +11589,7 @@
     <t>Identity and Landscape Kit</t>
   </si>
   <si>
-    <t>2000430</t>
+    <t>s_2000430-1</t>
   </si>
   <si>
     <t>Price $789.99</t>
@@ -11613,7 +11613,7 @@
     <t>Lighthouse Island</t>
   </si>
   <si>
-    <t>5770</t>
+    <t>s_5770-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Lizaru-9557</t>
@@ -11622,7 +11622,7 @@
     <t>Lizaru</t>
   </si>
   <si>
-    <t>9557</t>
+    <t>s_9557-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Lloyd-ZX-9574</t>
@@ -11631,7 +11631,7 @@
     <t>Lloyd ZX</t>
   </si>
   <si>
-    <t>9574</t>
+    <t>s_9574-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LUNK-41510</t>
@@ -11640,7 +11640,7 @@
     <t>LUNK</t>
   </si>
   <si>
-    <t>41510</t>
+    <t>s_41510-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mack-s-Team-Truck-8486</t>
@@ -11649,7 +11649,7 @@
     <t>Mack’s Team Truck</t>
   </si>
   <si>
-    <t>8486</t>
+    <t>s_8486-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mezmo-9555</t>
@@ -11658,7 +11658,7 @@
     <t>Mezmo</t>
   </si>
   <si>
-    <t>9555</t>
+    <t>s_9555-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Mini-Fire-Truck-6911</t>
@@ -11667,7 +11667,7 @@
     <t>Mini Fire Truck</t>
   </si>
   <si>
-    <t>6911</t>
+    <t>s_6911-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Nest-Dive-70105</t>
@@ -11676,7 +11676,7 @@
     <t>Nest Dive</t>
   </si>
   <si>
-    <t>70105</t>
+    <t>s_70105-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Nex-3-0-2144</t>
@@ -11685,7 +11685,7 @@
     <t>Nex 3.0</t>
   </si>
   <si>
-    <t>2144</t>
+    <t>s_2144-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/NEX-6221</t>
@@ -11694,7 +11694,7 @@
     <t>NEX</t>
   </si>
   <si>
-    <t>6221</t>
+    <t>s_6221-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/NRG-Cole-9572</t>
@@ -11703,7 +11703,7 @@
     <t>NRG Cole</t>
   </si>
   <si>
-    <t>9572</t>
+    <t>s_9572-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/NRG-Zane-9590</t>
@@ -11712,7 +11712,7 @@
     <t>NRG Zane</t>
   </si>
   <si>
-    <t>9590</t>
+    <t>s_9590-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/OGRUM-44007</t>
@@ -11721,7 +11721,7 @@
     <t>OGRUM</t>
   </si>
   <si>
-    <t>44007</t>
+    <t>s_44007-1</t>
   </si>
   <si>
     <t>Price $12.99SalePrice $2.98</t>
@@ -11733,7 +11733,7 @@
     <t>Polar Accessory Set</t>
   </si>
   <si>
-    <t>850932</t>
+    <t>s_850932-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-Minifigure-Collection-7279</t>
@@ -11742,7 +11742,7 @@
     <t>Police Minifigure Collection</t>
   </si>
   <si>
-    <t>7279</t>
+    <t>s_7279-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Police-Motorcycle-7235</t>
@@ -11751,7 +11751,7 @@
     <t>Police Motorcycle</t>
   </si>
   <si>
-    <t>7235</t>
+    <t>s_7235-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Prehistoric-Hunters-6914</t>
@@ -11760,7 +11760,7 @@
     <t>Prehistoric Hunters</t>
   </si>
   <si>
-    <t>6914</t>
+    <t>s_6914-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Propeller-Adventures-7292</t>
@@ -11769,7 +11769,7 @@
     <t>Propeller Adventures</t>
   </si>
   <si>
-    <t>7292</t>
+    <t>s_7292-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Propeller-Power-6745</t>
@@ -11778,7 +11778,7 @@
     <t>Propeller Power</t>
   </si>
   <si>
-    <t>6745</t>
+    <t>s_6745-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/PYROX-44001</t>
@@ -11787,7 +11787,7 @@
     <t>PYROX</t>
   </si>
   <si>
-    <t>44001</t>
+    <t>s_44001-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Quinjet-Aerial-Battle-6869</t>
@@ -11796,7 +11796,7 @@
     <t>Quinjet Aerial Battle</t>
   </si>
   <si>
-    <t>6869</t>
+    <t>s_6869-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Rescue-Robot-5764</t>
@@ -11805,7 +11805,7 @@
     <t>Rescue Robot</t>
   </si>
   <si>
-    <t>5764</t>
+    <t>s_5764-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/ROCKA-44002</t>
@@ -11814,7 +11814,7 @@
     <t>ROCKA</t>
   </si>
   <si>
-    <t>44002</t>
+    <t>s_44002-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Royal-Roost-70108</t>
@@ -11823,7 +11823,7 @@
     <t>Royal Roost</t>
   </si>
   <si>
-    <t>70108</t>
+    <t>s_70108-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/SCAROX-44003</t>
@@ -11832,7 +11832,7 @@
     <t>SCAROX</t>
   </si>
   <si>
-    <t>44003</t>
+    <t>s_44003-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Scorpio-2236</t>
@@ -11841,7 +11841,7 @@
     <t>Scorpio</t>
   </si>
   <si>
-    <t>2236</t>
+    <t>s_2236-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/SEISMO-41504</t>
@@ -11850,7 +11850,7 @@
     <t>SEISMO</t>
   </si>
   <si>
-    <t>41504</t>
+    <t>s_41504-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sensei-Wu-2255</t>
@@ -11859,7 +11859,7 @@
     <t>Sensei Wu</t>
   </si>
   <si>
-    <t>2255</t>
+    <t>s_2255-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Shelob-Attacks-9470</t>
@@ -11868,7 +11868,7 @@
     <t>Shelob™ Attacks</t>
   </si>
   <si>
-    <t>9470</t>
+    <t>s_9470-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/SHUFF-41505</t>
@@ -11877,7 +11877,7 @@
     <t>SHUFF</t>
   </si>
   <si>
-    <t>41505</t>
+    <t>s_41505-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Silver-Mine-Shootout-79110</t>
@@ -11886,7 +11886,7 @@
     <t>Silver Mine Shootout</t>
   </si>
   <si>
-    <t>79110</t>
+    <t>s_79110-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Skunk-Attack-70107</t>
@@ -11895,7 +11895,7 @@
     <t>Skunk Attack</t>
   </si>
   <si>
-    <t>70107</t>
+    <t>s_70107-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sky-Joust-70114</t>
@@ -11904,7 +11904,7 @@
     <t>Sky Joust</t>
   </si>
   <si>
-    <t>70114</t>
+    <t>s_70114-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sky-Launch-70139</t>
@@ -11913,7 +11913,7 @@
     <t>Sky Launch</t>
   </si>
   <si>
-    <t>70139</t>
+    <t>s_70139-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Slithraa-9573</t>
@@ -11922,7 +11922,7 @@
     <t>Slithraa</t>
   </si>
   <si>
-    <t>9573</t>
+    <t>s_9573-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/SLUMBO-41509</t>
@@ -11931,7 +11931,7 @@
     <t>SLUMBO</t>
   </si>
   <si>
-    <t>41509</t>
+    <t>s_41509-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/SPEEDA-DEMON-6231</t>
@@ -11940,7 +11940,7 @@
     <t>SPEEDA DEMON</t>
   </si>
   <si>
-    <t>6231</t>
+    <t>s_6231-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Spider-Man-s-Doc-Ock-Ambush-6873</t>
@@ -11949,7 +11949,7 @@
     <t>Spider-Man's™ Doc Ock™ Ambush</t>
   </si>
   <si>
-    <t>6873</t>
+    <t>s_6873-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Spitta-9569</t>
@@ -11958,7 +11958,7 @@
     <t>Spitta</t>
   </si>
   <si>
-    <t>9569</t>
+    <t>s_9569-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/SPLITFACE-6218</t>
@@ -11967,7 +11967,7 @@
     <t>SPLITFACE</t>
   </si>
   <si>
-    <t>6218</t>
+    <t>s_6218-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Stinger-Duel-70140</t>
@@ -11976,7 +11976,7 @@
     <t>Stinger Duel</t>
   </si>
   <si>
-    <t>70140</t>
+    <t>s_70140-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/STORMER-44010</t>
@@ -11985,7 +11985,7 @@
     <t>STORMER</t>
   </si>
   <si>
-    <t>44010</t>
+    <t>s_44010-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Stormer-3-0-2145</t>
@@ -11994,7 +11994,7 @@
     <t>Stormer 3.0</t>
   </si>
   <si>
-    <t>2145</t>
+    <t>s_2145-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/STORMER-XL-6230</t>
@@ -12003,7 +12003,7 @@
     <t>STORMER XL</t>
   </si>
   <si>
-    <t>6230</t>
+    <t>s_6230-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Stringer-3-0-2183</t>
@@ -12012,7 +12012,7 @@
     <t>Stringer 3.0</t>
   </si>
   <si>
-    <t>2183</t>
+    <t>s_2183-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/STRINGER-6282</t>
@@ -12021,7 +12021,7 @@
     <t>STRINGER</t>
   </si>
   <si>
-    <t>6282</t>
+    <t>s_6282-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Super-Speedster-5867</t>
@@ -12030,7 +12030,7 @@
     <t>Super Speedster</t>
   </si>
   <si>
-    <t>5867</t>
+    <t>s_5867-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/SURGE-44008</t>
@@ -12039,13 +12039,13 @@
     <t>SURGE</t>
   </si>
   <si>
-    <t>44008</t>
+    <t>s_44008-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/SURGE-6217</t>
   </si>
   <si>
-    <t>6217</t>
+    <t>s_6217-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Swamp-Jump-70111</t>
@@ -12054,7 +12054,7 @@
     <t>Swamp Jump</t>
   </si>
   <si>
-    <t>70111</t>
+    <t>s_70111-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/TENTRO-41516</t>
@@ -12063,7 +12063,7 @@
     <t>TENTRO</t>
   </si>
   <si>
-    <t>41516</t>
+    <t>s_41516-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/TESLO-41506</t>
@@ -12072,7 +12072,7 @@
     <t>TESLO</t>
   </si>
   <si>
-    <t>41506</t>
+    <t>s_41506-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Battle-of-Helm-s-Deep-9474</t>
@@ -12081,7 +12081,7 @@
     <t>The Battle of Helm's Deep™</t>
   </si>
   <si>
-    <t>9474</t>
+    <t>s_9474-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Hulk-4530</t>
@@ -12090,7 +12090,7 @@
     <t>The Hulk™</t>
   </si>
   <si>
-    <t>4530</t>
+    <t>s_4530-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Hobbit-An-Unexpected-Journey-3920</t>
@@ -12108,7 +12108,7 @@
     <t>&lt;i&gt;The Joker&lt;/i&gt;</t>
   </si>
   <si>
-    <t>4527</t>
+    <t>s_4527-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Princess-Play-Castle-10668</t>
@@ -12117,7 +12117,7 @@
     <t>The Princess Play Castle</t>
   </si>
   <si>
-    <t>10668</t>
+    <t>s_10668-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/THORNRAXX-6228</t>
@@ -12126,7 +12126,7 @@
     <t>THORNRAXX</t>
   </si>
   <si>
-    <t>6228</t>
+    <t>s_6228-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Tower-Target-70110</t>
@@ -12135,7 +12135,7 @@
     <t>Tower Target</t>
   </si>
   <si>
-    <t>70110</t>
+    <t>s_70110-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/TOXIC-REAPA-6201</t>
@@ -12144,7 +12144,7 @@
     <t>TOXIC REAPA</t>
   </si>
   <si>
-    <t>6201</t>
+    <t>s_6201-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Training-Set-9558</t>
@@ -12153,7 +12153,7 @@
     <t>Training Set</t>
   </si>
   <si>
-    <t>9558</t>
+    <t>s_9558-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Tripod-Invader-7051</t>
@@ -12162,7 +12162,7 @@
     <t>Tripod Invader</t>
   </si>
   <si>
-    <t>7051</t>
+    <t>s_7051-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Ultimate-Build-Lightning-McQueen-8484</t>
@@ -12171,7 +12171,7 @@
     <t>Ultimate Build Lightning McQueen</t>
   </si>
   <si>
-    <t>8484</t>
+    <t>s_8484-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Uruk-hai-Army-9471</t>
@@ -12180,7 +12180,7 @@
     <t>Uruk-hai™ Army</t>
   </si>
   <si>
-    <t>9471</t>
+    <t>s_9471-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/VOLECTRO-41508</t>
@@ -12189,7 +12189,7 @@
     <t>VOLECTRO</t>
   </si>
   <si>
-    <t>41508</t>
+    <t>s_41508-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/VOLTIX-6283</t>
@@ -12198,7 +12198,7 @@
     <t>VOLTIX</t>
   </si>
   <si>
-    <t>6283</t>
+    <t>s_6283-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/VULK-41501</t>
@@ -12207,7 +12207,7 @@
     <t>VULK</t>
   </si>
   <si>
-    <t>41501</t>
+    <t>s_41501-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Whirling-Vines-70109</t>
@@ -12216,7 +12216,7 @@
     <t>Whirling Vines</t>
   </si>
   <si>
-    <t>70109</t>
+    <t>s_70109-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/XT4-6229</t>
@@ -12225,7 +12225,7 @@
     <t>XT4</t>
   </si>
   <si>
-    <t>6229</t>
+    <t>s_6229-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Zane-ZX-9554</t>
@@ -12234,7 +12234,7 @@
     <t>Zane ZX</t>
   </si>
   <si>
-    <t>9554</t>
+    <t>s_9554-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/ZAPTOR-41507</t>
@@ -12243,7 +12243,7 @@
     <t>ZAPTOR</t>
   </si>
   <si>
-    <t>41507</t>
+    <t>s_41507-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/ZORCH-41502</t>
@@ -12252,7 +12252,7 @@
     <t>ZORCH</t>
   </si>
   <si>
-    <t>41502</t>
+    <t>s_41502-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Belkin-Brand-iPhone-5-Case-Pink-Violet-5002518</t>
@@ -12321,7 +12321,7 @@
     <t>http://shop.lego.com/en-US/Zoo-Care-10576</t>
   </si>
   <si>
-    <t>10576</t>
+    <t>s_10576-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Buildable-Brick-Box-2x2-40118</t>
@@ -12330,7 +12330,7 @@
     <t>Buildable Brick Box 2x2</t>
   </si>
   <si>
-    <t>40118</t>
+    <t>s_40118-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Mini-Box-Pink-5001380</t>
@@ -12378,7 +12378,7 @@
     <t>Fall Scene</t>
   </si>
   <si>
-    <t>40057</t>
+    <t>s_40057-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Halloween-Bat-40090</t>
@@ -12387,7 +12387,7 @@
     <t>&lt;p&gt;Halloween Bat&lt;/p&gt;</t>
   </si>
   <si>
-    <t>40090</t>
+    <t>s_40090-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Valentine-40085</t>
@@ -12396,7 +12396,7 @@
     <t>LEGO® Valentine</t>
   </si>
   <si>
-    <t>40085</t>
+    <t>s_40085-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Time-Teacher-Minifigure-Watch-Clock-5001370</t>
@@ -12423,7 +12423,7 @@
     <t>The Crazy Scientist &amp; His Monster</t>
   </si>
   <si>
-    <t>9466</t>
+    <t>s_9466-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Ghost-Train-9467</t>
@@ -12432,7 +12432,7 @@
     <t>The Ghost Train</t>
   </si>
   <si>
-    <t>9467</t>
+    <t>s_9467-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Mummy-9462</t>
@@ -12441,7 +12441,7 @@
     <t>The Mummy</t>
   </si>
   <si>
-    <t>9462</t>
+    <t>s_9462-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Swamp-Creature-9461</t>
@@ -12450,7 +12450,7 @@
     <t>The Swamp Creature</t>
   </si>
   <si>
-    <t>9461</t>
+    <t>s_9461-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Vampyre-Hearse-9464</t>
@@ -12459,7 +12459,7 @@
     <t>The Vampyre Hearse</t>
   </si>
   <si>
-    <t>9464</t>
+    <t>s_9464-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Vampyre-Castle-9468</t>
@@ -12468,7 +12468,7 @@
     <t>Vampyre Castle</t>
   </si>
   <si>
-    <t>9468</t>
+    <t>s_9468-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Bikini-Bottom-Undersea-Party-3818</t>
@@ -12477,7 +12477,7 @@
     <t>Bikini Bottom Undersea Party</t>
   </si>
   <si>
-    <t>3818</t>
+    <t>s_3818-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Bone-Cruncher-9093</t>
@@ -12486,7 +12486,7 @@
     <t>Bone Cruncher</t>
   </si>
   <si>
-    <t>9093</t>
+    <t>s_9093-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Captain-s-Cabin-4191</t>
@@ -12495,7 +12495,7 @@
     <t>Captain's Cabin</t>
   </si>
   <si>
-    <t>4191</t>
+    <t>s_4191-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Classic-Picture-Frame-850702</t>
@@ -12513,7 +12513,7 @@
     <t>Crazy Demon</t>
   </si>
   <si>
-    <t>9092</t>
+    <t>s_9092-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Easter-Bunny-with-Basket-40053</t>
@@ -12522,7 +12522,7 @@
     <t>Easter Bunny with Basket</t>
   </si>
   <si>
-    <t>40053</t>
+    <t>s_40053-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Fountain-of-Youth-4192</t>
@@ -12531,7 +12531,7 @@
     <t>Fountain of Youth</t>
   </si>
   <si>
-    <t>4192</t>
+    <t>s_4192-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Heroic-Heroes-of-the-Deep-3815</t>
@@ -12540,7 +12540,7 @@
     <t>Heroic Heroes of the Deep</t>
   </si>
   <si>
-    <t>3815</t>
+    <t>s_3815-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Isla-de-la-Muerta-4181</t>
@@ -12549,7 +12549,7 @@
     <t>Isla de la Muerta</t>
   </si>
   <si>
-    <t>4181</t>
+    <t>s_4181-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Amazing-Minifigures-Ultimate-Sticker-Collection-5002818</t>
@@ -12654,7 +12654,7 @@
     <t>LEGO® Power Functions IR Remote Control</t>
   </si>
   <si>
-    <t>8885</t>
+    <t>s_8885-1</t>
   </si>
   <si>
     <t>Price $9.49</t>
@@ -12678,7 +12678,7 @@
     <t>Santa with Sleigh Building Set</t>
   </si>
   <si>
-    <t>40010</t>
+    <t>s_40010-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Star-Wars-Darth-Maul-Watch-2851193</t>
@@ -12714,7 +12714,7 @@
     <t>My First LEGO® Princess</t>
   </si>
   <si>
-    <t>10656</t>
+    <t>s_10656-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Nitro-Predator-9095</t>
@@ -12723,7 +12723,7 @@
     <t>Nitro Predator</t>
   </si>
   <si>
-    <t>9095</t>
+    <t>s_9095-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Queen-Anne-s-Revenge-4195</t>
@@ -12732,7 +12732,7 @@
     <t>Queen Anne’s Revenge</t>
   </si>
   <si>
-    <t>4195</t>
+    <t>s_4195-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Star-Striker-9094</t>
@@ -12741,7 +12741,7 @@
     <t>Star Striker</t>
   </si>
   <si>
-    <t>9094</t>
+    <t>s_9094-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Summer-Scene-40054</t>
@@ -12750,7 +12750,7 @@
     <t>Summer Scene</t>
   </si>
   <si>
-    <t>40054</t>
+    <t>s_40054-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Cannibal-Escape-4182</t>
@@ -12759,7 +12759,7 @@
     <t>The Cannibal Escape</t>
   </si>
   <si>
-    <t>4182</t>
+    <t>s_4182-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-LEGO-Calendar-2014-5002670</t>
@@ -12777,7 +12777,7 @@
     <t>Train Motor</t>
   </si>
   <si>
-    <t>8866</t>
+    <t>s_8866-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Transformer-9833</t>
@@ -12786,7 +12786,7 @@
     <t>Transformer/Charger</t>
   </si>
   <si>
-    <t>9833</t>
+    <t>s_9833-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Whitecap-Bay-4194</t>
@@ -12795,7 +12795,7 @@
     <t>Whitecap Bay</t>
   </si>
   <si>
-    <t>4194</t>
+    <t>s_4194-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Alien-Mothership-7065</t>
@@ -12804,7 +12804,7 @@
     <t>Alien Mothership</t>
   </si>
   <si>
-    <t>7065</t>
+    <t>s_7065-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Castle-Fortaan-3860</t>
@@ -12828,7 +12828,7 @@
     <t>http://shop.lego.com/en-US/Container-Truck-8052</t>
   </si>
   <si>
-    <t>8052</t>
+    <t>s_8052-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Creationary-3844</t>
@@ -12855,7 +12855,7 @@
     <t>Farm</t>
   </si>
   <si>
-    <t>7637</t>
+    <t>s_7637-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Glove-World-3816</t>
@@ -12864,7 +12864,7 @@
     <t>Glove World</t>
   </si>
   <si>
-    <t>3816</t>
+    <t>s_3816-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/HEROICA-Ilrion-3874</t>
@@ -12882,7 +12882,7 @@
     <t>Kai ZX</t>
   </si>
   <si>
-    <t>9561</t>
+    <t>s_9561-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Krusty-Krab-Adventures-3833</t>
@@ -12891,7 +12891,7 @@
     <t>Krusty Krab Adventures</t>
   </si>
   <si>
-    <t>3833</t>
+    <t>s_3833-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/LEGO-Knight-and-Castle-Building-Set-5929</t>
@@ -12900,7 +12900,7 @@
     <t>LEGO® Knight and Castle Building Set</t>
   </si>
   <si>
-    <t>5929</t>
+    <t>s_5929-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Lloyd-Garmadon-9552</t>
@@ -12909,7 +12909,7 @@
     <t>Lloyd Garmadon</t>
   </si>
   <si>
-    <t>9552</t>
+    <t>s_9552-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Minotaurus-3841</t>
@@ -12927,7 +12927,7 @@
     <t>Mobile Crane</t>
   </si>
   <si>
-    <t>8053</t>
+    <t>s_8053-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/NRG-Jay-9570</t>
@@ -12936,7 +12936,7 @@
     <t>NRG Jay</t>
   </si>
   <si>
-    <t>9570</t>
+    <t>s_9570-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Off-Roader-8297</t>
@@ -12945,7 +12945,7 @@
     <t>Off Roader</t>
   </si>
   <si>
-    <t>8297</t>
+    <t>s_8297-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Pirate-Plank-3848</t>
@@ -12963,7 +12963,7 @@
     <t>Power Boat Transporter</t>
   </si>
   <si>
-    <t>4643</t>
+    <t>s_4643-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Public-Transport-Station-8404</t>
@@ -12972,7 +12972,7 @@
     <t>Public Transport Station</t>
   </si>
   <si>
-    <t>8404</t>
+    <t>s_8404-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Rocka-XL-2282</t>
@@ -12981,7 +12981,7 @@
     <t>Rocka XL</t>
   </si>
   <si>
-    <t>2282</t>
+    <t>s_2282-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Snappa-9564</t>
@@ -12990,7 +12990,7 @@
     <t>Snappa</t>
   </si>
   <si>
-    <t>9564</t>
+    <t>s_9564-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Sonic-Boom-5892</t>
@@ -12999,7 +12999,7 @@
     <t>Sonic Boom</t>
   </si>
   <si>
-    <t>5892</t>
+    <t>s_5892-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Black-Pearl-4184</t>
@@ -13008,7 +13008,7 @@
     <t>The Black Pearl</t>
   </si>
   <si>
-    <t>4184</t>
+    <t>s_4184-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Flying-Dutchman-3817</t>
@@ -13017,7 +13017,7 @@
     <t>The Flying Dutchman</t>
   </si>
   <si>
-    <t>3817</t>
+    <t>s_3817-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-London-Escape-4193</t>
@@ -13026,7 +13026,7 @@
     <t>The London Escape</t>
   </si>
   <si>
-    <t>4193</t>
+    <t>s_4193-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Mill-4183</t>
@@ -13035,7 +13035,7 @@
     <t>The Mill</t>
   </si>
   <si>
-    <t>4183</t>
+    <t>s_4183-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Werewolf-9463</t>
@@ -13044,7 +13044,7 @@
     <t>The Werewolf</t>
   </si>
   <si>
-    <t>9463</t>
+    <t>s_9463-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/The-Zombies-9465</t>
@@ -13053,7 +13053,7 @@
     <t>The Zombies</t>
   </si>
   <si>
-    <t>9465</t>
+    <t>s_9465-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/UFO-Abduction-7052</t>
@@ -13062,7 +13062,7 @@
     <t>UFO Abduction</t>
   </si>
   <si>
-    <t>7052</t>
+    <t>s_7052-1</t>
   </si>
   <si>
     <t>http://shop.lego.com/en-US/Waldurk-Forest-3858</t>
